--- a/dataset/lg/bharga.xlsx
+++ b/dataset/lg/bharga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీకైలాస మహామహీధర శిరఃశృంగాటకాంచన్మణి-
 ప్రాకారాంతర చంద్రకాంత రజతప్రాసాదశుద్ధాంత సిం-
@@ -477,32 +474,29 @@
 రాకాచంద్రనిభప్రభాకలిత! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కై', 'U'), ('లా', 'U'), ('స', '|'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హీ', 'U'), ('ధ', '|'), ('ర', '|'), ('శి', '|'), ('రః', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ట', '|'), ('కాం', 'U'), ('చ', 'U'), ('న్మ', '|'), ('ణి', 'U'), ('ప్రా', 'U'), ('కా', 'U'), ('రాం', 'U'), ('త', '|'), ('ర', '|'), ('చం', 'U'), ('ద్ర', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('జ', '|'), ('త', 'U'), ('ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('శు', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('సిం', 'U'), ('హా', 'U'), ('కా', 'U'), ('రో', 'U'), ('న్న', '|'), ('త', '|'), ('హే', 'U'), ('మ', '|'), ('పీ', 'U'), ('ఠ', '|'), ('ము', '|'), ('న', '|'), ('గొ', 'U'), ('ల్వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్నె', 'U'), ('న్నె', '|'), ('దన్', 'U'), ('రా', 'U'), ('కా', 'U'), ('చం', 'U'), ('ద్ర', '|'), ('ని', '|'), ('భ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('క', '|'), ('లి', '|'), ('త', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>క్షితినంభోనిధి కర్ఘ్యమిచ్చు క్రియ భక్తిన్బద్మినీభర్త కా-
 రతి యర్పించు తెఱంగున న్బహుతరబ్రహ్మాండసంత్రాతకున్
@@ -510,32 +504,29 @@
 కృతి సంస్తుత్యలసద్గుణాభరణ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('నం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('క', 'U'), ('ర్ఘ్య', '|'), ('మి', 'U'), ('చ్చు', 'U'), ('క్రి', '|'), ('య', '|'), ('భ', 'U'), ('క్తి', 'U'), ('న్బ', 'U'), ('ద్మి', '|'), ('నీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('కా', 'U'), ('ర', '|'), ('తి', '|'), ('య', 'U'), ('ర్పిం', 'U'), ('చు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('న', 'U'), ('న్బ', '|'), ('హు', '|'), ('త', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('సం', 'U'), ('త్రా', 'U'), ('త', '|'), ('కున్', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('టి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('కొ', '|'), ('స', '|'), ('గె', '|'), ('ద', 'U'), ('న్సం', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('గై', 'U'), ('కొ', 'U'), ('మ్ము', '|'), ('నా', 'U'), ('కృ', '|'), ('తి', '|'), ('సం', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('ల', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>శుక శాండిల్య మృకండుజాత్రి కలశీసూనుల్ భరద్వాజ శౌ-
 నక వాల్మీకి వసిష్ఠ గర్గ భృగు మాండవ్యాజసంభూత కౌ-
@@ -543,32 +534,29 @@
 కక నేనెంతటివాఁడ నిన్బొగడ భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('క', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('జా', 'U'), ('త్రి', '|'), ('క', '|'), ('ల', '|'), ('శీ', 'U'), ('సూ', 'U'), ('నుల్', 'U'), ('భ', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('జ', '|'), ('శౌ', 'U'), ('న', '|'), ('క', '|'), ('వా', 'U'), ('ల్మీ', 'U'), ('కి', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('గ', 'U'), ('ర్గ', '|'), ('భృ', '|'), ('గు', '|'), ('మాం', 'U'), ('డ', 'U'), ('వ్యా', 'U'), ('జ', '|'), ('సం', 'U'), ('భూ', 'U'), ('త', '|'), ('కౌ', 'U'), ('శి', '|'), ('క', '|'), ('క', 'U'), ('ణ్వా', 'U'), ('ది', '|'), ('మ', '|'), ('హ', 'U'), ('ర్షి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('నిన్', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('రు', '|'), ('కొం', 'U'), ('క', '|'), ('క', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('ని', 'U'), ('న్బొ', '|'), ('గ', '|'), ('డ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>వరకౌండిన్యసగోత్రపాత్రుని యశోవర్ధిష్ణునిం గుక్కుటే-
 శ్వరకారుణ్యకటాక్షలబ్ధ కవితాసామ్రాజ్యధౌరేయునిన్
@@ -576,32 +564,29 @@
 గరుణన్బ్రోవుము కూచిమంచికులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('స', '|'), ('గో', 'U'), ('త్ర', '|'), ('పా', 'U'), ('త్రు', '|'), ('ని', '|'), ('య', '|'), ('శో', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('నిం', 'U'), ('గు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ల', 'U'), ('బ్ధ', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యు', '|'), ('నిన్', 'U'), ('స్థి', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్యుం', 'U'), ('డ', '|'), ('గు', '|'), ('గం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('ది', 'U'), ('మ్మ', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('నేం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', 'U'), ('న్బ్రో', 'U'), ('వు', '|'), ('ము', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>ప్రచురత్వంబుగ నెంతు నాత్మనెపుడు న్బ్రత్యూహసంశాంతికై
 విచలత్కర్ణసమీరదూరిత మహావిఘ్నంబుభృజ్జాలునిన్
@@ -609,32 +594,29 @@
 ప్రచురద్భృంగకులున్ గణాధిపుని భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('చు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('గ', '|'), ('నెం', 'U'), ('తు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నె', '|'), ('పు', '|'), ('డు', 'U'), ('న్బ్ర', 'U'), ('త్యూ', 'U'), ('హ', '|'), ('సం', 'U'), ('శాం', 'U'), ('తి', '|'), ('కై', 'U'), ('వి', '|'), ('చ', '|'), ('ల', 'U'), ('త్క', 'U'), ('ర్ణ', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('దూ', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బు', '|'), ('భృ', 'U'), ('జ్జా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('రు', '|'), ('చి', '|'), ('రా', 'U'), ('స్వాం', 'U'), ('బు', '|'), ('రు', '|'), ('హ', 'U'), ('స్ర', '|'), ('వ', 'U'), ('న్మ', '|'), ('ద', '|'), ('జ', '|'), ('ల', 'U'), ('ప్రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('లీ', 'U'), ('లా', 'U'), ('ము', '|'), ('హుః', 'U'), ('ప్ర', '|'), ('చు', '|'), ('ర', 'U'), ('ద్భృం', 'U'), ('గ', '|'), ('కు', '|'), ('లున్', 'U'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('పు', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>వేమాఱున్ భవదీయ పావనకళావిఖ్యాతకావ్యక్రియా-
 సామీచీన్య హృదంతరాళకవిరాట్సంక్రదనశ్రేణికిన్
@@ -642,32 +624,29 @@
 గ్భామారత్నము లీలమై నిలిచి భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('మా', 'U'), ('ఱున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('వి', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('కా', 'U'), ('వ్య', 'U'), ('క్రి', '|'), ('యా', 'U'), ('సా', 'U'), ('మీ', 'U'), ('చీ', 'U'), ('న్య', '|'), ('హృ', '|'), ('దం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ట్సం', 'U'), ('క్ర', '|'), ('ద', '|'), ('న', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మం', 'U'), ('చి', '|'), ('ను', '|'), ('డు', '|'), ('వుల్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నొం', 'U'), ('దిం', 'U'), ('చు', '|'), ('వా', 'U'), ('గ్భా', 'U'), ('మా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లీ', 'U'), ('ల', '|'), ('మై', 'U'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>చిరభక్తిన్మదిలో భవద్వ్రతముగాఁ జింతింతు నశ్రాంతమున్
 బరవాది ప్రమథద్విపేంద్రపదవీపంచాననశ్రేష్ఠు బం-
@@ -675,32 +654,29 @@
 కరునిన్ లింగయసద్గురూత్తముని భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', 'U'), ('న్మ', '|'), ('ది', '|'), ('లో', 'U'), ('భ', '|'), ('వ', '|'), ('ద్వ్ర', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('తు', '|'), ('న', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('మున్', 'U'), ('బ', '|'), ('ర', '|'), ('వా', 'U'), ('ది', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థ', 'U'), ('ద్వి', '|'), ('పేం', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('వీ', 'U'), ('పం', 'U'), ('చా', 'U'), ('న', '|'), ('న', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('తే', 'U'), ('జో', 'U'), ('ని', '|'), ('ధి', '|'), ('దెం', 'U'), ('దు', '|'), ('లూ', 'U'), ('రి', '|'), ('కు', '|'), ('ల', '|'), ('పా', 'U'), ('థో', 'U'), ('రా', 'U'), ('శి', '|'), ('రా', 'U'), ('కా', 'U'), ('ని', '|'), ('శా', 'U'), ('క', '|'), ('రు', '|'), ('నిన్', 'U'), ('లిం', 'U'), ('గ', '|'), ('య', '|'), ('స', 'U'), ('ద్గు', '|'), ('రూ', 'U'), ('త్త', '|'), ('ము', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>పులితోల్ముమ్మొనవాలు పాఁపతొడవుల్ భూత్యంతరాగంబు పు-
 న్కలపేర్లెక్కువకన్ను నీలగళమున్ గంగావతంసంబు క్రొ-
@@ -708,32 +684,29 @@
 గల నీ మూర్తిఁ దలంతు నెప్పుడును భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('లి', '|'), ('తో', 'U'), ('ల్ము', 'U'), ('మ్మొ', '|'), ('న', '|'), ('వా', 'U'), ('లు', '|'), ('పా', 'U'), ('ప', '|'), ('తొ', '|'), ('డ', '|'), ('వుల్', 'U'), ('భూ', 'U'), ('త్యం', 'U'), ('త', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('పు', 'U'), ('న్క', '|'), ('ల', '|'), ('పే', 'U'), ('ర్లె', 'U'), ('క్కు', '|'), ('వ', '|'), ('క', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('ల', '|'), ('గ', '|'), ('ళ', '|'), ('మున్', 'U'), ('గం', 'U'), ('గా', 'U'), ('వ', '|'), ('తం', 'U'), ('సం', 'U'), ('బు', 'U'), ('క్రొ', 'U'), ('న్నె', '|'), ('ల', '|'), ('పూ', 'U'), ('వ', '|'), ('ద్రి', '|'), ('సు', '|'), ('తా', 'U'), ('స', '|'), ('మ', 'U'), ('న్వ', '|'), ('య', '|'), ('ము', '|'), ('వి', 'U'), ('న్కీ', 'U'), ('ల్గం', 'U'), ('టు', '|'), ('లే', 'U'), ('జిం', 'U'), ('క', '|'), ('యున్', 'U'), ('గ', '|'), ('ల', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>హర! మృత్యుంజయ! చంద్రశేఖర! విరూపాక్షా! మహాదేవ! శం-
 కర! భూతేశ! మహేశ! రుద్ర! మృడ! గంగాజూట! గౌరీమనో-
@@ -741,32 +714,29 @@
 కరిచర్మాంబర! యంచు నెంతు నిను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('ర', '|'), ('మృ', 'U'), ('త్యుం', 'U'), ('జ', '|'), ('య', '|'), ('చం', 'U'), ('ద్ర', '|'), ('శే', 'U'), ('ఖ', '|'), ('ర', '|'), ('వి', '|'), ('రూ', 'U'), ('పా', 'U'), ('క్షా', 'U'), ('మ', '|'), ('హా', 'U'), ('దే', 'U'), ('వ', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('భూ', 'U'), ('తే', 'U'), ('శ', '|'), ('మ', '|'), ('హే', 'U'), ('శ', '|'), ('రు', '|'), ('ద్ర', '|'), ('మృ', '|'), ('డ', '|'), ('గం', 'U'), ('గా', 'U'), ('జూ', 'U'), ('ట', '|'), ('గౌ', 'U'), ('రీ', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞ', '|'), ('బి', '|'), ('లే', 'U'), ('శ', '|'), ('యా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('శ', 'U'), ('ర్వా', 'U'), ('నీ', 'U'), ('ల', '|'), ('కం', 'U'), ('ఠా', 'U'), ('శి', '|'), ('వా', 'U'), ('క', '|'), ('రి', '|'), ('చ', '|'), ('ర్మాం', 'U'), ('బ', '|'), ('ర', '|'), ('యం', 'U'), ('చు', '|'), ('నెం', 'U'), ('తు', '|'), ('ని', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>జగదీశాయ నమోస్తు తే భగవతే చంద్రావతంసాయ ప-
 న్నగహారాయ శివాయ లోకగురవే నానామరుద్రూపిణే
@@ -774,32 +744,29 @@
 రగుణాఢ్యాయ యటంచు మ్రొక్కిడుదు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('దీ', 'U'), ('శా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('తే', 'U'), ('భ', '|'), ('గ', '|'), ('వ', '|'), ('తే', 'U'), ('చం', 'U'), ('ద్రా', 'U'), ('వ', '|'), ('తం', 'U'), ('సా', 'U'), ('య', '|'), ('ప', 'U'), ('న్న', '|'), ('గ', '|'), ('హా', 'U'), ('రా', 'U'), ('య', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('ర', '|'), ('వే', 'U'), ('నా', 'U'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('ద్రూ', 'U'), ('పి', '|'), ('ణే', 'U'), ('ని', '|'), ('గ', '|'), ('మాం', 'U'), ('త', 'U'), ('ప్ర', '|'), ('తి', '|'), ('పా', 'U'), ('ది', '|'), ('తా', 'U'), ('య', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థా', 'U'), ('య', '|'), ('ధీ', 'U'), ('ర', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యా', 'U'), ('య', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('డు', '|'), ('దు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>వ్రతముల్ దేవగురుద్విజార్యపదసేవల్ వైశ్వదేవాది స-
 త్క్ర తుహోమాదులు దానధర్మములు వైరాగ్యప్రచారంబు లా-
@@ -807,32 +774,29 @@
 గతి రక్షించెదొ కాని నన్నిఁకను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('వ్ర', '|'), ('త', '|'), ('ముల్', 'U'), ('దే', 'U'), ('వ', '|'), ('గు', '|'), ('రు', 'U'), ('ద్వి', '|'), ('జా', 'U'), ('ర్య', '|'), ('ప', '|'), ('ద', '|'), ('సే', 'U'), ('వల్', 'U'), ('వై', 'U'), ('శ్వ', '|'), ('దే', 'U'), ('వా', 'U'), ('ది', '|'), ('స', 'U'), ('త్క్ర', '|'), ('తు', '|'), ('హో', 'U'), ('మా', 'U'), ('దు', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', 'U'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లా', 'U'), ('శ్రి', '|'), ('త', '|'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధు', '|'), ('లిం', 'U'), ('చు', '|'), ('కే', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మే', 'U'), ('గ', '|'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>మరుదర్కేందుకృశానుయజ్వ గగనాంభకుంభినీమూర్తి నం-
 బరకేశున్ శరణాగతార్తిహరణు న్బాలేందుచూడామణిన్
@@ -840,32 +804,29 @@
 కరదోరంతరు నిన్ భజించెదను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('రు', '|'), ('ద', 'U'), ('ర్కేం', 'U'), ('దు', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('య', 'U'), ('జ్వ', '|'), ('గ', '|'), ('గ', '|'), ('నాం', 'U'), ('భ', '|'), ('కుం', 'U'), ('భి', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('కే', 'U'), ('శున్', 'U'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('తా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('ర', '|'), ('ణు', 'U'), ('న్బా', 'U'), ('లేం', 'U'), ('దు', '|'), ('చూ', 'U'), ('డా', 'U'), ('మ', '|'), ('ణిన్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('భృ', 'U'), ('త్త', '|'), ('న', '|'), ('యా', 'U'), ('స్త', '|'), ('న', 'U'), ('ద్వ', '|'), ('య', '|'), ('మి', '|'), ('ళి', 'U'), ('త్క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('కా', 'U'), ('పం', 'U'), ('క', '|'), ('సం', 'U'), ('క', '|'), ('ర', '|'), ('దో', 'U'), ('రం', 'U'), ('త', '|'), ('రు', '|'), ('నిన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>మిహిరప్రోద్భవఘోరకింకరసమున్మేషోరగశ్రేణికా
 విహగోత్తంస మశేషదోషపటలీవేదండకంఠీరవం
@@ -873,32 +834,29 @@
 బహహా! కల్గెను నాకు భాగ్యమున భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('మి', '|'), ('హి', '|'), ('ర', 'U'), ('ప్రో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('ఘో', 'U'), ('ర', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('న్మే', 'U'), ('షో', 'U'), ('ర', '|'), ('గ', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కా', 'U'), ('వి', '|'), ('హ', '|'), ('గో', 'U'), ('త్తం', 'U'), ('స', '|'), ('మ', '|'), ('శే', 'U'), ('ష', '|'), ('దో', 'U'), ('ష', '|'), ('ప', '|'), ('ట', '|'), ('లీ', 'U'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వం', 'U'), ('బ', '|'), ('హి', '|'), ('త', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('గ', '|'), ('ణా', 'U'), ('ట', '|'), ('వీ', 'U'), ('హు', '|'), ('త', '|'), ('వ', '|'), ('హం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('పం', 'U'), ('చా', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బ', '|'), ('హ', '|'), ('హా', 'U'), ('క', 'U'), ('ల్గె', '|'), ('ను', '|'), ('నా', 'U'), ('కు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>నృపసేవా పరకామినీ పరధన ప్రేమాతిరేకంబు లొ-
 క్కపుడుం గూర్పక తావకీన పదపద్మారాధనేచ్ఛారతుల్
@@ -906,32 +864,29 @@
 కపటారాతినిశాటసంహరణ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('నృ', '|'), ('ప', '|'), ('సే', 'U'), ('వా', 'U'), ('ప', '|'), ('ర', '|'), ('కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', 'U'), ('ప్రే', 'U'), ('మా', 'U'), ('తి', '|'), ('రే', 'U'), ('కం', 'U'), ('బు', '|'), ('లొ', 'U'), ('క్క', '|'), ('పు', '|'), ('డుం', 'U'), ('గూ', 'U'), ('ర్ప', '|'), ('క', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('రా', 'U'), ('ధ', '|'), ('నే', 'U'), ('చ్ఛా', 'U'), ('ర', '|'), ('తుల్', 'U'), ('కృ', '|'), ('ప', '|'), ('దై', 'U'), ('వా', 'U'), ('ఱ', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('గా', 'U'), ('నే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('న', 'U'), ('న్బ్రో', 'U'), ('వు', '|'), ('మీ', 'U'), ('క', '|'), ('ప', '|'), ('టా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('శా', 'U'), ('ట', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>అభవున్ శాశ్వతు నాద్యు నక్షయుని నవ్యక్తుం బరేశు న్మహా-
 ప్రభు నాద్యంతవిహీను భూతమయు సర్వజ్ఞున్ గుణాతీతుఁ బ-
@@ -939,32 +894,29 @@
 రభసంబొప్పఁ దలంతు నిన్నె్పుడు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('భ', '|'), ('వున్', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('తు', '|'), ('నా', 'U'), ('ద్యు', '|'), ('న', 'U'), ('క్ష', '|'), ('యు', '|'), ('ని', '|'), ('న', 'U'), ('వ్య', 'U'), ('క్తుం', 'U'), ('బ', '|'), ('రే', 'U'), ('శు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('భు', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('భూ', 'U'), ('త', '|'), ('మ', '|'), ('యు', '|'), ('స', 'U'), ('ర్వ', '|'), ('జ్ఞున్', 'U'), ('గు', '|'), ('ణా', 'U'), ('తీ', 'U'), ('తు', '|'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డో', 'U'), ('ద', '|'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('రూ', 'U'), ('ప', '|'), ('భ', '|'), ('వు', '|'), ('న', 'U'), ('ద్వం', 'U'), ('ద్వుం', 'U'), ('జి', '|'), ('దా', 'U'), ('నం', 'U'), ('దు', '|'), ('నిన్', 'U'), ('ర', '|'), ('భ', '|'), ('సం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్నె్పు', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>తనర న్నిన్మదినెంతు నెప్పుడును నా దైవంబుగా దాతఁగా
 జనకుంగాఁ జెలికానిగా గురువుఁగా సద్బంధుగా నన్నఁగా
@@ -972,32 +924,29 @@
 గనకోర్వీధరకార్ముకోల్లాసిత భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('ర', 'U'), ('న్ని', 'U'), ('న్మ', '|'), ('ది', '|'), ('నెం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('నా', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('త', '|'), ('గా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('గా', 'U'), ('జె', '|'), ('లి', '|'), ('కా', 'U'), ('ని', '|'), ('గా', 'U'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('గా', 'U'), ('స', 'U'), ('ద్బం', 'U'), ('ధు', '|'), ('గా', 'U'), ('న', 'U'), ('న్న', '|'), ('గా', 'U'), ('ఘ', '|'), ('న', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('భు', '|'), ('ని', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('గా', 'U'), ('గ', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('కా', 'U'), ('ర్ము', '|'), ('కో', 'U'), ('ల్లా', 'U'), ('సి', '|'), ('త', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>ప్రతివారంబు శివోహమస్మి యనుచు న్భావింతు గంగాధర-
 స్తుతులెల్లప్పుడుఁ జేతు శంకరకథల్ సొంపార నాలింతు నా-
@@ -1005,32 +954,29 @@
 గతి రక్షించెదొ కాని నీవు నను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('తి', '|'), ('వా', 'U'), ('రం', 'U'), ('బు', '|'), ('శి', '|'), ('వో', 'U'), ('హ', '|'), ('మ', 'U'), ('స్మి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('తు', '|'), ('గం', 'U'), ('గా', 'U'), ('ధ', '|'), ('ర', 'U'), ('స్తు', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('జే', 'U'), ('తు', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('క', '|'), ('థల్', 'U'), ('సొం', 'U'), ('పా', 'U'), ('ర', '|'), ('నా', 'U'), ('లిం', 'U'), ('తు', '|'), ('నా', 'U'), ('యు', '|'), ('త', '|'), ('బు', '|'), ('ద్ధిన్', 'U'), ('జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మ', '|'), ('యం', 'U'), ('బం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('తు', '|'), ('నే', 'U'), ('గ', '|'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('నీ', 'U'), ('వు', '|'), ('న', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>పురుహుతాగ్నిపరేతరాట్పలభుగంభోదీశవాతార్థపాం
 బరకేశాబ్జభవాచ్యుతాదిక మహాబర్హిర్ముఖానేకభా-
@@ -1038,32 +984,29 @@
 త్కరనీరాజిత పాదపంకరుహ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('హు', '|'), ('తా', 'U'), ('గ్ని', '|'), ('ప', '|'), ('రే', 'U'), ('త', '|'), ('రా', 'U'), ('ట్ప', '|'), ('ల', '|'), ('భు', '|'), ('గం', 'U'), ('భో', 'U'), ('దీ', 'U'), ('శ', '|'), ('వా', 'U'), ('తా', 'U'), ('ర్థ', '|'), ('పాం', 'U'), ('బ', '|'), ('ర', '|'), ('కే', 'U'), ('శా', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వా', 'U'), ('చ్యు', '|'), ('తా', 'U'), ('ది', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('బ', 'U'), ('ర్హి', '|'), ('ర్ము', '|'), ('ఖా', 'U'), ('నే', 'U'), ('క', '|'), ('భా', 'U'), ('స్వ', '|'), ('ర', '|'), ('కా', 'U'), ('ర్త', 'U'), ('స్వ', '|'), ('ర', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('న్మ', '|'), ('కు', '|'), ('ట', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('త్ప', 'U'), ('ద్మ', '|'), ('రా', 'U'), ('గ', 'U'), ('ప్ర', '|'), ('భో', 'U'), ('త్క', '|'), ('ర', '|'), ('నీ', 'U'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>వ్యాకీర్ణాచ్ఛజటాటవీతటనితాంతాలంబితోద్యత్తమి-
 స్రాకాంతప్రథితప్రభాసముదయాశ్రాంతప్రఫుల్లన్మహా-
@@ -1071,32 +1014,29 @@
 ఖాకాంతోత్పలకైరవప్రకర! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణా', 'U'), ('చ్ఛ', '|'), ('జ', '|'), ('టా', 'U'), ('ట', '|'), ('వీ', 'U'), ('త', '|'), ('ట', '|'), ('ని', '|'), ('తాం', 'U'), ('తా', 'U'), ('లం', 'U'), ('బి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('త్త', '|'), ('మి', 'U'), ('స్రా', 'U'), ('కాం', 'U'), ('త', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('స', '|'), ('ము', '|'), ('ద', '|'), ('యా', 'U'), ('శ్రాం', 'U'), ('త', 'U'), ('ప్ర', '|'), ('ఫు', 'U'), ('ల్ల', 'U'), ('న్మ', '|'), ('హా', 'U'), ('నా', 'U'), ('క', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('వ', '|'), ('తీ', 'U'), ('వి', '|'), ('ని', '|'), ('ర్మి', '|'), ('ల', '|'), ('జ', '|'), ('లాం', 'U'), ('త', 'U'), ('ర్భా', 'U'), ('గ', '|'), ('భా', 'U'), ('గ్ది', 'U'), ('వ్య', '|'), ('రే', 'U'), ('ఖా', 'U'), ('కాం', 'U'), ('తో', 'U'), ('త్ప', '|'), ('ల', '|'), ('కై', 'U'), ('ర', '|'), ('వ', 'U'), ('ప్ర', '|'), ('క', '|'), ('ర', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>సతతానందితసర్గ! సర్వసుమనస్సంస్తుత్యసన్మార్గ! యూ-
 ర్జితకారుణ్యనిసర్గ! రాజతధరిత్రీభృన్మహాదుర్గ! హృ-
@@ -1104,32 +1044,29 @@
 యతనీరంధ్రసుఖాపవర్గ! జయ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('త', '|'), ('తా', 'U'), ('నం', 'U'), ('ది', '|'), ('త', '|'), ('స', 'U'), ('ర్గ', '|'), ('స', 'U'), ('ర్వ', '|'), ('సు', '|'), ('మ', '|'), ('న', 'U'), ('స్సం', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('స', 'U'), ('న్మా', 'U'), ('ర్గ', '|'), ('యూ', 'U'), ('ర్జి', '|'), ('త', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ని', '|'), ('స', 'U'), ('ర్గ', '|'), ('రా', 'U'), ('జ', '|'), ('త', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రీ', 'U'), ('భృ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('దు', 'U'), ('ర్గ', '|'), ('హృ', 'U'), ('త్కు', '|'), ('తు', '|'), ('కా', 'U'), ('లిం', 'U'), ('గి', '|'), ('త', '|'), ('దు', 'U'), ('ర్గ', '|'), ('సం', 'U'), ('హృ', '|'), ('త', '|'), ('స', '|'), ('మి', 'U'), ('ద్ఘో', 'U'), ('ర', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('ద్వ', 'U'), ('ర్గ', '|'), ('సం', 'U'), ('య', '|'), ('త', '|'), ('నీ', 'U'), ('రం', 'U'), ('ధ్ర', '|'), ('సు', '|'), ('ఖా', 'U'), ('ప', '|'), ('వ', 'U'), ('ర్గ', '|'), ('జ', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>పురరక్షఃపటుతూల హవ్యవహ! విస్ఫూర్జద్రురుక్రూరగో-
 పరిపంథిక్షణదాచరోరగ మహాపక్షీంద్ర! ఘోరాంధకా-
@@ -1137,32 +1074,29 @@
 త్కరిలేఖద్విషదభ్ర గంధవహ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('ర', '|'), ('ర', 'U'), ('క్షః', 'U'), ('ప', '|'), ('టు', '|'), ('తూ', 'U'), ('ల', '|'), ('హ', 'U'), ('వ్య', '|'), ('వ', '|'), ('హ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్జ', '|'), ('ద్రు', '|'), ('రు', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('గో', 'U'), ('ప', '|'), ('రి', '|'), ('పం', 'U'), ('థి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('దా', 'U'), ('చ', '|'), ('రో', 'U'), ('ర', '|'), ('గ', '|'), ('మ', '|'), ('హా', 'U'), ('ప', 'U'), ('క్షీం', 'U'), ('ద్ర', '|'), ('ఘో', 'U'), ('రాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('గం', 'U'), ('ధ', 'U'), ('ద్వి', '|'), ('ర', '|'), ('దేం', 'U'), ('ద్ర', '|'), ('పం', 'U'), ('చ', '|'), ('ము', '|'), ('ఖ', '|'), ('య', 'U'), ('క్షు', '|'), ('ద్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('త్క', '|'), ('రి', '|'), ('లే', 'U'), ('ఖ', 'U'), ('ద్వి', '|'), ('ష', '|'), ('ద', 'U'), ('భ్ర', '|'), ('గం', 'U'), ('ధ', '|'), ('వ', '|'), ('హ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>అమరాహార్యము విల్లుగా ఫణికులాధ్యక్షుండు తన్మౌర్విగాఁ
 గమలాధీశుఁడు తూపుగా, నిగమముల్ గంధర్వముల్ గాఁగ స-
@@ -1170,32 +1104,29 @@
 క్రమలీలన్ దిగప్రోళ్ళఁ గూల్చితివి భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('హా', 'U'), ('ర్య', '|'), ('ము', '|'), ('వి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('ఫ', '|'), ('ణి', '|'), ('కు', '|'), ('లా', 'U'), ('ధ్య', 'U'), ('క్షుం', 'U'), ('డు', '|'), ('త', 'U'), ('న్మౌ', 'U'), ('ర్వి', '|'), ('గా', 'U'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('తూ', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('ముల్', 'U'), ('గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('ముల్', 'U'), ('గా', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వ', '|'), ('మ', '|'), ('హీ', 'U'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('దే', 'U'), ('రు', '|'), ('జే', 'U'), ('సి', '|'), ('వి', '|'), ('ధి', '|'), ('సా', 'U'), ('ర', 'U'), ('థ్యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('బ', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ది', '|'), ('గ', 'U'), ('ప్రో', 'U'), ('ళ్ళ', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>కోటీరాంగదమేఖలాఘనతులాకోటీ కవాటీనట-
 ద్ఘోటీ హాటకపేటికాభటవధూకోటీ నటాందోళికా-
@@ -1203,32 +1134,29 @@
 ఘాటప్రౌఢి భజించు ధన్యులకు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('టీ', 'U'), ('రాం', 'U'), ('గ', '|'), ('ద', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ఘ', '|'), ('న', '|'), ('తు', '|'), ('లా', 'U'), ('కో', 'U'), ('టీ', 'U'), ('క', '|'), ('వా', 'U'), ('టీ', 'U'), ('న', '|'), ('ట', 'U'), ('ద్ఘో', 'U'), ('టీ', 'U'), ('హా', 'U'), ('ట', '|'), ('క', '|'), ('పే', 'U'), ('టి', '|'), ('కా', 'U'), ('భ', '|'), ('ట', '|'), ('వ', '|'), ('ధూ', 'U'), ('కో', 'U'), ('టీ', 'U'), ('న', '|'), ('టాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('చే', 'U'), ('టి', '|'), ('కాం', 'U'), ('బ', '|'), ('ర', '|'), ('త', '|'), ('తుల్', 'U'), ('వే', 'U'), ('చే', 'U'), ('కు', '|'), ('ఱు', 'U'), ('న్ని', 'U'), ('న్ని', '|'), ('రా', 'U'), ('ఘా', 'U'), ('ట', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>కంఠేకాలుఁడటంచు నిన్నెపుడు లోకవ్రాత మగ్గింప వై-
 కుంఠేంద్రాంబుజసంభవప్రముఖులం గోలాహలప్రక్రియం
@@ -1236,32 +1164,29 @@
 గంఠాగ్రంబునఁ బూనినాఁడవట! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('ఠే', 'U'), ('కా', 'U'), ('లు', '|'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('లో', 'U'), ('క', 'U'), ('వ్రా', 'U'), ('త', '|'), ('మ', 'U'), ('గ్గిం', 'U'), ('ప', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠేం', 'U'), ('ద్రాం', 'U'), ('బు', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వ', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖు', '|'), ('లం', 'U'), ('గో', 'U'), ('లా', 'U'), ('హ', '|'), ('ల', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('యం', 'U'), ('గుం', 'U'), ('ఠీ', 'U'), ('భూ', 'U'), ('తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('దు', 'U'), ('ర్భ', '|'), ('య', '|'), ('ద', '|'), ('కా', 'U'), ('కో', 'U'), ('లం', 'U'), ('బు', '|'), ('హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('గం', 'U'), ('ఠా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('బూ', 'U'), ('ని', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>నిను డెందంబునఁ జీరికిం గొనక వాణీనాథజంభద్విష-
 ద్దనుజారిప్రముఖాఖిలామరతతిన్ దట్టంబుగాఁ గూర్చి యా-
@@ -1269,32 +1194,29 @@
 హననం బూని వధించితౌరా! భళి! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('డెం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('జీ', 'U'), ('రి', '|'), ('కిం', 'U'), ('గొ', '|'), ('న', '|'), ('క', '|'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థ', '|'), ('జం', 'U'), ('భ', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('ద్ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('ఖి', '|'), ('లా', 'U'), ('మ', '|'), ('ర', '|'), ('త', '|'), ('తిన్', 'U'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('యా', 'U'), ('ము', '|'), ('న', '|'), ('జ', 'U'), ('న్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', 'U'), ('న్వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రో', 'U'), ('గ్ర', '|'), ('సం', 'U'), ('హ', '|'), ('న', '|'), ('నం', 'U'), ('బూ', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రా', 'U'), ('భ', '|'), ('ళి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>కిరిహంసాకృతులూని వెన్నుఁడును బంకేజాతగర్భుండు నీ
 చరణంబుల్ శిరము న్గనం దలఁచి నిచ్చల్భోగిలోకంబు పు-
@@ -1302,32 +1224,29 @@
 గరుణం బ్రోవవె లింగమూర్తివయి! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('కి', '|'), ('రి', '|'), ('హం', 'U'), ('సా', 'U'), ('కృ', '|'), ('తు', '|'), ('లూ', 'U'), ('ని', '|'), ('వె', 'U'), ('న్ను', '|'), ('డు', '|'), ('ను', '|'), ('బం', 'U'), ('కే', 'U'), ('జా', 'U'), ('త', '|'), ('గ', 'U'), ('ర్భుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బుల్', 'U'), ('శి', '|'), ('ర', '|'), ('ము', 'U'), ('న్గ', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్భో', 'U'), ('గి', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('పు', 'U'), ('ష్క', '|'), ('ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('ను', '|'), ('రో', 'U'), ('సి', '|'), ('కా', 'U'), ('న', '|'), ('క', '|'), ('ని', '|'), ('రా', 'U'), ('శం', 'U'), ('జెం', 'U'), ('దు', '|'), ('చో', 'U'), ('వా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('రు', '|'), ('ణం', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వె', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('యి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>తరమే యేరికిఁ దావకీన ఘననిత్యశ్రీవిలాసక్రియల్
 గరిమ న్దెల్పఁగ? దారుకావనిని లోకఖ్యాతిగా వర్ణివై
@@ -1335,32 +1254,29 @@
 నరుదార న్మునిదారలం గలిసి భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('మే', 'U'), ('యే', 'U'), ('రి', '|'), ('కి', '|'), ('దా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ఘ', '|'), ('న', '|'), ('ని', 'U'), ('త్య', 'U'), ('శ్రీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', 'U'), ('క్రి', '|'), ('యల్', 'U'), ('గ', '|'), ('రి', '|'), ('మ', 'U'), ('న్దె', 'U'), ('ల్ప', '|'), ('గ', '|'), ('దా', 'U'), ('రు', '|'), ('కా', 'U'), ('వ', '|'), ('ని', '|'), ('ని', '|'), ('లో', 'U'), ('క', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణి', '|'), ('వై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('ర్ద్ర', '|'), ('మా', 'U'), ('న', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('ప', 'U'), ('ల్మా', 'U'), ('రు', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('న', '|'), ('రు', '|'), ('దా', 'U'), ('ర', 'U'), ('న్ము', '|'), ('ని', '|'), ('దా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('లి', '|'), ('సి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>హరికన్న న్మరి దైవ మెవ్వఁడును లేఁడంచు న్భుజంబెత్తి ని-
 ర్భరగర్వోద్ధతిఁ గాశికానగరిలోఁ బల్మాఱు వాదించు ని-
@@ -1368,32 +1284,29 @@
 ఖరి దోఃస్థంభన మాచరించి మును భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('క', 'U'), ('న్న', 'U'), ('న్మ', '|'), ('రి', '|'), ('దై', 'U'), ('వ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', 'U'), ('న్భు', '|'), ('జం', 'U'), ('బె', 'U'), ('త్తి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('గా', 'U'), ('శి', '|'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('లో', 'U'), ('బ', 'U'), ('ల్మా', 'U'), ('ఱు', '|'), ('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('వా', 'U'), ('గ్దో', 'U'), ('ష', '|'), ('ర', '|'), ('తుం', 'U'), ('బ', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తున్', 'U'), ('స్రు', 'U'), ('క్కిం', 'U'), ('ప', '|'), ('వే', 'U'), ('భీ', 'U'), ('మ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('దోః', 'U'), ('స్థం', 'U'), ('భ', '|'), ('న', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>దనుజారాతి మృదంగము న్నలువ కైతాళంబు గోత్రాహితుం-
 డెనయ న్వేణువు వాణి వీణయును వాయింపన్ రమాకాంత నే-
@@ -1401,32 +1314,29 @@
 ఘనతన్ దాండవకేళి సేయుదఁట! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రా', 'U'), ('తి', '|'), ('మృ', '|'), ('దం', 'U'), ('గ', '|'), ('ము', 'U'), ('న్న', '|'), ('లు', '|'), ('వ', '|'), ('కై', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('గో', 'U'), ('త్రా', 'U'), ('హి', '|'), ('తుం', 'U'), ('డె', '|'), ('న', '|'), ('య', 'U'), ('న్వే', 'U'), ('ణు', '|'), ('వు', '|'), ('వా', 'U'), ('ణి', '|'), ('వీ', 'U'), ('ణ', '|'), ('యు', '|'), ('ను', '|'), ('వా', 'U'), ('యిం', 'U'), ('పన్', 'U'), ('ర', '|'), ('మా', 'U'), ('కాం', 'U'), ('త', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('గా', 'U'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('సం', 'U'), ('జ', '|'), ('త', '|'), ('ఱి', '|'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('హా', 'U'), ('ళి', '|'), ('మై', 'U'), ('ఘ', '|'), ('న', '|'), ('తన్', 'U'), ('దాం', 'U'), ('డ', '|'), ('వ', '|'), ('కే', 'U'), ('ళి', '|'), ('సే', 'U'), ('యు', '|'), ('ద', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>నీలాంభోధరమధ్యసంస్థితతటిన్నీకాశమై విస్ఫుర-
 ల్లీల న్నివ్వరిముంటి చందమున నెంతే సూక్ష్మమై పచ్చనై
@@ -1434,32 +1344,29 @@
 వాలెంబున్ ఘనులైన తాపసులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('లాం', 'U'), ('భో', 'U'), ('ధ', '|'), ('ర', '|'), ('మ', 'U'), ('ధ్య', '|'), ('సం', 'U'), ('స్థి', '|'), ('త', '|'), ('త', '|'), ('టి', 'U'), ('న్నీ', 'U'), ('కా', 'U'), ('శ', '|'), ('మై', 'U'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ల్లీ', 'U'), ('ల', 'U'), ('న్ని', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ముం', 'U'), ('టి', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('నెం', 'U'), ('తే', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మై', 'U'), ('ప', 'U'), ('చ్చ', '|'), ('నై', 'U'), ('చా', 'U'), ('ల', 'U'), ('న్భా', 'U'), ('సి', '|'), ('లు', '|'), ('తే', 'U'), ('జ', '|'), ('మీ', 'U'), ('వ', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('దె', 'U'), ('న్ను', '|'), ('దుర్', 'U'), ('వా', 'U'), ('లెం', 'U'), ('బున్', 'U'), ('ఘ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('సు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>గొనబార న్విటజంగమాకృతిని మున్ గొంకేది భల్లాణరా-
 యని సద్మంబున కేఁగి యాతని సతి న్బ్రార్థించి యా లేమ య-
@@ -1467,32 +1374,29 @@
 గన నబ్రంబులు నీ విహారములు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('గొ', '|'), ('న', '|'), ('బా', 'U'), ('ర', 'U'), ('న్వి', '|'), ('ట', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', '|'), ('మున్', 'U'), ('గొం', 'U'), ('కే', 'U'), ('ది', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('ణ', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('స', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గి', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('స', '|'), ('తి', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('చి', '|'), ('యా', 'U'), ('లే', 'U'), ('మ', '|'), ('య', 'U'), ('క్కు', '|'), ('న', '|'), ('జ', 'U'), ('క్క', 'U'), ('న్నె', '|'), ('ల', '|'), ('నా', 'U'), ('ళ్ళ', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('గో', 'U'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', 'U'), ('న్ప', 'U'), ('ట్టి', '|'), ('తౌ', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('బ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>యమరాడ్భీకరకాలపాశమథితుండై శ్వేతకేతుండు దు-
 ర్దమశోకాకులచిత్తవృత్తిమెయి నిన్బ్రార్థింప వైళంబ యా
@@ -1500,32 +1404,29 @@
 కమలేశార్చితపాదపంకరుహ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('మ', '|'), ('రా', 'U'), ('డ్భీ', 'U'), ('క', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('పా', 'U'), ('శ', '|'), ('మ', '|'), ('థి', '|'), ('తుం', 'U'), ('డై', 'U'), ('శ్వే', 'U'), ('త', '|'), ('కే', 'U'), ('తుం', 'U'), ('డు', '|'), ('దు', '|'), ('ర్ద', '|'), ('మ', '|'), ('శో', 'U'), ('కా', 'U'), ('కు', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('వృ', 'U'), ('త్తి', '|'), ('మె', '|'), ('యి', '|'), ('ని', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వై', 'U'), ('ళం', 'U'), ('బ', '|'), ('యా', 'U'), ('శ', '|'), ('మ', '|'), ('నుం', 'U'), ('గ్రొ', 'U'), ('వ్వ', '|'), ('ఱ', '|'), ('ద', 'U'), ('న్ని', '|'), ('మౌ', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('యున్', 'U'), ('శ', 'U'), ('శ్వ', 'U'), ('ద్గ', '|'), ('తి', 'U'), ('న్బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('క', '|'), ('మ', '|'), ('లే', 'U'), ('శా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>త్రిజగద్రక్షణశక్తిఁ గోరి కమలాధీశుడు నిన్వేయిపం-
 కజపత్త్రంబులఁ బూజసేయునెడ నొక్కండందులేకుండినన్
@@ -1533,32 +1434,29 @@
 క్కజ మొప్పారఁగ నిచ్చి యేలుకొని భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('త్రి', '|'), ('జ', '|'), ('గ', '|'), ('ద్ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('శ', 'U'), ('క్తి', '|'), ('గో', 'U'), ('రి', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('ని', 'U'), ('న్వే', 'U'), ('యి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('ప', 'U'), ('త్త్రం', 'U'), ('బు', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('నొ', 'U'), ('క్కం', 'U'), ('డం', 'U'), ('దు', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('ని', '|'), ('జ', '|'), ('నే', 'U'), ('త్రా', 'U'), ('బ్జ', '|'), ('మ', '|'), ('తం', 'U'), ('డొ', '|'), ('సం', 'U'), ('గి', '|'), ('న', '|'), ('గృ', '|'), ('ప', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('జ', 'U'), ('క్ర', '|'), ('మ', 'U'), ('క్క', '|'), ('జ', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('లు', '|'), ('కొ', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>చిరుతొండండను భక్తునింటికి హొయల్ చెన్నార వేంచేసి త-
 ద్వరపుత్రున్ దునిమించి నంజుడుతునె ల్వండించి భక్షించుచో
@@ -1566,32 +1464,29 @@
 కరిదైత్యాధమగర్వనిర్మథన! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('రు', '|'), ('తొం', 'U'), ('డం', 'U'), ('డ', '|'), ('ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('నిం', 'U'), ('టి', '|'), ('కి', '|'), ('హొ', '|'), ('యల్', 'U'), ('చె', 'U'), ('న్నా', 'U'), ('ర', '|'), ('వేం', 'U'), ('చే', 'U'), ('సి', '|'), ('త', 'U'), ('ద్వ', '|'), ('ర', '|'), ('పు', '|'), ('త్రున్', 'U'), ('దు', '|'), ('ని', '|'), ('మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('జు', '|'), ('డు', '|'), ('తు', '|'), ('నె', 'U'), ('ల్వం', 'U'), ('డిం', 'U'), ('చి', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('చో', 'U'), ('సి', '|'), ('రి', '|'), ('యొ', 'U'), ('ప్ప', 'U'), ('న్ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('జూ', 'U'), ('పి', '|'), ('య', '|'), ('త', '|'), ('నిన్', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('రి', '|'), ('దై', 'U'), ('త్యా', 'U'), ('ధ', '|'), ('మ', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ని', '|'), ('ర్మ', '|'), ('థ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>విజయుం డుగ్రవిపక్షశిక్షణకళావృత్తి న్మిముం గోరి య-
 క్కజమొప్పన్ దప మింద్రకీలశిఖరిన్ గావించుచో బోయవై
@@ -1599,32 +1494,29 @@
 రజతక్షోణిధరాగ్రసద్భవన! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('జ', '|'), ('యుం', 'U'), ('డు', 'U'), ('గ్ర', '|'), ('వి', '|'), ('ప', 'U'), ('క్ష', '|'), ('శి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('వృ', 'U'), ('త్తి', 'U'), ('న్మి', '|'), ('ముం', 'U'), ('గో', 'U'), ('రి', '|'), ('య', 'U'), ('క్క', '|'), ('జ', '|'), ('మొ', '|'), ('ప్పన్', 'U'), ('ద', '|'), ('ప', '|'), ('మిం', 'U'), ('ద్ర', '|'), ('కీ', 'U'), ('ల', '|'), ('శి', '|'), ('ఖ', '|'), ('రిన్', 'U'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('చో', 'U'), ('బో', 'U'), ('య', '|'), ('వై', 'U'), ('వి', '|'), ('జ', '|'), ('య', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గ', '|'), ('బో', 'U'), ('రి', '|'), ('పా', 'U'), ('శు', '|'), ('ప', '|'), ('త', '|'), ('మీ', 'U'), ('వే', 'U'), ('వా', 'U'), ('ని', '|'), ('కి', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('ర', '|'), ('జ', '|'), ('త', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ధ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('స', 'U'), ('ద్భ', '|'), ('వ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>తనకున్ మిక్కిలి ముజ్జగంబుల కిఁకన్ దైవంబు లేఁడంచుఁ బా-
 యని దర్పంబున దైత్యదానవమునీంద్రామర్త్యసంసత్పదం-
@@ -1632,32 +1524,29 @@
 కన నత్యుద్ధతభైరవాకృతిని భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కున్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('కి', '|'), ('కన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', '|'), ('దై', 'U'), ('త్య', '|'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రా', 'U'), ('మ', 'U'), ('ర్త్య', '|'), ('సం', 'U'), ('స', 'U'), ('త్ప', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('మూ', 'U'), ('ర్ధం', 'U'), ('బు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('న', '|'), ('న', 'U'), ('త్యు', 'U'), ('ద్ధ', '|'), ('త', '|'), ('భై', 'U'), ('ర', '|'), ('వా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>సకలాధీశుఁడ వెన్న నీవొక్కఁడవే సత్యంబు సత్యంబు కొం-
 చక యంతర్బహిరుజ్జ్వలద్భువనరక్షాదీక్షఁ గాకోల ము-
@@ -1665,32 +1554,29 @@
 యకటా! మూఢు లెఱుంగఁజాలరిది భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డ', '|'), ('వె', 'U'), ('న్న', '|'), ('నీ', 'U'), ('వొ', 'U'), ('క్క', '|'), ('డ', '|'), ('వే', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('కొం', 'U'), ('చ', '|'), ('క', '|'), ('యం', 'U'), ('త', 'U'), ('ర్బ', '|'), ('హి', '|'), ('రు', 'U'), ('జ్జ్వ', '|'), ('ల', 'U'), ('ద్భు', '|'), ('వ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('దీ', 'U'), ('క్ష', '|'), ('గా', 'U'), ('కో', 'U'), ('ల', '|'), ('ము', 'U'), ('త్సు', '|'), ('క', '|'), ('తం', 'U'), ('గం', 'U'), ('ఠ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('మె', 'U'), ('చ్చు', 'U'), ('ల్మీ', 'U'), ('ఱ', 'U'), ('గ్రూ', 'U'), ('రా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('య', '|'), ('క', '|'), ('టా', 'U'), ('మూ', 'U'), ('ఢు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('రి', '|'), ('ది', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>ఏరీ నీ కెనయైన దైవతములీ యీరేడులోకంబులన్
 గారామారమృకండుసూనుఁడు మహోగ్రక్రూరమృత్యువ్యథా
@@ -1698,32 +1584,29 @@
 య్యారే! శాశ్వతజీవిగా నతని భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('రీ', 'U'), ('నీ', 'U'), ('కె', '|'), ('న', '|'), ('యై', 'U'), ('న', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('ము', '|'), ('లీ', 'U'), ('యీ', 'U'), ('రే', 'U'), ('డు', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('సూ', 'U'), ('ను', '|'), ('డు', '|'), ('మ', '|'), ('హో', 'U'), ('గ్ర', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('మృ', 'U'), ('త్యు', 'U'), ('వ్య', '|'), ('థా', 'U'), ('భీ', 'U'), ('రుం', 'U'), ('డై', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('న్న', '|'), ('మి', 'U'), ('త్తి', '|'), ('న', '|'), ('పు', '|'), ('డే', 'U'), ('పెం', 'U'), ('పా', 'U'), ('ర్చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('త', 'U'), ('య్యా', 'U'), ('రే', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వి', '|'), ('గా', 'U'), ('న', '|'), ('త', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>లోకశ్రేణికి నీవె కర్త వను టాలోకింప నిక్కంబెపో
 వైకుంఠాధిపుఁడైన శౌరి దినరాడ్వంశంబునన్ రాఘవుం-
@@ -1731,32 +1614,29 @@
 వ్యాకీర్ణేచ్ఛఁ బ్రతిష్ఠ చేసెఁ గద భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('క', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కి', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('ను', '|'), ('టా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('ప', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బె', '|'), ('పో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠా', 'U'), ('ధి', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('శౌ', 'U'), ('రి', '|'), ('ది', '|'), ('న', '|'), ('రా', 'U'), ('డ్వం', 'U'), ('శం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వుం', 'U'), ('డై', 'U'), ('క', 'U'), ('న్ప', 'U'), ('ట్టి', '|'), ('జ', '|'), ('గ', 'U'), ('ద్ధి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('న', '|'), ('సం', 'U'), ('ఖ్యన్', 'U'), ('శం', 'U'), ('భు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణే', 'U'), ('చ్ఛ', 'U'), ('బ్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('చే', 'U'), ('సె', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>శిలలన్ఱొప్పియుఁ జెప్పుఁగాలను గడున్జిత్రంబుగాఁ ద్రొక్కియున్
 వెలివెట్టించియుఁ గుంటెనల్నడపియు న్వే రోఁకటం గ్రుమ్మియు
@@ -1764,32 +1644,29 @@
 రల భాగ్యం బిఁక నేమిచెప్పనగు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('ల', '|'), ('ల', 'U'), ('న్ఱొ', 'U'), ('ప్పి', '|'), ('యు', '|'), ('జె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('డు', 'U'), ('న్జి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యున్', 'U'), ('వె', '|'), ('లి', '|'), ('వె', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యు', '|'), ('గుం', 'U'), ('టె', '|'), ('న', 'U'), ('ల్న', '|'), ('డ', '|'), ('పి', '|'), ('యు', 'U'), ('న్వే', 'U'), ('రో', 'U'), ('క', '|'), ('టం', 'U'), ('గ్రు', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్ని', '|'), ('ల', '|'), ('య', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('గా', 'U'), ('పు', '|'), ('ని', '|'), ('చి', '|'), ('యున్', 'U'), ('నీ', 'U'), ('వా', 'U'), ('ర', '|'), ('లై', 'U'), ('నా', 'U'), ('రు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>అజినంబు న్వృషఘోటియుం బునుకలు న్హాలాహలంబు న్మహా-
 భుజగంబు ల్శవభస్మము ల్గొఱలఁగా భూతాళితో నుండియున్
@@ -1797,32 +1674,29 @@
 రజనీనాథకళాశిరోభరణ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('జి', '|'), ('నం', 'U'), ('బు', 'U'), ('న్వృ', '|'), ('ష', '|'), ('ఘో', 'U'), ('టి', '|'), ('యుం', 'U'), ('బు', '|'), ('ను', '|'), ('క', '|'), ('లు', 'U'), ('న్హా', 'U'), ('లా', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', 'U'), ('ల్శ', '|'), ('వ', '|'), ('భ', 'U'), ('స్మ', '|'), ('ము', 'U'), ('ల్గొ', '|'), ('ఱ', '|'), ('ల', '|'), ('గా', 'U'), ('భూ', 'U'), ('తా', 'U'), ('ళి', '|'), ('తో', 'U'), ('నుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('ద్రి', '|'), ('జ', '|'), ('గ', 'U'), ('న్మం', 'U'), ('గ', '|'), ('ళ', '|'), ('దా', 'U'), ('య', '|'), ('కా', 'U'), ('కృ', '|'), ('తి', '|'), ('గ', '|'), ('డున్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', 'U'), ('బ్రం', 'U'), ('బ', '|'), ('హా', 'U'), ('ర', '|'), ('జ', '|'), ('నీ', 'U'), ('నా', 'U'), ('థ', '|'), ('క', '|'), ('ళా', 'U'), ('శి', '|'), ('రో', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>డాయన్రాద యటండ్రు మాదృశులు చండాలాదుల న్డాసినన్
 బాయుం బుణ్యచయంబులంచుఁ జదువు ల్పల్కంగ నీ వయ్యయో
@@ -1830,32 +1704,29 @@
 ప్రాయశ్చిత్తము కద్దు దీనికిఁక? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('డా', 'U'), ('య', 'U'), ('న్రా', 'U'), ('ద', '|'), ('య', '|'), ('టం', 'U'), ('డ్రు', '|'), ('మా', 'U'), ('దృ', '|'), ('శు', '|'), ('లు', '|'), ('చం', 'U'), ('డా', 'U'), ('లా', 'U'), ('దు', '|'), ('ల', 'U'), ('న్డా', 'U'), ('సి', '|'), ('నన్', 'U'), ('బా', 'U'), ('యుం', 'U'), ('బు', 'U'), ('ణ్య', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', '|'), ('జ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్ప', 'U'), ('ల్కం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వ', 'U'), ('య్య', '|'), ('యో', 'U'), ('బో', 'U'), ('యం', 'U'), ('డెం', 'U'), ('గి', '|'), ('లి', '|'), ('మాం', 'U'), ('స', '|'), ('మి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('కు', '|'), ('లో', 'U'), ('బు', 'U'), ('ల్పూ', 'U'), ('ని', '|'), ('చే', 'U'), ('కొం', 'U'), ('టి', '|'), ('వే', 'U'), ('ప్రా', 'U'), ('య', 'U'), ('శ్చి', 'U'), ('త్త', '|'), ('ము', '|'), ('క', 'U'), ('ద్దు', '|'), ('దీ', 'U'), ('ని', '|'), ('కి', '|'), ('క', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>భంజించుం గద! ఘోరదుష్కృతతతిన్ భస్మత్రిపుండ్రంబుల-
 న్మంజుశ్రీలలితాక్షమాలికలఁ బ్రేమం బూని సద్భక్తి నీ-
@@ -1863,32 +1734,29 @@
 త్కంజాతప్రభవాండభాండచయ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('భం', 'U'), ('జిం', 'U'), ('చుం', 'U'), ('గ', '|'), ('ద', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('త', '|'), ('తిన్', 'U'), ('భ', 'U'), ('స్మ', 'U'), ('త్రి', '|'), ('పుం', 'U'), ('డ్రం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మం', 'U'), ('జు', 'U'), ('శ్రీ', 'U'), ('ల', '|'), ('లి', '|'), ('తా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('ల', 'U'), ('బ్రే', 'U'), ('మం', 'U'), ('బూ', 'U'), ('ని', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('కుం', 'U'), ('జే', 'U'), ('మో', 'U'), ('డ్చు', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('డె', '|'), ('పు', '|'), ('డుం', 'U'), ('కు', 'U'), ('క్షి', 'U'), ('స్థ', '|'), ('ల', 'U'), ('ప్రో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('త్కం', 'U'), ('జా', 'U'), ('త', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>శ్రీశైలంబును గుంభఘోణమును గాంచీస్థాన కేదారముల్
 కాశీ ద్వారవతీ ప్రయాగములు నీలక్ష్మాధరావంతికల్
@@ -1896,32 +1764,29 @@
 గాశాకాశధునీఘనాభరణ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('గుం', 'U'), ('భ', '|'), ('ఘో', 'U'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('గాం', 'U'), ('చీ', 'U'), ('స్థా', 'U'), ('న', '|'), ('కే', 'U'), ('దా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('కా', 'U'), ('శీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('వ', '|'), ('తీ', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('ల', 'U'), ('క్ష్మా', 'U'), ('ధ', '|'), ('రా', 'U'), ('వం', 'U'), ('తి', '|'), ('కల్', 'U'), ('లే', 'U'), ('శం', 'U'), ('బున్', 'U'), ('ఫ', '|'), ('ల', '|'), ('మీ', 'U'), ('వు', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('హా', 'U'), ('ళిం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('చో', 'U'), ('గా', 'U'), ('శా', 'U'), ('కా', 'U'), ('శ', '|'), ('ధు', '|'), ('నీ', 'U'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>కావేరీ సరయూ మహేంద్రతనయా గంగా కళిందాత్మజా
 రేవా వేత్రవతీ సరస్వతుల కర్థిం బోవఁగానేల నీ
@@ -1929,32 +1794,29 @@
 గ్రైవీభూతభుజంగమప్రవర! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('వే', 'U'), ('రీ', 'U'), ('స', '|'), ('ర', '|'), ('యూ', 'U'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('గం', 'U'), ('గా', 'U'), ('క', '|'), ('ళిం', 'U'), ('దా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('రే', 'U'), ('వా', 'U'), ('వే', 'U'), ('త్ర', '|'), ('వ', '|'), ('తీ', 'U'), ('స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తు', '|'), ('ల', '|'), ('క', 'U'), ('ర్థిం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('నీ', 'U'), ('సే', 'U'), ('వా', 'U'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్చ', '|'), ('నా', 'U'), ('దు', '|'), ('లె', '|'), ('పు', '|'), ('డున్', 'U'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చు', '|'), ('మ', 'U'), ('ర్త్యా', 'U'), ('ళి', '|'), ('కిన్', 'U'), ('గ్రై', 'U'), ('వీ', 'U'), ('భూ', 'U'), ('త', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('ప్ర', '|'), ('వ', '|'), ('ర', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>అరిషడ్వర్గముఁ దోలి సర్వహితులై యష్టాంగయోగక్రియా-
 పరులై గాడ్పుజయించి ముద్రవెలయన్ బ్రహ్మంబునీక్షించి వా-
@@ -1962,32 +1824,29 @@
 ఖరులెల్లన్ మిముఁ గాంచుచుండ్రు గద! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('దో', 'U'), ('లి', '|'), ('స', 'U'), ('ర్వ', '|'), ('హి', '|'), ('తు', '|'), ('లై', 'U'), ('య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ', 'U'), ('క్రి', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('లై', 'U'), ('గా', 'U'), ('డ్పు', '|'), ('జ', '|'), ('యిం', 'U'), ('చి', '|'), ('ము', '|'), ('ద్ర', '|'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('వి', '|'), ('రి', '|'), ('సో', 'U'), ('హ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యెం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('మ', '|'), ('హా', 'U'), ('వే', 'U'), ('దాం', 'U'), ('తు', '|'), ('లౌ', 'U'), ('యో', 'U'), ('గి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లె', '|'), ('ల్లన్', 'U'), ('మి', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>తలపోయన్ దిలజాలకాంతరమహాతైలంబు చందానఁ బూ-
 సలలో దారము పోల్కి నాత్మమయతన్ సర్వాంతరస్థాయివై
@@ -1995,32 +1854,29 @@
 రలె ధన్యుల్ గద ముజ్జగంబులను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('పో', 'U'), ('యన్', 'U'), ('ది', '|'), ('ల', '|'), ('జా', 'U'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('తై', 'U'), ('లం', 'U'), ('బు', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('పో', 'U'), ('ల్కి', '|'), ('నా', 'U'), ('త్మ', '|'), ('మ', '|'), ('య', '|'), ('తన్', 'U'), ('స', 'U'), ('ర్వాం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థా', 'U'), ('యి', '|'), ('వై', 'U'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', '|'), ('నిం', 'U'), ('డి', '|'), ('యుం', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('ని', 'U'), ('న్వీ', 'U'), ('క్షం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('ధ', '|'), ('న్యుల్', 'U'), ('గ', '|'), ('ద', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>ఏణాంకుండొకఁడై పయోఘటములందెల్ల న్బహుత్వంబుచే
 రాణం బొల్చు తెఱంగునం బృథుతరబ్రహ్మాండభాండాంతర
@@ -2028,32 +1884,29 @@
 ర్వాణస్తుత్యచరిత్ర! యాత్మమయ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ణాం', 'U'), ('కుం', 'U'), ('డొ', '|'), ('క', '|'), ('డై', 'U'), ('ప', '|'), ('యో', 'U'), ('ఘ', '|'), ('ట', '|'), ('ము', '|'), ('లం', 'U'), ('దె', 'U'), ('ల్ల', 'U'), ('న్బ', '|'), ('హు', 'U'), ('త్వం', 'U'), ('బు', '|'), ('చే', 'U'), ('రా', 'U'), ('ణం', 'U'), ('బొ', 'U'), ('ల్చు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('నం', 'U'), ('బృ', '|'), ('థు', '|'), ('త', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డాం', 'U'), ('త', '|'), ('ర', 'U'), ('ప్రా', 'U'), ('ణి', 'U'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('నీ', 'U'), ('వొ', '|'), ('క', '|'), ('డ', '|'), ('వే', 'U'), ('రా', 'U'), ('ణిం', 'U'), ('తు', '|'), ('వౌ', 'U'), ('స', 'U'), ('ర్వ', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణ', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('యా', 'U'), ('త్మ', '|'), ('మ', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>ఓంకారప్రముఖాక్షరోచ్చరణసంయోగంబు గావేన్ముఖా-
 లంకారార్థము శబ్దబిందుకళలున్ లక్ష్యప్రయోగక్రియల్
@@ -2061,32 +1914,29 @@
 హంకారుండయి ప్రాకృతుండు చెడు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ఓం', 'U'), ('కా', 'U'), ('ర', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('క్ష', '|'), ('రో', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('సం', 'U'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('వే', 'U'), ('న్ము', '|'), ('ఖా', 'U'), ('లం', 'U'), ('కా', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('శ', 'U'), ('బ్ద', '|'), ('బిం', 'U'), ('దు', '|'), ('క', '|'), ('ళ', '|'), ('లున్', 'U'), ('ల', 'U'), ('క్ష్య', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('గ', 'U'), ('క్రి', '|'), ('యల్', 'U'), ('పొం', 'U'), ('కం', 'U'), ('బౌ', 'U'), ('గు', '|'), ('రు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ముల్', 'U'), ('య', '|'), ('తి', '|'), ('గ', '|'), ('తిం', 'U'), ('బో', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('తిం', 'U'), ('బో', 'U'), ('లి', '|'), ('సా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రుం', 'U'), ('డ', '|'), ('యి', 'U'), ('ప్రా', 'U'), ('కృ', '|'), ('తుం', 'U'), ('డు', '|'), ('చె', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>అకలంకం బతులం బఖండ మమృతం బానందకందం బనూ-
 నక మాద్యంతవిహీన మక్షర మనంతం బప్రమేయం బరూ-
@@ -2094,32 +1944,29 @@
 కక లోఁ గన్గొనువారు బల్లిదులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('కం', 'U'), ('బ', '|'), ('తు', '|'), ('లం', 'U'), ('బ', '|'), ('ఖం', 'U'), ('డ', '|'), ('మ', '|'), ('మృ', '|'), ('తం', 'U'), ('బా', 'U'), ('నం', 'U'), ('ద', '|'), ('కం', 'U'), ('దం', 'U'), ('బ', '|'), ('నూ', 'U'), ('న', '|'), ('క', '|'), ('మా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('వి', '|'), ('హీ', 'U'), ('న', '|'), ('మ', 'U'), ('క్ష', '|'), ('ర', '|'), ('మ', '|'), ('నం', 'U'), ('తం', 'U'), ('బ', 'U'), ('ప్ర', '|'), ('మే', 'U'), ('యం', 'U'), ('బ', '|'), ('రూ', 'U'), ('ప', '|'), ('క', '|'), ('మ', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మ', '|'), ('చిం', 'U'), ('త్య', '|'), ('మ', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('నౌ', 'U'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వం', 'U'), ('చు', '|'), ('గొం', 'U'), ('క', '|'), ('క', '|'), ('లో', 'U'), ('గ', 'U'), ('న్గొ', '|'), ('ను', '|'), ('వా', 'U'), ('రు', '|'), ('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>ఆకుల్ మెక్కదె మేఁక? చెట్టుకొననొయ్యన్ వ్రేలదే పక్షి? పె-
 న్గాకుల్ గ్రుంకవె నీట? గాలిఁ గొనదే నాగంబు? బల్గొందులన్
@@ -2127,32 +1974,29 @@
 గాకిన్నింటను ముక్తి చేకుఱునె? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కుల్', 'U'), ('మె', 'U'), ('క్క', '|'), ('దె', '|'), ('మే', 'U'), ('క', '|'), ('చె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('నొ', '|'), ('య్యన్', 'U'), ('వ్రే', 'U'), ('ల', '|'), ('దే', 'U'), ('ప', 'U'), ('క్షి', '|'), ('పె', 'U'), ('న్గా', 'U'), ('కుల్', 'U'), ('గ్రుం', 'U'), ('క', '|'), ('వె', '|'), ('నీ', 'U'), ('ట', '|'), ('గా', 'U'), ('లి', '|'), ('గొ', '|'), ('న', '|'), ('దే', 'U'), ('నా', 'U'), ('గం', 'U'), ('బు', '|'), ('బ', 'U'), ('ల్గొం', 'U'), ('దు', '|'), ('లన్', 'U'), ('ఘూ', 'U'), ('కం', 'U'), ('బుం', 'U'), ('డ', '|'), ('దె', '|'), ('కో', 'U'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('దే', 'U'), ('క్రో', 'U'), ('డం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్గాం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గా', 'U'), ('కి', 'U'), ('న్నిం', 'U'), ('ట', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('నె', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>ధర మృద్దారుశిలామయప్రతిమలన్ దైవంబు లంచుం బర-
 స్పరవాదంబులఁ బోరుచున్ నిబిడసంసారాంధులై మేలు చే-
@@ -2160,32 +2004,29 @@
 కరముం జచ్చుచుఁ బుట్టుచుంద్రు గద! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('మృ', 'U'), ('ద్దా', 'U'), ('రు', '|'), ('శి', '|'), ('లా', 'U'), ('మ', '|'), ('య', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('లన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లం', 'U'), ('చుం', 'U'), ('బ', '|'), ('ర', 'U'), ('స్ప', '|'), ('ర', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('బో', 'U'), ('రు', '|'), ('చున్', 'U'), ('ని', '|'), ('బి', '|'), ('డ', '|'), ('సం', 'U'), ('సా', 'U'), ('రాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('కు', '|'), ('ఱ', '|'), ('కే', 'U'), ('మ', 'U'), ('గ్గ', '|'), ('ము', '|'), ('లో', 'U'), ('ని', '|'), ('కం', 'U'), ('డె', '|'), ('ల', '|'), ('గ', '|'), ('తిన్', 'U'), ('ఘో', 'U'), ('రా', 'U'), ('ర్తు', '|'), ('లై', 'U'), ('ప్రా', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('క', '|'), ('ర', '|'), ('ముం', 'U'), ('జ', 'U'), ('చ్చు', '|'), ('చు', '|'), ('బు', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>జననీగర్భమహామహోగ్రనరకస్థానవ్యథం గొన్నినా-
 ళ్లెనయన్ బాల్యకుమారతాదశలఁ గొన్నేడుల్ వధూమీనకే-
@@ -2193,32 +2034,29 @@
 యని దుఃఖంబులఁ బ్రాణి గుందుఁ గద? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('నీ', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('న', '|'), ('ర', '|'), ('క', 'U'), ('స్థా', 'U'), ('న', 'U'), ('వ్య', '|'), ('థం', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లె', '|'), ('న', '|'), ('యన్', 'U'), ('బా', 'U'), ('ల్య', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('తా', 'U'), ('ద', '|'), ('శ', '|'), ('ల', '|'), ('గొ', 'U'), ('న్నే', 'U'), ('డుల్', 'U'), ('వ', '|'), ('ధూ', 'U'), ('మీ', 'U'), ('న', '|'), ('కే', 'U'), ('త', '|'), ('న', '|'), ('గే', 'U'), ('హ', 'U'), ('భ్ర', '|'), ('మ', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|'), ('ఘ', '|'), ('న', '|'), ('వృ', 'U'), ('ద్ధ', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('గొ', 'U'), ('న్నే', 'U'), ('ళ్ళు', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('ల', 'U'), ('బ్రా', 'U'), ('ణి', '|'), ('గుం', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>కేదారాదిక పుణ్యభూముల కశక్తిం బోవఁగారాదు; బల్
 పేదర్కంబున దానధర్మవిధు లోలిం జేయఁగారాదు గా-
@@ -2226,32 +2064,29 @@
 రాదో? కానరుగాక దుర్మతులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('కే', 'U'), ('దా', 'U'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('పు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('క', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('బల్', 'U'), ('పే', 'U'), ('ద', 'U'), ('ర్కం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('వి', '|'), ('ధు', '|'), ('లో', 'U'), ('లిం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('కే', 'U'), ('దే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱిన్', 'U'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ధీ', 'U'), ('శున్', 'U'), ('ని', '|'), ('నుం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('రా', 'U'), ('దో', 'U'), ('కా', 'U'), ('న', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', '|'), ('ర్మ', '|'), ('తు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>తరుణీశుంభదురోజకుంభములపై ధమ్మిల్లబంధంబుపైఁ
 గరమూలంబులపైఁ గపోలములపైఁ గందోయిపై మోముపై
@@ -2259,32 +2094,29 @@
 ర్పరుగా మూఢు లదేమిదుష్కృతమొ? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('శుం', 'U'), ('భ', '|'), ('దు', '|'), ('రో', 'U'), ('జ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('ధ', 'U'), ('మ్మి', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('గం', 'U'), ('దో', 'U'), ('యి', '|'), ('పై', 'U'), ('మో', 'U'), ('ము', '|'), ('పై', 'U'), ('ని', '|'), ('ర', '|'), ('తం', 'U'), ('బున్', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చి', 'U'), ('త్త', '|'), ('మె', '|'), ('పు', '|'), ('డున్', 'U'), ('నీ', 'U'), ('యం', 'U'), ('దొ', '|'), ('క', 'U'), ('ప్డే', 'U'), ('ని', '|'), ('జే', 'U'), ('ర్ప', '|'), ('రు', '|'), ('గా', 'U'), ('మూ', 'U'), ('ఢు', '|'), ('ల', '|'), ('దే', 'U'), ('మి', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('మొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>మిము నొక్కప్పుడుఁ గొల్వనేరక వృథామిథ్యాప్రచారంబులం-
 గములై వాఁగులయందు నెల్ల మునుగంగాఁ బుణ్యము ల్సేరునే?
@@ -2292,32 +2124,29 @@
 కమఠగ్రాహఢులీకుళీరములు! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('మి', '|'), ('ము', '|'), ('నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('మి', 'U'), ('థ్యా', 'U'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లం', 'U'), ('గ', '|'), ('ము', '|'), ('లై', 'U'), ('వా', 'U'), ('గు', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('ను', '|'), ('గం', 'U'), ('గా', 'U'), ('బు', 'U'), ('ణ్య', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('రు', '|'), ('నే', 'U'), ('త', '|'), ('మి', '|'), ('న', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('ము', '|'), ('నీ', 'U'), ('ట', 'U'), ('గ్రుం', 'U'), ('కు', '|'), ('లి', '|'), ('డి', '|'), ('యే', 'U'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్జిం', 'U'), ('చె', '|'), ('నో', 'U'), ('క', '|'), ('మ', '|'), ('ఠ', 'U'), ('గ్రా', 'U'), ('హ', '|'), ('ఢు', '|'), ('లీ', 'U'), ('కు', '|'), ('ళీ', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>హరి దైవంబు విరించి సర్వభువనాధ్యక్షుండు బృందారకే-
 శ్వరుఁడాఢ్యుండు హుతాశనుండు పతి భాస్వంతుండు వేల్పండ్రు
@@ -2325,32 +2154,29 @@
 కరణిం గోవిదులైరొ కాని మఱి! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వ', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ధ్య', 'U'), ('క్షుం', 'U'), ('డు', '|'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డా', 'U'), ('ఢ్యుం', 'U'), ('డు', '|'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('నుం', 'U'), ('డు', '|'), ('ప', '|'), ('తి', '|'), ('భా', 'U'), ('స్వం', 'U'), ('తుం', 'U'), ('డు', '|'), ('వే', 'U'), ('ల్పం', 'U'), ('డ్రు', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర', '|'), ('రు', '|'), ('గా', 'U'), ('శి', '|'), ('వా', 'U'), ('త్ప', '|'), ('ర', '|'), ('త', '|'), ('రం', 'U'), ('నా', 'U'), ('స్తీ', 'U'), ('తి', '|'), ('వా', 'U'), ('క్యా', 'U'), ('ర్థ', '|'), ('మే', 'U'), ('క', '|'), ('ర', '|'), ('ణిం', 'U'), ('గో', 'U'), ('వి', '|'), ('దు', '|'), ('లై', 'U'), ('రొ', '|'), ('కా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>వేయేనూఱుపురాణముల్ సదివినన్ వేదాంతముల్ గన్న నా-
 మ్నాయంబుల్ పరికించినన్ స్మృతులు వేమాఱుల్ విమర్శించిన
@@ -2358,32 +2184,29 @@
 గాయత్రీపతివై తనర్చుటను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('యే', 'U'), ('నూ', 'U'), ('ఱు', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('స', '|'), ('ది', '|'), ('వి', '|'), ('నన్', 'U'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('ముల్', 'U'), ('గ', 'U'), ('న్న', '|'), ('నా', 'U'), ('మ్నా', 'U'), ('యం', 'U'), ('బుల్', 'U'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('స్మృ', '|'), ('తు', '|'), ('లు', '|'), ('వే', 'U'), ('మా', 'U'), ('ఱుల్', 'U'), ('వి', '|'), ('మ', 'U'), ('ర్శిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్నీ', 'U'), ('యం', 'U'), ('దా', 'U'), ('ఢ్య', '|'), ('త', '|'), ('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ది', '|'), ('వో', 'U'), ('ని', 'U'), ('క్కం', 'U'), ('బు', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('గా', 'U'), ('య', 'U'), ('త్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వై', 'U'), ('త', '|'), ('న', 'U'), ('ర్చు', '|'), ('ట', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>ఆఘంటాపథపద్ధతిన్ శివశివే త్యాలాపసంశీలులై
 రేఘస్రంబులు ద్రోచు పుణ్యతము లుర్విన్ బ్రహ్మహత్యాద్యనే-
@@ -2391,32 +2214,29 @@
 ద్రాఘిష్ఠప్రభుతాగుణోల్లాసన! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('ప', '|'), ('థ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తిన్', 'U'), ('శి', '|'), ('వ', '|'), ('శి', '|'), ('వే', 'U'), ('త్యా', 'U'), ('లా', 'U'), ('ప', '|'), ('సం', 'U'), ('శీ', 'U'), ('లు', '|'), ('లై', 'U'), ('రే', 'U'), ('ఘ', 'U'), ('స్రం', 'U'), ('బు', '|'), ('లు', '|'), ('ద్రో', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('ర్విన్', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('హ', 'U'), ('త్యా', 'U'), ('ద్య', '|'), ('నే', 'U'), ('కా', 'U'), ('ఘౌ', 'U'), ('ఘం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('సి', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ప', '|'), ('ద', 'U'), ('ప్రా', 'U'), ('ప్తిన్', 'U'), ('వి', '|'), ('డం', 'U'), ('బిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('ద్రా', 'U'), ('ఘి', 'U'), ('ష్ఠ', 'U'), ('ప్ర', '|'), ('భు', '|'), ('తా', 'U'), ('గు', '|'), ('ణో', 'U'), ('ల్లా', 'U'), ('స', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>పృథివిన్ మర్త్యుఁ డొకప్డు నీ శిరముపై బిల్వీదళం బొక్కట-
 త్యాధికాహ్లాదముతోడ నిడ్డ నది యాహా! ఘోటకాందోళికా-
@@ -2424,32 +2244,29 @@
 ప్రథితాదభ్రసితాభ్రశుభ్రయశ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('పృ', '|'), ('థి', '|'), ('విన్', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('డొ', '|'), ('క', 'U'), ('ప్డు', '|'), ('నీ', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('బి', 'U'), ('ల్వీ', 'U'), ('ద', '|'), ('ళం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('ట', 'U'), ('త్యా', 'U'), ('ధి', '|'), ('కా', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('ని', 'U'), ('డ్డ', '|'), ('న', '|'), ('ది', '|'), ('యా', 'U'), ('హా', 'U'), ('ఘో', 'U'), ('ట', '|'), ('కాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('ర', '|'), ('థ', '|'), ('నా', 'U'), ('గాం', 'U'), ('బ', '|'), ('ర', '|'), ('పు', 'U'), ('త్ర', '|'), ('పౌ', 'U'), ('త్ర', '|'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ర', 'U'), ('త్నా', 'U'), ('దు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('బో', 'U'), ('ప్ర', '|'), ('థి', '|'), ('తా', 'U'), ('ద', 'U'), ('భ్ర', '|'), ('సి', '|'), ('తా', 'U'), ('భ్ర', '|'), ('శు', 'U'), ('భ్ర', '|'), ('య', '|'), ('శ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>మిము సేవించుటచేతఁ గాదె చిరలక్ష్మీసంగతుల్ శౌరికిన్
 నముచిద్వేషికి శాశ్వతస్థితమహానాకాధిపత్యంబు వా-
@@ -2457,32 +2274,29 @@
 క్రమ మజ్ఞుల్ గనలేరు గాని భువి భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('మి', '|'), ('ము', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('చే', 'U'), ('త', '|'), ('గా', 'U'), ('దె', '|'), ('చి', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('సం', 'U'), ('గ', '|'), ('తుల్', 'U'), ('శౌ', 'U'), ('రి', '|'), ('కిన్', 'U'), ('న', '|'), ('ము', '|'), ('చి', 'U'), ('ద్వే', 'U'), ('షి', '|'), ('కి', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', 'U'), ('స్థి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('నా', 'U'), ('కా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('క', '|'), ('శే', 'U'), ('ష', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('మున్', 'U'), ('గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('క్ర', '|'), ('మ', '|'), ('మ', '|'), ('జ్ఞుల్', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>వాణీశాంబుజలోచనప్రముఖ గీర్వాణార్చితాంఘ్రిద్వయున్
 క్షోణీభాగశతాంగునిన్ గజహరున్ శ్రుత్యంతవేద్యున్ నినున్
@@ -2490,32 +2304,29 @@
 ప్రాణివ్యూహమనోంబురుడ్భవన! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ణీ', 'U'), ('శాం', 'U'), ('బు', '|'), ('జ', '|'), ('లో', 'U'), ('చ', '|'), ('న', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('ర్చి', '|'), ('తాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యున్', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('భా', 'U'), ('గ', '|'), ('శ', '|'), ('తాం', 'U'), ('గు', '|'), ('నిన్', 'U'), ('గ', '|'), ('జ', '|'), ('హ', '|'), ('రున్', 'U'), ('శ్రు', 'U'), ('త్యం', 'U'), ('త', '|'), ('వే', 'U'), ('ద్యున్', 'U'), ('ని', '|'), ('నున్', 'U'), ('బా', 'U'), ('ణా', 'U'), ('ది', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థో', 'U'), ('త్త', '|'), ('ముల్', 'U'), ('గొ', '|'), ('లి', '|'), ('చి', '|'), ('మే', 'U'), ('ల్ప', 'U'), ('ట్టూ', 'U'), ('ని', '|'), ('రౌ', 'U'), ('సం', 'U'), ('త', '|'), ('త', 'U'), ('ప్రా', 'U'), ('ణి', 'U'), ('వ్యూ', 'U'), ('హ', '|'), ('మ', '|'), ('నోం', 'U'), ('బు', '|'), ('రు', 'U'), ('డ్భ', '|'), ('వ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>దారిద్ర్యంబు దొలంగు మృత్యువెడలున్ దవ్వౌనఘవ్రాతము
 ల్ఘోరవ్యాధులు గండదోషము లడంగున్ జారచోరవ్యథల్
@@ -2523,32 +2334,29 @@
 కారుణ్యం బొకయింత గల్గునెడ భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('రి', '|'), ('ద్ర్యం', 'U'), ('బు', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వె', '|'), ('డ', '|'), ('లున్', 'U'), ('ద', 'U'), ('వ్వౌ', 'U'), ('న', '|'), ('ఘ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', 'U'), ('ల్ఘో', 'U'), ('ర', 'U'), ('వ్యా', 'U'), ('ధు', '|'), ('లు', '|'), ('గం', 'U'), ('డ', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ల', '|'), ('డం', 'U'), ('గున్', 'U'), ('జా', 'U'), ('ర', '|'), ('చో', 'U'), ('ర', 'U'), ('వ్య', '|'), ('థల్', 'U'), ('దూ', 'U'), ('రం', 'U'), ('బౌ', 'U'), ('న', '|'), ('హి', '|'), ('తా', 'U'), ('న', '|'), ('ల', 'U'), ('గ్ర', '|'), ('హ', '|'), ('గ', '|'), ('ణా', 'U'), ('ర్తుల్', 'U'), ('వీ', 'U'), ('డు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్యం', 'U'), ('బొ', '|'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', '|'), ('డ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>సుత, పద్మాకర, దేవతాగృహ, వన, క్షోణీసురోద్వాహ, స-
 త్కృతి, నిక్షేపము లంచు నెంచ నలువౌ నీ సప్తసంతానముల్
@@ -2556,32 +2364,29 @@
 క్కతఱిన్ మిమ్ముఁ దలంచెనేని మది భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('త', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('క', '|'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('గృ', '|'), ('హ', '|'), ('వ', '|'), ('న', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('సు', '|'), ('రో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('స', 'U'), ('త్కృ', '|'), ('తి', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చ', '|'), ('న', '|'), ('లు', '|'), ('వౌ', 'U'), ('నీ', 'U'), ('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('ముల్', 'U'), ('హి', '|'), ('త', '|'), ('వా', 'U'), ('రం', 'U'), ('గ', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', '|'), ('న', '|'), ('యున్', 'U'), ('హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్మ', 'U'), ('ర్త్యు', '|'), ('డొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱిన్', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>అమరం ద్వత్పదపంకజాతయుగళధ్యానక్రియాశ్రాంతసం-
 భ్రమలీలన్ విలసిల్లు డెంద మొరులన్ బ్రార్థింపఁగా నేర్చునే?
@@ -2589,32 +2394,29 @@
 భ్రమరం బేఁగునే తుమ్మకొమ్మలకు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('ద్వ', 'U'), ('త్ప', '|'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('త', '|'), ('యు', '|'), ('గ', '|'), ('ళ', 'U'), ('ధ్యా', 'U'), ('న', 'U'), ('క్రి', '|'), ('యా', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('సం', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('లన్', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('డెం', 'U'), ('ద', '|'), ('మొ', '|'), ('రు', '|'), ('లన్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('ని', 'U'), ('ర్ఝ', '|'), ('రి', '|'), ('ణీ', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('క', '|'), ('మ', '|'), ('ల', 'U'), ('స్తో', 'U'), ('మా', 'U'), ('స', '|'), ('వా', 'U'), ('లం', 'U'), ('ప', '|'), ('ట', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బే', 'U'), ('గు', '|'), ('నే', 'U'), ('తు', 'U'), ('మ్మ', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>శివుఁ జూడం దగదండ్రు గొందఱధముల్ చిత్రంబు తారెన్నఁడు
 న్రవిచంద్రాగ్నిగృహిక్షమాపవననీరవ్యోమముల్ నీ స్వరూ-
@@ -2622,32 +2424,29 @@
 గవు లెల్లం దదధీనతన్ మనరొ భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('శి', '|'), ('వు', '|'), ('జూ', 'U'), ('డం', 'U'), ('ద', '|'), ('గ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ధ', '|'), ('ముల్', 'U'), ('చి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('తా', 'U'), ('రె', 'U'), ('న్న', '|'), ('డు', 'U'), ('న్ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్రా', 'U'), ('గ్ని', '|'), ('గృ', '|'), ('హి', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ప', '|'), ('వ', '|'), ('న', '|'), ('నీ', 'U'), ('ర', 'U'), ('వ్యో', 'U'), ('మ', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('వి', '|'), ('న', '|'), ('రో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('మ్మూ', 'U'), ('ర్ఖ', '|'), ('పుం', 'U'), ('గ', '|'), ('వు', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('ద', '|'), ('ద', '|'), ('ధీ', 'U'), ('న', '|'), ('తన్', 'U'), ('మ', '|'), ('న', '|'), ('రొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>ద్విపగంధర్వవిభూషణాంబరవధూవీటీభటాందోళికా-
 తపనీయాదులచేత మత్తిలి బుధేంద్రశ్రేణిఁ బీడింతురౌ
@@ -2655,32 +2454,29 @@
 క్కపుడుం దుష్ప్రభులేల యెంచరొకొ? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ద్వి', '|'), ('ప', '|'), ('గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('వి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణాం', 'U'), ('బ', '|'), ('ర', '|'), ('వ', '|'), ('ధూ', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('భ', '|'), ('టాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('త', '|'), ('ప', '|'), ('నీ', 'U'), ('యా', 'U'), ('దు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('మ', 'U'), ('త్తి', '|'), ('లి', '|'), ('బు', '|'), ('ధేం', 'U'), ('ద్ర', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('బీ', 'U'), ('డిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('త', '|'), ('ప', '|'), ('న', 'U'), ('ప్రో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('ఘో', 'U'), ('ర', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('గ', '|'), ('దా', 'U'), ('దం', 'U'), ('డో', 'U'), ('గ్ర', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('లొ', 'U'), ('క్క', '|'), ('పు', '|'), ('డుం', 'U'), ('దు', 'U'), ('ష్ప్ర', '|'), ('భు', '|'), ('లే', 'U'), ('ల', '|'), ('యెం', 'U'), ('చ', '|'), ('రొ', '|'), ('కొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>నానాద్వీపధరాధురావహనమాన్యస్ఫారబాహాబలా-
 నూనఖ్యాతిసమేతులైన శశిబిందుక్ష్మాతలేశాదిక
@@ -2688,32 +2484,29 @@
 కానంజాలరు గాక దుర్నృపులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('నా', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('ధ', '|'), ('రా', 'U'), ('ధు', '|'), ('రా', 'U'), ('వ', '|'), ('హ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', 'U'), ('స్ఫా', 'U'), ('ర', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('నూ', 'U'), ('న', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('స', '|'), ('మే', 'U'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('శ', '|'), ('శి', '|'), ('బిం', 'U'), ('దు', 'U'), ('క్ష్మా', 'U'), ('త', '|'), ('లే', 'U'), ('శా', 'U'), ('ది', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', 'U'), ('ల్చ', '|'), ('ని', '|'), ('పో', 'U'), ('వు', '|'), ('ట', 'U'), ('ల్దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('లా', 'U'), ('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్కా', 'U'), ('నం', 'U'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్నృ', '|'), ('పు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>చవిలెల్ కాసులు వీసముల్ గొని యథేచ్చాలీలలం బ్రేలు దు-
 ష్కవుల న్మెచ్చుచు భవ్యకావ్యఘటనాశాలుల్ ప్రసంగించుచో
@@ -2721,32 +2514,29 @@
 కవితాసార మెఱుంగకుండుటను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('వి', '|'), ('లెల్', 'U'), ('కా', 'U'), ('సు', '|'), ('లు', '|'), ('వీ', 'U'), ('స', '|'), ('ముల్', 'U'), ('గొ', '|'), ('ని', '|'), ('య', '|'), ('థే', 'U'), ('చ్చా', 'U'), ('లీ', 'U'), ('ల', '|'), ('లం', 'U'), ('బ్రే', 'U'), ('లు', '|'), ('దు', 'U'), ('ష్క', '|'), ('వు', '|'), ('ల', 'U'), ('న్మె', 'U'), ('చ్చు', '|'), ('చు', '|'), ('భ', 'U'), ('వ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('శా', 'U'), ('లుల్', 'U'), ('ప్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('చు', '|'), ('చో', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('క', 'U'), ('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('య', '|'), ('కా', 'U'), ('ధ', '|'), ('మ', '|'), ('వ', '|'), ('రుల్', 'U'), ('హా', 'U'), ('స్యో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('బొ', 'U'), ('ల్తు', '|'), ('రౌ', 'U'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>చెలుల న్బంధుల విప్రులన్ బ్రజల దాసీభృత్యమిత్రాదులం
 గల విత్తంబులు వృత్తులుం గొని కడున్ గారింతు రధ్యక్షతం
@@ -2754,32 +2544,29 @@
 కలనైనన్ మహిభృద్దురాత్మకులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లు', '|'), ('ల', 'U'), ('న్బం', 'U'), ('ధు', '|'), ('ల', '|'), ('వి', 'U'), ('ప్రు', '|'), ('లన్', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('దా', 'U'), ('సీ', 'U'), ('భృ', 'U'), ('త్య', '|'), ('మి', 'U'), ('త్రా', 'U'), ('దు', '|'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లు', '|'), ('వృ', 'U'), ('త్తు', '|'), ('లుం', 'U'), ('గొ', '|'), ('ని', '|'), ('క', '|'), ('డున్', 'U'), ('గా', 'U'), ('రిం', 'U'), ('తు', '|'), ('ర', 'U'), ('ధ్య', 'U'), ('క్ష', '|'), ('తం', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('దే', 'U'), ('మొ', '|'), ('మీ', 'U'), ('ద', '|'), ('టి', '|'), ('క', '|'), ('థల్', 'U'), ('ద', 'U'), ('ర్పాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('నై', 'U'), ('నన్', 'U'), ('మ', '|'), ('హి', '|'), ('భృ', 'U'), ('ద్దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>మన్నెల్లం దమ సొమ్మటంచు వసుధామర్త్యోత్తమక్షేత్రముల్
 కన్నారం గని యోర్వలేక దిగమ్రింగం జూతు రల్పప్రభుల్
@@ -2787,32 +2574,29 @@
 యన్నా! యెన్నఁగ వారిపాలి కవి? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('న్నె', 'U'), ('ల్లం', 'U'), ('ద', '|'), ('మ', '|'), ('సొ', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', 'U'), ('ర్త్యో', 'U'), ('త్త', '|'), ('మ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('క', 'U'), ('న్నా', 'U'), ('రం', 'U'), ('గ', '|'), ('ని', '|'), ('యో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('క', '|'), ('ది', '|'), ('గ', '|'), ('మ్రిం', 'U'), ('గం', 'U'), ('జూ', 'U'), ('తు', '|'), ('ర', 'U'), ('ల్ప', 'U'), ('ప్ర', '|'), ('భుల్', 'U'), ('వె', 'U'), ('న్న', 'U'), ('ప్పం', 'U'), ('బు', '|'), ('లొ', '|'), ('బూ', 'U'), ('రె', '|'), ('లొ', '|'), ('వ', '|'), ('డ', '|'), ('లొ', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నొ', 'U'), ('బ్బ', 'U'), ('ట్లొ', '|'), ('కో', 'U'), ('య', 'U'), ('న్నా', 'U'), ('యె', 'U'), ('న్న', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('పా', 'U'), ('లి', '|'), ('క', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>ప్రజలం గాఱియఁబెట్టి పెట్టియల నర్థంబెప్పుడు న్నించుచున్
 ద్విజవిద్వత్కవివందిగాయకుల కేదే నొక్కటీలేక య-
@@ -2820,32 +2604,29 @@
 ర్మజయౌద్ధత్యము లేక్రియం గలుగు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('జ', '|'), ('లం', 'U'), ('గా', 'U'), ('ఱి', '|'), ('య', '|'), ('బె', 'U'), ('ట్టి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('య', '|'), ('ల', '|'), ('న', 'U'), ('ర్థం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ద్వి', '|'), ('జ', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('త్క', '|'), ('వి', '|'), ('వం', 'U'), ('ది', '|'), ('గా', 'U'), ('య', '|'), ('కు', '|'), ('ల', '|'), ('కే', 'U'), ('దే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('టీ', 'U'), ('లే', 'U'), ('క', '|'), ('య', 'U'), ('క్క', '|'), ('జ', '|'), ('మొ', 'U'), ('ప్పం', 'U'), ('బ', '|'), ('లు', '|'), ('మూ', 'U'), ('ల', '|'), ('లం', 'U'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('భూ', 'U'), ('కాం', 'U'), ('తాం', 'U'), ('ళి', '|'), ('కిం', 'U'), ('గీ', 'U'), ('ర్తి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('జ', '|'), ('యౌ', 'U'), ('ద్ధ', 'U'), ('త్య', '|'), ('ము', '|'), ('లే', 'U'), ('క్రి', '|'), ('యం', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>ఆజిన్ వైరివరూధినీమథనదీక్షారూఢిఁ గ్రాలన్ వలెన్
 భోజుం బోలి సమస్తయాచకతతిం బోషించుచుండన్ వలెన్
@@ -2853,32 +2634,29 @@
 రాజా వాఁడు? తరాజు గాక! భువి, భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('జిన్', 'U'), ('వై', 'U'), ('రి', '|'), ('వ', '|'), ('రూ', 'U'), ('ధి', '|'), ('నీ', 'U'), ('మ', '|'), ('థ', '|'), ('న', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('రూ', 'U'), ('ఢి', 'U'), ('గ్రా', 'U'), ('లన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('భో', 'U'), ('జుం', 'U'), ('బో', 'U'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('యా', 'U'), ('చ', '|'), ('క', '|'), ('త', '|'), ('తిం', 'U'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('తే', 'U'), ('జం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', 'U'), ('ర్వి', '|'), ('లో', 'U'), ('బ్ర', '|'), ('జ', '|'), ('కు', '|'), ('జెం', 'U'), ('దిం', 'U'), ('పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('రా', 'U'), ('జా', 'U'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('క', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>తేజంబొప్పఁ బురాకృతంబున జగద్ధ్యేయత్వదంఘ్రిద్వయీ-
 పూజాపుణ్యఫలంబునం దమరిటుల్ భూపత్వముం గంటకున్
@@ -2886,32 +2664,29 @@
 ‘రాజాంతే నరకం వ్రజే’త్తనుట? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('తే', 'U'), ('జం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బు', '|'), ('రా', 'U'), ('కృ', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('ద్ధ్యే', 'U'), ('య', 'U'), ('త్వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('పూ', 'U'), ('జా', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('రి', '|'), ('టుల్', 'U'), ('భూ', 'U'), ('ప', 'U'), ('త్వ', '|'), ('ముం', 'U'), ('గం', 'U'), ('ట', '|'), ('కున్', 'U'), ('వ్యా', 'U'), ('జం', 'U'), ('బూ', 'U'), ('ని', '|'), ('క', '|'), ('డుం', 'U'), ('జె', '|'), ('డం', 'U'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('యా', 'U'), ('లిం', 'U'), ('ప', '|'), ('రా', 'U'), ('యీ', 'U'), ('నృ', '|'), ('పుల్', 'U'), ('రా', 'U'), ('జాం', 'U'), ('తే', 'U'), ('న', '|'), ('ర', '|'), ('కం', 'U'), ('వ్ర', '|'), ('జే', 'U'), ('త్త', '|'), ('ను', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>కవివిద్వద్ధరణీసుధాశనవరుల్ కార్యార్థులై యొద్ద డా-
 సి వడిం జేతులు దోయిలించుకొని యాశీర్వాదముల్సేయ నె-
@@ -2919,32 +2694,29 @@
 రవళిం దుర్నృపు లేమి యీఁగలరొ భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('వి', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('సు', '|'), ('ధా', 'U'), ('శ', '|'), ('న', '|'), ('వ', '|'), ('రుల్', 'U'), ('కా', 'U'), ('ర్యా', 'U'), ('ర్థు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('డా', 'U'), ('సి', '|'), ('వ', '|'), ('డిం', 'U'), ('జే', 'U'), ('తు', '|'), ('లు', '|'), ('దో', 'U'), ('యి', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('య', '|'), ('నె', 'U'), ('క్కు', '|'), ('వ', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('ట్టి', 'U'), ('ట్టుం', 'U'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('కే', 'U'), ('కొ', '|'), ('ర్మ్రిం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('డ్రు', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ళిం', 'U'), ('దు', 'U'), ('ర్నృ', '|'), ('పు', '|'), ('లే', 'U'), ('మి', '|'), ('యీ', 'U'), ('గ', '|'), ('ల', '|'), ('రొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>గాజుంబూస యనర్ఘరత్నమగునా? కాకంబు రాయంచయౌ-
 నా? జోరీఁగ మధువ్రతేంద్రమగునా? నట్టెన్ము పంచాస్యమౌ-
@@ -2952,32 +2724,29 @@
 రాజౌనా ఘనలోభిదుర్జనుఁడు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('జుం', 'U'), ('బూ', 'U'), ('స', '|'), ('య', '|'), ('న', 'U'), ('ర్ఘ', '|'), ('ర', 'U'), ('త్న', '|'), ('మ', '|'), ('గు', '|'), ('నా', 'U'), ('కా', 'U'), ('కం', 'U'), ('బు', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('యౌ', 'U'), ('నా', 'U'), ('జో', 'U'), ('రీ', 'U'), ('గ', '|'), ('మ', '|'), ('ధు', 'U'), ('వ్ర', '|'), ('తేం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('గు', '|'), ('నా', 'U'), ('న', 'U'), ('ట్టె', 'U'), ('న్ము', '|'), ('పం', 'U'), ('చా', 'U'), ('స్య', '|'), ('మౌ', 'U'), ('నా', 'U'), ('జి', 'U'), ('ల్లే', 'U'), ('డు', '|'), ('సు', '|'), ('రా', 'U'), ('వ', '|'), ('నీ', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నా', 'U'), ('నా', 'U'), ('నా', 'U'), ('ది', '|'), ('గం', 'U'), ('తం', 'U'), ('బు', '|'), ('లన్', 'U'), ('రా', 'U'), ('జౌ', 'U'), ('నా', 'U'), ('ఘ', '|'), ('న', '|'), ('లో', 'U'), ('భి', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>కోపం బెక్కువ, తాల్మి యిల్ల, పరుషోక్తుల్ పెల్లు, సత్యంబు తీల్,
 కాపట్యంబు ఘనంబు, లోభము నహంకారంబు దట్టంబు, హృ-
@@ -2985,32 +2754,29 @@
 ర్వ్యాపారప్రభు లేరిఁ బ్రోతు రిఁక? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('పం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('వ', '|'), ('తా', 'U'), ('ల్మి', '|'), ('యి', 'U'), ('ల్ల', '|'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('క్తుల్', 'U'), ('పె', 'U'), ('ల్లు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('తీ', 'U'), ('ల్కా', 'U'), ('ప', 'U'), ('ట్యం', 'U'), ('బు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('హృ', 'U'), ('చ్చా', 'U'), ('ప', 'U'), ('ల్యం', 'U'), ('బ', '|'), ('ధి', '|'), ('కం', 'U'), ('బు', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మ', '|'), ('తి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('రం', 'U'), ('బు', '|'), ('ఛీ', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('ర', 'U'), ('ప్ర', '|'), ('భు', '|'), ('లే', 'U'), ('రి', 'U'), ('బ్రో', 'U'), ('తు', '|'), ('రి', '|'), ('క', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>హృద్వీథిం గనరుం దిరస్కృతియు బిట్టేపార నొక్కప్పుడున్
 సద్వాక్యంబును దర్శనం బిడని రాజశ్రేణి కాశింతురౌ
@@ -3018,32 +2784,29 @@
 గ్రద్వారంబుల వ్రేలు పండితులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('హృ', 'U'), ('ద్వీ', 'U'), ('థిం', 'U'), ('గ', '|'), ('న', '|'), ('రుం', 'U'), ('ది', '|'), ('ర', 'U'), ('స్కృ', '|'), ('తి', '|'), ('యు', '|'), ('బి', 'U'), ('ట్టే', 'U'), ('పా', 'U'), ('ర', '|'), ('నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('స', 'U'), ('ద్వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('ను', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బి', '|'), ('డ', '|'), ('ని', '|'), ('రా', 'U'), ('జ', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కా', 'U'), ('శిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('వి', 'U'), ('ద్వ', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('మ', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బ', '|'), ('ను', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', 'U'), ('ర్నృ', '|'), ('పా', 'U'), ('గ్ర', 'U'), ('ద్వా', 'U'), ('రం', 'U'), ('బు', '|'), ('ల', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('పం', 'U'), ('డి', '|'), ('తు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>అపవర్గం బొనగూడునో చిరసుఖాహ్లాదంబు చేకూరునో
 జపహోమాధ్యయనార్చనాదిక మహాషట్కర్మము ల్డించి దు-
@@ -3051,32 +2814,29 @@
 ష్కపటభ్రాంతి జరింతు రార్యు లిల భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('నో', 'U'), ('చి', '|'), ('ర', '|'), ('సు', '|'), ('ఖా', 'U'), ('హ్లా', 'U'), ('దం', 'U'), ('బు', '|'), ('చే', 'U'), ('కూ', 'U'), ('రు', '|'), ('నో', 'U'), ('జ', '|'), ('ప', '|'), ('హో', 'U'), ('మా', 'U'), ('ధ్య', '|'), ('య', '|'), ('నా', 'U'), ('ర్చ', '|'), ('నా', 'U'), ('ది', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('ష', 'U'), ('ట్క', '|'), ('ర్మ', '|'), ('ము', 'U'), ('ల్డిం', 'U'), ('చి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ప', '|'), ('టో', 'U'), ('పా', 'U'), ('య', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('కాం', 'U'), ('తా', 'U'), ('ధ', '|'), ('మా', 'U'), ('గా', 'U'), ('ర', '|'), ('ని', 'U'), ('ష్క', '|'), ('ప', '|'), ('ట', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('జ', '|'), ('రిం', 'U'), ('తు', '|'), ('రా', 'U'), ('ర్యు', '|'), ('లి', '|'), ('ల', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>అకటా! జుత్తెఁడు పొట్టకై కృపణమర్త్యాధీశగేహాంగణా-
 వకరక్షోణిరజశ్ఛటావిరతసంవ్యాప్తాంగులై క్రుంగి నె-
@@ -3084,32 +2844,29 @@
 రక ధీమజ్జను లెంతబేలలొకొ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('టా', 'U'), ('జు', 'U'), ('త్తె', '|'), ('డు', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('కై', 'U'), ('కృ', '|'), ('ప', '|'), ('ణ', '|'), ('మ', 'U'), ('ర్త్యా', 'U'), ('ధీ', 'U'), ('శ', '|'), ('గే', 'U'), ('హాం', 'U'), ('గ', '|'), ('ణా', 'U'), ('వ', '|'), ('క', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ర', '|'), ('జ', 'U'), ('శ్ఛ', '|'), ('టా', 'U'), ('వి', '|'), ('ర', '|'), ('త', '|'), ('సం', 'U'), ('వ్యా', 'U'), ('ప్తాం', 'U'), ('గు', '|'), ('లై', 'U'), ('క్రుం', 'U'), ('గి', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('క', '|'), ('ముల్', 'U'), ('వె', 'U'), ('ల్వె', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('దు', '|'), ('ర', '|'), ('దే', 'U'), ('మో', 'U'), ('యెం', 'U'), ('దు', '|'), ('లం', 'U'), ('బో', 'U'), ('వ', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('ధీ', 'U'), ('మ', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లెం', 'U'), ('త', '|'), ('బే', 'U'), ('ల', '|'), ('లొ', '|'), ('కొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>అతిలోభిన్ రవిసూనుఁడంచుఁ గపటస్వాంతున్ హరిశ్చంద్రభూ-
 పతియంచున్ మిగులం గురూపిని నవప్రద్యుమ్నుఁడంచు న్మహా-
@@ -3117,32 +2874,29 @@
 ప్రతివేళన్ వినుతింతు రక్కఱను భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('లో', 'U'), ('భిన్', 'U'), ('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('ను', '|'), ('డం', 'U'), ('చు', '|'), ('గ', '|'), ('ప', '|'), ('ట', 'U'), ('స్వాం', 'U'), ('తున్', 'U'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్ర', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('యం', 'U'), ('చున్', 'U'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('గు', '|'), ('రూ', 'U'), ('పి', '|'), ('ని', '|'), ('న', '|'), ('వ', 'U'), ('ప్ర', 'U'), ('ద్యు', 'U'), ('మ్ను', '|'), ('డం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప', '|'), ('తి', '|'), ('తున్', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('సా', 'U'), ('ధ్వ', '|'), ('స', '|'), ('మ', '|'), ('తిం', 'U'), ('బా', 'U'), ('ర్థు', '|'), ('డ', '|'), ('టం', 'U'), ('చు', 'U'), ('న్బు', '|'), ('ధుల్', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వే', 'U'), ('ళన్', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ర', 'U'), ('క్క', '|'), ('ఱ', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>జనసంస్తుత్యమహాప్రబంధఘటనాసామర్థ్యముల్ గల్గు స-
 జ్జను లత్యల్పుల దీనతం బొగడుదుర్ జాత్యంధతం జెంది కా-
@@ -3150,32 +2904,29 @@
 మ్మను వాక్యంబు వినంగలేదొ మును? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('సం', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', 'U'), ('త్య', 'U'), ('ల్పు', '|'), ('ల', '|'), ('దీ', 'U'), ('న', '|'), ('తం', 'U'), ('బొ', '|'), ('గ', '|'), ('డు', '|'), ('దుర్', 'U'), ('జా', 'U'), ('త్యం', 'U'), ('ధ', '|'), ('తం', 'U'), ('జెం', 'U'), ('ది', '|'), ('కా', 'U'), ('క', '|'), ('ను', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('మ', '|'), ('రె', 'U'), ('న్న', '|'), ('డున్', 'U'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('య', 'U'), ('ద్య', 'U'), ('స్తి', '|'), ('రా', 'U'), ('జ్యే', 'U'), ('న', '|'), ('కి', 'U'), ('మ్మ', '|'), ('ను', '|'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>సుగుణోద్దామమహాకవింద్రఘటితాక్షుద్రప్రబంధావళుల్
 జగదుద్దండపరాక్రమక్రమవిరాజద్భూమిభృన్మౌళికిన్
@@ -3183,32 +2934,29 @@
 పగుఁ గా కొప్పునే యూరఁబందులకు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('గు', '|'), ('ణో', 'U'), ('ద్దా', 'U'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('క', '|'), ('విం', 'U'), ('ద్ర', '|'), ('ఘ', '|'), ('టి', '|'), ('తా', 'U'), ('క్షు', '|'), ('ద్ర', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధా', 'U'), ('వ', '|'), ('ళుల్', 'U'), ('జ', '|'), ('గ', '|'), ('దు', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', 'U'), ('క్ర', '|'), ('మ', '|'), ('వి', '|'), ('రా', 'U'), ('జ', 'U'), ('ద్భూ', 'U'), ('మి', '|'), ('భృ', 'U'), ('న్మౌ', 'U'), ('ళి', '|'), ('కిన్', 'U'), ('ద', '|'), ('గు', '|'), ('గా', 'U'), ('క', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('నే', 'U'), ('క', '|'), ('రి', '|'), ('కి', '|'), ('ము', 'U'), ('క్తా', 'U'), ('కా', 'U'), ('య', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', '|'), ('సొం', 'U'), ('ప', '|'), ('గు', '|'), ('గా', 'U'), ('కొ', 'U'), ('ప్పు', '|'), ('నే', 'U'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>పటులోభాత్మున కెవ్వరైనఁ గడఁకం బద్యాదు లర్పించినం
 గుటిలుండై యవియెల్ల నిల్పుకొనఁగా గోరండు నిక్కంబహా!
@@ -3216,32 +2964,29 @@
 ర్కటపోతం బురురత్నహారంబులు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('లో', 'U'), ('భా', 'U'), ('త్ము', '|'), ('న', '|'), ('కె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('కం', 'U'), ('బ', 'U'), ('ద్యా', 'U'), ('దు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గు', '|'), ('టి', '|'), ('లుం', 'U'), ('డై', 'U'), ('య', '|'), ('వి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కొ', '|'), ('న', '|'), ('గా', 'U'), ('గో', 'U'), ('రం', 'U'), ('డు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బ', '|'), ('హా', 'U'), ('ది', '|'), ('ట', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కో', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('ధా', 'U'), ('త్రిన్', 'U'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పై', 'U'), ('న', '|'), ('మ', 'U'), ('ర్క', '|'), ('ట', '|'), ('పో', 'U'), ('తం', 'U'), ('బు', '|'), ('రు', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>భువిలో మేదరసెట్టి చివ్వతడకల్ పొంకంబుగా నల్లి పె-
 న్రవళిన్ సంతలనెల్లఁ ద్రిప్పు క్రియ దైన్యంబెచ్చఁగా దుష్కవుల్
@@ -3249,32 +2994,29 @@
 కవితల్ కాసుకు గంపెఁడయ్యెఁ గద భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('మే', 'U'), ('ద', '|'), ('ర', '|'), ('సె', 'U'), ('ట్టి', '|'), ('చి', 'U'), ('వ్వ', '|'), ('త', '|'), ('డ', '|'), ('కల్', 'U'), ('పొం', 'U'), ('కం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('ల్లి', '|'), ('పె', 'U'), ('న్ర', '|'), ('వ', '|'), ('ళిన్', 'U'), ('సం', 'U'), ('త', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ద్రి', 'U'), ('ప్పు', 'U'), ('క్రి', '|'), ('య', '|'), ('దై', 'U'), ('న్యం', 'U'), ('బె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('దు', 'U'), ('ష్క', '|'), ('వుల్', 'U'), ('తి', '|'), ('వు', '|'), ('టొ', 'U'), ('ప్పం', 'U'), ('జె', '|'), ('డు', '|'), ('క', 'U'), ('బ్బ', '|'), ('పుం', 'U'), ('ద', '|'), ('డ', '|'), ('క', '|'), ('లో', 'U'), ('లిం', 'U'), ('ద్రి', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('న', 'U'), ('ద్ది', '|'), ('రా', 'U'), ('క', '|'), ('వి', '|'), ('తల్', 'U'), ('కా', 'U'), ('సు', '|'), ('కు', '|'), ('గం', 'U'), ('పె', '|'), ('డ', 'U'), ('య్యె', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>అవివేకక్షితినాయకాధమసభాభ్యాసప్రదేశంబులన్
 బవళుల్రేలును జుట్టఁబెట్టుకొని దుష్పాండిత్యము ల్చూపుచుం
@@ -3282,32 +3024,29 @@
 కవులట్లే నిలఁబోక కాకవులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వి', '|'), ('వే', 'U'), ('క', 'U'), ('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('య', '|'), ('కా', 'U'), ('ధ', '|'), ('మ', '|'), ('స', '|'), ('భా', 'U'), ('భ్యా', 'U'), ('స', 'U'), ('ప్ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బ', '|'), ('వ', '|'), ('ళు', 'U'), ('ల్రే', 'U'), ('లు', '|'), ('ను', '|'), ('జు', 'U'), ('ట్ట', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('దు', 'U'), ('ష్పాం', 'U'), ('డి', 'U'), ('త్య', '|'), ('ము', 'U'), ('ల్చూ', 'U'), ('పు', '|'), ('చుం', 'U'), ('గ', '|'), ('వి', '|'), ('ము', 'U'), ('ఖ్యుం', 'U'), ('బొ', '|'), ('డ', '|'), ('గాం', 'U'), ('చి', '|'), ('జా', 'U'), ('ఱు', '|'), ('దు', '|'), ('రు', '|'), ('వే', 'U'), ('గం', 'U'), ('బుం', 'U'), ('డ', '|'), ('వి', 'U'), ('ల్గ', 'U'), ('న్న', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('ల', 'U'), ('ట్లే', 'U'), ('ని', '|'), ('ల', '|'), ('బో', 'U'), ('క', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>భువిలో నిక్కలిదోషహేతుకమునం బొల్పారి గోసంగులున్
 బవినాలు న్బలుమోటకాఁపుదొరలుం బాషండులు న్దాసరుల్
@@ -3315,32 +3054,29 @@
 కవులు న్మీఱిరిఁకేమి చెప్పనగు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('ని', 'U'), ('క్క', '|'), ('లి', '|'), ('దో', 'U'), ('ష', '|'), ('హే', 'U'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('బొ', 'U'), ('ల్పా', 'U'), ('రి', '|'), ('గో', 'U'), ('సం', 'U'), ('గు', '|'), ('లున్', 'U'), ('బ', '|'), ('వి', '|'), ('నా', 'U'), ('లు', 'U'), ('న్బ', '|'), ('లు', '|'), ('మో', 'U'), ('ట', '|'), ('కా', 'U'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('లుం', 'U'), ('బా', 'U'), ('షం', 'U'), ('డు', '|'), ('లు', 'U'), ('న్దా', 'U'), ('స', '|'), ('రుల్', 'U'), ('సి', '|'), ('వ', '|'), ('స', '|'), ('త్తుల్', 'U'), ('నె', '|'), ('ఱ', '|'), ('బో', 'U'), ('య', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('ను', '|'), ('దా', 'U'), ('సే', 'U'), ('య', 'U'), ('ప్ర', '|'), ('భుల్', 'U'), ('దు', 'U'), ('ష్ట', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', 'U'), ('న్మీ', 'U'), ('ఱి', '|'), ('రి', '|'), ('కే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>కలుము ల్నిక్కమటంచు నమ్మి తులువ ల్గర్వాంధులై యెన్నఁడు-
 న్బలిభిక్షంబులు వెట్టకుండ్రు పిదప న్బ్రాణంబులం బాసి యా
@@ -3348,32 +3084,29 @@
 కలుషోద్గాఢతమస్సహస్రకర! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లు', '|'), ('ము', 'U'), ('ల్ని', 'U'), ('క్క', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('న', 'U'), ('మ్మి', '|'), ('తు', '|'), ('లు', '|'), ('వ', 'U'), ('ల్గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('యె', 'U'), ('న్న', '|'), ('డు', 'U'), ('న్బ', '|'), ('లి', '|'), ('భి', 'U'), ('క్షం', 'U'), ('బు', '|'), ('లు', '|'), ('వె', 'U'), ('ట్ట', '|'), ('కుం', 'U'), ('డ్రు', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('సి', '|'), ('యా', 'U'), ('ఖ', '|'), ('లు', '|'), ('లే', 'U'), ('మౌ', 'U'), ('దు', '|'), ('రో', 'U'), ('వాం', 'U'), ('డ్రు', '|'), ('గూ', 'U'), ('రి', '|'), ('చి', '|'), ('న', '|'), ('రొ', 'U'), ('క్కం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('మౌ', 'U'), ('నొ', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('షో', 'U'), ('ద్గా', 'U'), ('ఢ', '|'), ('త', '|'), ('మ', 'U'), ('స్స', '|'), ('హ', 'U'), ('స్ర', '|'), ('క', '|'), ('ర', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>తులువ ల్పెట్ట భుజింపలేక ధనమెంతో నెమ్మదిం గూర్చి మూ-
 లల దట్టంబుగఁ బాఁతుకొన్న నృపతు ల్వాలెంబు నిర్మోహులై
@@ -3381,32 +3114,29 @@
 గల సొమ్మెల్ల హరించుచుండ్రు గద! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('తు', '|'), ('లు', '|'), ('వ', 'U'), ('ల్పె', 'U'), ('ట్ట', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('ధ', '|'), ('న', '|'), ('మెం', 'U'), ('తో', 'U'), ('నె', 'U'), ('మ్మ', '|'), ('దిం', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('మూ', 'U'), ('ల', '|'), ('ల', '|'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గ', '|'), ('బా', 'U'), ('తు', '|'), ('కొ', 'U'), ('న్న', '|'), ('నృ', '|'), ('ప', '|'), ('తు', 'U'), ('ల్వా', 'U'), ('లెం', 'U'), ('బు', '|'), ('ని', '|'), ('ర్మో', 'U'), ('హు', '|'), ('లై', 'U'), ('ప', '|'), ('లు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('మి', '|'), ('గు', '|'), ('ల', 'U'), ('న్బా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('రో', 'U'), ('ధిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('గ', '|'), ('ల', '|'), ('సొ', 'U'), ('మ్మె', 'U'), ('ల్ల', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>చెనఁటు ల్గూర్చుధనంబు మ్రుచ్చులకు దాసీవారయోషాహు-
 తాశనదుష్టక్షితిపాలకప్రతతికిన్ సంరూఢిఁ జేకూరు గా-
@@ -3414,32 +3144,29 @@
 కనదుద్దామపరాక్రమప్రథిత! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('న', '|'), ('టు', 'U'), ('ల్గూ', 'U'), ('ర్చు', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('మ్రు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('సీ', 'U'), ('వా', 'U'), ('ర', '|'), ('యో', 'U'), ('షా', 'U'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', 'U'), ('క్షి', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('క', 'U'), ('ప్ర', '|'), ('త', '|'), ('తి', '|'), ('కిన్', 'U'), ('సం', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('జే', 'U'), ('కూ', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('వ', 'U'), ('ద్య', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భా', 'U'), ('వి', '|'), ('భా', 'U'), ('సి', '|'), ('త', '|'), ('బు', '|'), ('ధేం', 'U'), ('ద్రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ముం', 'U'), ('జే', 'U'), ('రు', '|'), ('నే', 'U'), ('క', '|'), ('న', '|'), ('దు', 'U'), ('ద్దా', 'U'), ('మ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>ధరణిన్ సద్గురుచెంత నెందఱు ఖలుల్ దార్కొన్న నచ్చోటికే
 కరమర్థి న్బుధులేఁగుచుండుదురు నిక్కంబారయన్ గంటకా-
@@ -3447,32 +3174,29 @@
 కరుణాదభ్రపయఃపయోనిలయ! భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణిన్', 'U'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('చెం', 'U'), ('త', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ఖ', '|'), ('లుల్', 'U'), ('దా', 'U'), ('ర్కొ', 'U'), ('న్న', '|'), ('న', 'U'), ('చ్చో', 'U'), ('టి', '|'), ('కే', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థి', 'U'), ('న్బు', '|'), ('ధు', '|'), ('లే', 'U'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బా', 'U'), ('ర', '|'), ('యన్', 'U'), ('గం', 'U'), ('ట', '|'), ('కా', 'U'), ('వ', '|'), ('ర', '|'), ('ణో', 'U'), ('జ్జృం', 'U'), ('భి', '|'), ('త', '|'), ('కే', 'U'), ('త', '|'), ('కీ', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('ళుల్', 'U'), ('వా', 'U'), ('లెం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('ర', '|'), ('వే', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ద', 'U'), ('భ్ర', '|'), ('ప', '|'), ('యః', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>లోకానీకమునందు దుర్గుణులు కల్ముల్ గల్గియున్నప్డు ప-
 ల్గాకుల్ దార్కొని మెల్లమెల్లనె దురాలాపంబులం గేరుచుం
@@ -3480,32 +3204,29 @@
 న్గాకు ల్వేములఁ జేరు చందమున భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('కా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణు', '|'), ('లు', '|'), ('క', '|'), ('ల్ముల్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', 'U'), ('ప్డు', '|'), ('ప', 'U'), ('ల్గా', 'U'), ('కుల్', 'U'), ('దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('మె', 'U'), ('ల్ల', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('దు', '|'), ('రా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('గే', 'U'), ('రు', '|'), ('చుం', 'U'), ('గై', 'U'), ('కొం', 'U'), ('డ్రె', 'U'), ('ల్ల', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', 'U'), ('ల్ని', '|'), ('జ', '|'), ('మ', '|'), ('హో', 'U'), ('కా', 'U'), ('ర్కూ', 'U'), ('త', '|'), ('లం', 'U'), ('గ్రో', 'U'), ('ల్చు', '|'), ('చు', 'U'), ('న్గా', 'U'), ('కు', 'U'), ('ల్వే', 'U'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>చదువు ల్వేదపురాండము ల్గయితలు న్సబ్బండువిద్దెల్ గతల్
 మొదలెన్నేనిగ విద్దుమాంసువు లదేమో తెల్పఁగా వింటిఁగా
@@ -3513,32 +3234,29 @@
 గదియం జాలవటండ్రు ముష్కరులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్వే', 'U'), ('ద', '|'), ('పు', '|'), ('రాం', 'U'), ('డ', '|'), ('ము', 'U'), ('ల్గ', '|'), ('యి', '|'), ('త', '|'), ('లు', 'U'), ('న్స', 'U'), ('బ్బం', 'U'), ('డు', '|'), ('వి', '|'), ('ద్దెల్', 'U'), ('గ', '|'), ('తల్', 'U'), ('మొ', '|'), ('ద', '|'), ('లె', 'U'), ('న్నే', 'U'), ('ని', '|'), ('గ', '|'), ('వి', 'U'), ('ద్దు', '|'), ('మాం', 'U'), ('సు', '|'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('మో', 'U'), ('తె', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('విం', 'U'), ('టి', '|'), ('గా', 'U'), ('న', '|'), ('ది', '|'), ('గో', 'U'), ('చౌ', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('శ', '|'), ('టా', 'U'), ('లై', 'U'), ('గా', 'U'), ('రి', 'U'), ('జ్ఞా', 'U'), ('న', 'U'), ('మ్మ', '|'), ('లెన్', 'U'), ('గ', '|'), ('ది', '|'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('వ', '|'), ('టం', 'U'), ('డ్రు', '|'), ('ము', 'U'), ('ష్క', '|'), ('రు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>పో! పో! బాఁపఁడ! దోసె డూదలిడినం బోలేక పేరాసల-
 న్వాపోఁ జాగితివేమి! నీ సదువు తిర్నామంబులో! సుద్దులో
@@ -3546,32 +3264,29 @@
 కా! పాటింపనటండ్రు బాలిశులు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('పో', 'U'), ('పో', 'U'), ('బా', 'U'), ('ప', '|'), ('డ', '|'), ('దో', 'U'), ('సె', '|'), ('డూ', 'U'), ('ద', '|'), ('లి', '|'), ('డి', '|'), ('నం', 'U'), ('బో', 'U'), ('లే', 'U'), ('క', '|'), ('పే', 'U'), ('రా', 'U'), ('స', '|'), ('ల', 'U'), ('న్వా', 'U'), ('పో', 'U'), ('జా', 'U'), ('గి', '|'), ('తి', '|'), ('వే', 'U'), ('మి', '|'), ('నీ', 'U'), ('స', '|'), ('దు', '|'), ('వు', '|'), ('తి', 'U'), ('ర్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లో', 'U'), ('సు', 'U'), ('ద్దు', '|'), ('లో', 'U'), ('భూ', 'U'), ('పా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లొ', '|'), ('లం', 'U'), ('క', '|'), ('స', 'U'), ('త్తె', '|'), ('లొ', '|'), ('బ', '|'), ('లా', 'U'), ('బొ', 'U'), ('ల్ల్యా', 'U'), ('వు', '|'), ('పో', 'U'), ('ట్లా', 'U'), ('ట', '|'), ('లో', 'U'), ('కా', 'U'), ('పా', 'U'), ('టిం', 'U'), ('ప', '|'), ('న', '|'), ('టం', 'U'), ('డ్రు', '|'), ('బా', 'U'), ('లి', '|'), ('శు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>అదిగో బాఁపనయల్లుభొట్లయకు ముందప్పయ్యతీర్తంబులో
 నదనం ‘గిద్దెఁడు కొఱ్ఱనూక లిడితిన్ అబ్బబ్బ! తిర్నామముల్
@@ -3579,32 +3294,29 @@
 గద’ యంచుం బలుమోటులాడుదురు భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ది', '|'), ('గో', 'U'), ('బా', 'U'), ('ప', '|'), ('న', '|'), ('య', 'U'), ('ల్లు', '|'), ('భొ', 'U'), ('ట్ల', '|'), ('య', '|'), ('కు', '|'), ('ముం', 'U'), ('ద', 'U'), ('ప్ప', 'U'), ('య్య', '|'), ('తీ', 'U'), ('ర్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('నం', 'U'), ('గి', 'U'), ('ద్దె', '|'), ('డు', '|'), ('కొ', 'U'), ('ఱ్ఱ', '|'), ('నూ', 'U'), ('క', '|'), ('లి', '|'), ('డి', '|'), ('తిన్', 'U'), ('అ', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('తి', 'U'), ('ర్నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('స', '|'), ('దు', '|'), ('వం', 'U'), ('జా', 'U'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('ర', '|'), ('య', '|'), ('లన్', 'U'), ('సం', 'U'), ('తో', 'U'), ('స', '|'), ('నాల్', 'U'), ('సే', 'U'), ('సి', '|'), ('తిం', 'U'), ('గ', '|'), ('ద', '|'), ('యం', 'U'), ('చుం', 'U'), ('బ', '|'), ('లు', '|'), ('మో', 'U'), ('టు', '|'), ('లా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>రాలన్ దైలము తీయవచ్చు భుజగవ్రాతమ్ముల న్బేర్లఁగా
 లీల న్బూనఁగవచ్చు నంబునిధి హాళిం దాఁటఁగావచ్చు డా-
@@ -3612,32 +3324,29 @@
 ర్ఖాళిం దెల్పఁ దరంబె యేరికిని? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('లన్', 'U'), ('దై', 'U'), ('ల', '|'), ('ము', '|'), ('తీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భు', '|'), ('జ', '|'), ('గ', 'U'), ('వ్రా', 'U'), ('త', 'U'), ('మ్ము', '|'), ('ల', 'U'), ('న్బే', 'U'), ('ర్ల', '|'), ('గా', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్బూ', 'U'), ('న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('బు', '|'), ('ని', '|'), ('ధి', '|'), ('హా', 'U'), ('ళిం', 'U'), ('దా', 'U'), ('ట', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('డా', 'U'), ('కే', 'U'), ('ల', 'U'), ('న్బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వి', '|'), ('పి', '|'), ('నా', 'U'), ('గ్ని', 'U'), ('న్ని', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('మూ', 'U'), ('ర్ఖా', 'U'), ('ళిం', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('ద', '|'), ('రం', 'U'), ('బె', '|'), ('యే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>ఆఁకొన్నప్పుడు వంటకంబయిన బియ్యంబైన జావైనఁ గూ-
 రాకైన న్ఫలమైన నీరమయినన్ హాళిం గల ట్లిచ్చుచున్
@@ -3645,32 +3354,29 @@
 కాకున్న న్మఱి యేఁటికొంప లవి? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వం', 'U'), ('ట', '|'), ('కం', 'U'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('బి', 'U'), ('య్యం', 'U'), ('బై', 'U'), ('న', '|'), ('జా', 'U'), ('వై', 'U'), ('న', '|'), ('గూ', 'U'), ('రా', 'U'), ('కై', 'U'), ('న', 'U'), ('న్ఫ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ర', '|'), ('మ', '|'), ('యి', '|'), ('నన్', 'U'), ('హా', 'U'), ('ళిం', 'U'), ('గ', '|'), ('ల', 'U'), ('ట్లి', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('జే', 'U'), ('కో', 'U'), ('నౌ', 'U'), ('బ', '|'), ('ర', '|'), ('దే', 'U'), ('శు', '|'), ('లం', 'U'), ('గృ', '|'), ('హు', '|'), ('ల', '|'), ('కు', 'U'), ('న్సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('ఛీ', 'U'), ('కా', 'U'), ('కు', 'U'), ('న్న', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('యే', 'U'), ('టి', '|'), ('కొం', 'U'), ('ప', '|'), ('ల', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>మడతల్వల్కు నృపాలుతోఁ బలుమాఱు న్మారాడు పెండ్లాముతోఁ
 జెడుజూడం బ్రచరించు నాత్మజునితోఁ జేట్పాటు గోర్లెంకతో
@@ -3678,32 +3384,29 @@
 గడతేరం దరమా గృహస్థునకు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('డ', '|'), ('త', 'U'), ('ల్వ', 'U'), ('ల్కు', '|'), ('నృ', '|'), ('పా', 'U'), ('లు', '|'), ('తో', 'U'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', 'U'), ('న్మా', 'U'), ('రా', 'U'), ('డు', '|'), ('పెం', 'U'), ('డ్లా', 'U'), ('ము', '|'), ('తో', 'U'), ('జె', '|'), ('డు', '|'), ('జూ', 'U'), ('డం', 'U'), ('బ్ర', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('నా', 'U'), ('త్మ', '|'), ('జు', '|'), ('ని', '|'), ('తో', 'U'), ('జే', 'U'), ('ట్పా', 'U'), ('టు', '|'), ('గో', 'U'), ('ర్లెం', 'U'), ('క', '|'), ('తో', 'U'), ('బొ', '|'), ('డ', '|'), ('వం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('కా', 'U'), ('ర్మొ', '|'), ('ద', '|'), ('వు', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డు', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('తో', 'U'), ('గ', '|'), ('డ', '|'), ('తే', 'U'), ('రం', 'U'), ('ద', '|'), ('ర', '|'), ('మా', 'U'), ('గృ', '|'), ('హ', 'U'), ('స్థు', '|'), ('న', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>కాకిన్శాశ్వతజీవిగా నునిచి చిల్కన్వేగ పోకార్చి సు-
 శ్లోకుం గొంచెపుటేండ్లలోఁ గెడపి దుష్టుం బెక్కునాళ్లుంచి య-
@@ -3711,32 +3414,29 @@
 హా! కొంకేదిఁక నల్వచెయ్వులకు? భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('కి', 'U'), ('న్శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వి', '|'), ('గా', 'U'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('చి', 'U'), ('ల్క', 'U'), ('న్వే', 'U'), ('గ', '|'), ('పో', 'U'), ('కా', 'U'), ('ర్చి', '|'), ('సు', 'U'), ('శ్లో', 'U'), ('కుం', 'U'), ('గొం', 'U'), ('చె', '|'), ('పు', '|'), ('టేం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('గె', '|'), ('డ', '|'), ('పి', '|'), ('దు', 'U'), ('ష్టుం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('నా', 'U'), ('ళ్లుం', 'U'), ('చి', '|'), ('య', 'U'), ('స్తో', 'U'), ('క', 'U'), ('త్యా', 'U'), ('గి', '|'), ('ద', '|'), ('రి', '|'), ('ద్రు', '|'), ('జే', 'U'), ('సి', '|'), ('క', '|'), ('ఠి', '|'), ('నా', 'U'), ('త్మున్', 'U'), ('శ్రీ', 'U'), ('యు', '|'), ('తుం', 'U'), ('జే', 'U'), ('యు', '|'), ('నా', 'U'), ('హా', 'U'), ('కొం', 'U'), ('కే', 'U'), ('ది', '|'), ('క', '|'), ('న', 'U'), ('ల్వ', '|'), ('చె', 'U'), ('య్వు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>ధరలో నెన్నఁగ శాలివాహనశకాబ్దంబు ల్దగ న్యామినీ-
 కరబాణాంగశశాంకసంఖ్యఁ జెలువై కన్పట్టు (సౌమ్యా)హ్వ-
@@ -3744,32 +3444,29 @@
 కరలీల న్బుధులెన్న నీకిడితి భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('నె', 'U'), ('న్న', '|'), ('గ', '|'), ('శా', 'U'), ('లి', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('శ', '|'), ('కా', 'U'), ('బ్దం', 'U'), ('బు', 'U'), ('ల్ద', '|'), ('గ', 'U'), ('న్యా', 'U'), ('మి', '|'), ('నీ', 'U'), ('క', '|'), ('ర', '|'), ('బా', 'U'), ('ణాం', 'U'), ('గ', '|'), ('శ', '|'), ('శాం', 'U'), ('క', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('జె', '|'), ('లు', '|'), ('వై', 'U'), ('క', 'U'), ('న్ప', 'U'), ('ట్టు', '|'), ('సౌ', 'U'), ('మ్యా', 'U'), ('హ్వ', '|'), ('య', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', 'U'), ('బ్దం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('మ్మ', '|'), ('హా', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మే', 'U'), ('బూ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('లీ', 'U'), ('ల', 'U'), ('న్బు', '|'), ('ధు', '|'), ('లె', 'U'), ('న్న', '|'), ('నీ', 'U'), ('కి', '|'), ('డి', '|'), ('తి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>ధనధాన్యాంబరపుత్రపౌత్రమణిగోదాసీభటాందోళికా-
 వనితాబంధురసింధురాశ్వ (మహితైశ్వర్యంబు) దీర్ఘాయువు
@@ -3777,17 +3474,17 @@
 క నరు ల్దీని బఠించిరేని భువి భర్గా! పార్వతీవల్లభా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bharga</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
-        <is>
-          <t>bharga</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
         <is>
           <t>[('ధ', '|'), ('న', '|'), ('ధా', 'U'), ('న్యాం', 'U'), ('బ', '|'), ('ర', '|'), ('పు', 'U'), ('త్ర', '|'), ('పౌ', 'U'), ('త్ర', '|'), ('మ', '|'), ('ణి', '|'), ('గో', 'U'), ('దా', 'U'), ('సీ', 'U'), ('భ', '|'), ('టాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('సిం', 'U'), ('ధు', '|'), ('రా', 'U'), ('శ్వ', '|'), ('మ', '|'), ('హి', '|'), ('తై', 'U'), ('శ్వ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', '|'), ('వు', 'U'), ('న్ఘ', '|'), ('న', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('ను', '|'), ('గ', 'U'), ('ల్గి', '|'), ('వ', 'U'), ('ర్ధి', '|'), ('లు', '|'), ('దు', '|'), ('రె', 'U'), ('క్కా', 'U'), ('లం', 'U'), ('బు', '|'), ('జే', 'U'), ('ట్పా', 'U'), ('టు', '|'), ('లే', 'U'), ('క', '|'), ('న', '|'), ('రు', 'U'), ('ల్దీ', 'U'), ('ని', '|'), ('బ', '|'), ('ఠిం', 'U'), ('చి', '|'), ('రే', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>

--- a/dataset/lg/bharga.xlsx
+++ b/dataset/lg/bharga.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('శు', '|'), ('క', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('జా', 'U'), ('త్రి', '|'), ('క', '|'), ('ల', '|'), ('శీ', 'U'), ('సూ', 'U'), ('నుల్', 'U'), ('భ', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('జ', '|'), ('శౌ', 'U'), ('న', '|'), ('క', '|'), ('వా', 'U'), ('ల్మీ', 'U'), ('కి', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('గ', 'U'), ('ర్గ', '|'), ('భృ', '|'), ('గు', '|'), ('మాం', 'U'), ('డ', 'U'), ('వ్యా', 'U'), ('జ', '|'), ('సం', 'U'), ('భూ', 'U'), ('త', '|'), ('కౌ', 'U'), ('శి', '|'), ('క', '|'), ('క', 'U'), ('ణ్వా', 'U'), ('ది', '|'), ('మ', '|'), ('హ', 'U'), ('ర్షి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('నిన్', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('రు', '|'), ('కొం', 'U'), ('క', '|'), ('క', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('ని', 'U'), ('న్బొ', '|'), ('గ', '|'), ('డ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('శు', '|'), ('క', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('మృ', '|'), ('కం', 'U'), ('డు', '|'), ('జా', 'U'), ('త్రి', '|'), ('క', '|'), ('ల', '|'), ('శీ', 'U'), ('సూ', 'U'), ('ను', 'U'), ('ల్భ', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('జ', '|'), ('శౌ', 'U'), ('న', '|'), ('క', '|'), ('వా', 'U'), ('ల్మీ', 'U'), ('కి', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('గ', 'U'), ('ర్గ', '|'), ('భృ', '|'), ('గు', '|'), ('మాం', 'U'), ('డ', 'U'), ('వ్యా', 'U'), ('జ', '|'), ('సం', 'U'), ('భూ', 'U'), ('త', '|'), ('కౌ', 'U'), ('శి', '|'), ('క', '|'), ('క', 'U'), ('ణ్వా', 'U'), ('ది', '|'), ('మ', '|'), ('హ', 'U'), ('ర్షి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లు', '|'), ('ని', 'U'), ('న్జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('రు', '|'), ('కొం', 'U'), ('క', '|'), ('క', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('ని', 'U'), ('న్బొ', '|'), ('గ', '|'), ('డ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ర', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('స', '|'), ('గో', 'U'), ('త్ర', '|'), ('పా', 'U'), ('త్రు', '|'), ('ని', '|'), ('య', '|'), ('శో', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('నిం', 'U'), ('గు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ల', 'U'), ('బ్ధ', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యు', '|'), ('నిన్', 'U'), ('స్థి', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్యుం', 'U'), ('డ', '|'), ('గు', '|'), ('గం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('ది', 'U'), ('మ్మ', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('నేం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', 'U'), ('న్బ్రో', 'U'), ('వు', '|'), ('ము', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('వ', '|'), ('ర', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('స', '|'), ('గో', 'U'), ('త్ర', '|'), ('పా', 'U'), ('త్రు', '|'), ('ని', '|'), ('య', '|'), ('శో', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('నిం', 'U'), ('గు', 'U'), ('క్కు', '|'), ('టే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ల', 'U'), ('బ్ధ', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('యు', '|'), ('నిన్', 'U'), ('స్థి', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్యుం', 'U'), ('డ', '|'), ('గు', '|'), ('గం', 'U'), ('గ', '|'), ('మం', 'U'), ('త్రి', '|'), ('సు', '|'), ('తు', '|'), ('ని', 'U'), ('న్ది', 'U'), ('మ్మ', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('నేం', 'U'), ('ద్రు', '|'), ('నిన్', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', 'U'), ('న్బ్రో', 'U'), ('వు', '|'), ('ము', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('చు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('గ', '|'), ('నెం', 'U'), ('తు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నె', '|'), ('పు', '|'), ('డు', 'U'), ('న్బ్ర', 'U'), ('త్యూ', 'U'), ('హ', '|'), ('సం', 'U'), ('శాం', 'U'), ('తి', '|'), ('కై', 'U'), ('వి', '|'), ('చ', '|'), ('ల', 'U'), ('త్క', 'U'), ('ర్ణ', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('దూ', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బు', '|'), ('భృ', 'U'), ('జ్జా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('రు', '|'), ('చి', '|'), ('రా', 'U'), ('స్వాం', 'U'), ('బు', '|'), ('రు', '|'), ('హ', '|'), ('స్ర', '|'), ('వ', 'U'), ('న్మ', '|'), ('ద', '|'), ('జ', '|'), ('ల', '|'), ('ప్రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('లీ', 'U'), ('లా', 'U'), ('ము', '|'), ('హుః', 'U'), ('ప్ర', '|'), ('చు', '|'), ('ర', 'U'), ('ద్భృం', 'U'), ('గ', '|'), ('కు', '|'), ('లున్', 'U'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('పు', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ప్ర', '|'), ('చు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('గ', '|'), ('నెం', 'U'), ('తు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నె', '|'), ('పు', '|'), ('డు', 'U'), ('న్బ్ర', 'U'), ('త్యూ', 'U'), ('హ', '|'), ('సం', 'U'), ('శాం', 'U'), ('తి', '|'), ('కై', 'U'), ('వి', '|'), ('చ', '|'), ('ల', 'U'), ('త్క', 'U'), ('ర్ణ', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('దూ', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బు', '|'), ('భృ', 'U'), ('జ్జా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('రు', '|'), ('చి', '|'), ('రా', 'U'), ('స్వాం', 'U'), ('బు', '|'), ('రు', '|'), ('హ', '|'), ('స్ర', '|'), ('వ', 'U'), ('న్మ', '|'), ('ద', '|'), ('జ', '|'), ('ల', '|'), ('ప్రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('లీ', 'U'), ('లా', 'U'), ('ము', '|'), ('హుః', 'U'), ('ప్ర', '|'), ('చు', '|'), ('ర', 'U'), ('ద్భృం', 'U'), ('గ', '|'), ('కు', '|'), ('లు', 'U'), ('న్గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('పు', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('మా', 'U'), ('ఱున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('వి', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('కా', 'U'), ('వ్య', '|'), ('క్రి', '|'), ('యా', 'U'), ('సా', 'U'), ('మీ', 'U'), ('చీ', 'U'), ('న్య', '|'), ('హృ', '|'), ('దం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ట్సం', 'U'), ('క్ర', '|'), ('ద', '|'), ('న', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మం', 'U'), ('చి', '|'), ('ను', '|'), ('డు', '|'), ('వుల్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నొం', 'U'), ('దిం', 'U'), ('చు', '|'), ('వా', 'U'), ('గ్భా', 'U'), ('మా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లీ', 'U'), ('ల', '|'), ('మై', 'U'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('వే', 'U'), ('మా', 'U'), ('ఱు', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('వి', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('కా', 'U'), ('వ్య', '|'), ('క్రి', '|'), ('యా', 'U'), ('సా', 'U'), ('మీ', 'U'), ('చీ', 'U'), ('న్య', '|'), ('హృ', '|'), ('దం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ట్సం', 'U'), ('క్ర', '|'), ('ద', '|'), ('న', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యం', 'U'), ('బొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మం', 'U'), ('చి', '|'), ('ను', '|'), ('డు', '|'), ('వు', 'U'), ('ల్సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నొం', 'U'), ('దిం', 'U'), ('చు', '|'), ('వా', 'U'), ('గ్భా', 'U'), ('మా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లీ', 'U'), ('ల', '|'), ('మై', 'U'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', 'U'), ('న్మ', '|'), ('ది', '|'), ('లో', 'U'), ('భ', '|'), ('వ', 'U'), ('ద్వ్ర', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('తు', '|'), ('న', '|'), ('శ్రాం', 'U'), ('త', '|'), ('మున్', 'U'), ('బ', '|'), ('ర', '|'), ('వా', 'U'), ('ది', '|'), ('ప్ర', '|'), ('మ', '|'), ('థ', 'U'), ('ద్వి', '|'), ('పేం', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('వీ', 'U'), ('పం', 'U'), ('చా', 'U'), ('న', '|'), ('న', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('తే', 'U'), ('జో', 'U'), ('ని', '|'), ('ధి', '|'), ('దెం', 'U'), ('దు', '|'), ('లూ', 'U'), ('రి', '|'), ('కు', '|'), ('ల', '|'), ('పా', 'U'), ('థో', 'U'), ('రా', 'U'), ('శి', '|'), ('రా', 'U'), ('కా', 'U'), ('ని', '|'), ('శా', 'U'), ('క', '|'), ('రు', '|'), ('నిన్', 'U'), ('లిం', 'U'), ('గ', '|'), ('య', '|'), ('స', 'U'), ('ద్గు', '|'), ('రూ', 'U'), ('త్త', '|'), ('ము', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('చి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', 'U'), ('న్మ', '|'), ('ది', '|'), ('లో', 'U'), ('భ', '|'), ('వ', 'U'), ('ద్వ్ర', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('తు', '|'), ('న', '|'), ('శ్రాం', 'U'), ('త', '|'), ('మున్', 'U'), ('బ', '|'), ('ర', '|'), ('వా', 'U'), ('ది', '|'), ('ప్ర', '|'), ('మ', '|'), ('థ', 'U'), ('ద్వి', '|'), ('పేం', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('వీ', 'U'), ('పం', 'U'), ('చా', 'U'), ('న', '|'), ('న', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('తే', 'U'), ('జో', 'U'), ('ని', '|'), ('ధి', '|'), ('దెం', 'U'), ('దు', '|'), ('లూ', 'U'), ('రి', '|'), ('కు', '|'), ('ల', '|'), ('పా', 'U'), ('థో', 'U'), ('రా', 'U'), ('శి', '|'), ('రా', 'U'), ('కా', 'U'), ('ని', '|'), ('శా', 'U'), ('క', '|'), ('రు', '|'), ('ని', 'U'), ('న్లిం', 'U'), ('గ', '|'), ('య', '|'), ('స', 'U'), ('ద్గు', '|'), ('రూ', 'U'), ('త్త', '|'), ('ము', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('లి', '|'), ('తో', 'U'), ('ల్ము', 'U'), ('మ్మొ', '|'), ('న', '|'), ('వా', 'U'), ('లు', '|'), ('పా', 'U'), ('ప', '|'), ('తొ', '|'), ('డ', '|'), ('వుల్', 'U'), ('భూ', 'U'), ('త్యం', 'U'), ('త', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('పు', 'U'), ('న్క', '|'), ('ల', '|'), ('పే', 'U'), ('ర్లె', 'U'), ('క్కు', '|'), ('వ', '|'), ('క', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('ల', '|'), ('గ', '|'), ('ళ', '|'), ('మున్', 'U'), ('గం', 'U'), ('గా', 'U'), ('వ', '|'), ('తం', 'U'), ('సం', 'U'), ('బు', '|'), ('క్రొ', 'U'), ('న్నె', '|'), ('ల', '|'), ('పూ', 'U'), ('వ', '|'), ('ద్రి', '|'), ('సు', '|'), ('తా', 'U'), ('స', '|'), ('మ', 'U'), ('న్వ', '|'), ('య', '|'), ('ము', '|'), ('వి', 'U'), ('న్కీ', 'U'), ('ల్గం', 'U'), ('టు', '|'), ('లే', 'U'), ('జిం', 'U'), ('క', '|'), ('యున్', 'U'), ('గ', '|'), ('ల', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('పు', '|'), ('లి', '|'), ('తో', 'U'), ('ల్ము', 'U'), ('మ్మొ', '|'), ('న', '|'), ('వా', 'U'), ('లు', '|'), ('పా', 'U'), ('ప', '|'), ('తొ', '|'), ('డ', '|'), ('వు', 'U'), ('ల్భూ', 'U'), ('త్యం', 'U'), ('త', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('పు', 'U'), ('న్క', '|'), ('ల', '|'), ('పే', 'U'), ('ర్లె', 'U'), ('క్కు', '|'), ('వ', '|'), ('క', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('ల', '|'), ('గ', '|'), ('ళ', '|'), ('ము', 'U'), ('న్గం', 'U'), ('గా', 'U'), ('వ', '|'), ('తం', 'U'), ('సం', 'U'), ('బు', '|'), ('క్రొ', 'U'), ('న్నె', '|'), ('ల', '|'), ('పూ', 'U'), ('వ', '|'), ('ద్రి', '|'), ('సు', '|'), ('తా', 'U'), ('స', '|'), ('మ', 'U'), ('న్వ', '|'), ('య', '|'), ('ము', '|'), ('వి', 'U'), ('న్కీ', 'U'), ('ల్గం', 'U'), ('టు', '|'), ('లే', 'U'), ('జిం', 'U'), ('క', '|'), ('యున్', 'U'), ('గ', '|'), ('ల', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('వ్ర', '|'), ('త', '|'), ('ముల్', 'U'), ('దే', 'U'), ('వ', '|'), ('గు', '|'), ('రు', 'U'), ('ద్వి', '|'), ('జా', 'U'), ('ర్య', '|'), ('ప', '|'), ('ద', '|'), ('సే', 'U'), ('వల్', 'U'), ('వై', 'U'), ('శ్వ', '|'), ('దే', 'U'), ('వా', 'U'), ('ది', '|'), ('స', 'U'), ('త్క్ర', '|'), ('తు', '|'), ('హో', 'U'), ('మా', 'U'), ('దు', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లా', 'U'), ('శ్రి', '|'), ('త', '|'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధు', '|'), ('లిం', 'U'), ('చు', '|'), ('కే', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మే', 'U'), ('గ', '|'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('వ్ర', '|'), ('త', '|'), ('ము', 'U'), ('ల్దే', 'U'), ('వ', '|'), ('గు', '|'), ('రు', 'U'), ('ద్వి', '|'), ('జా', 'U'), ('ర్య', '|'), ('ప', '|'), ('ద', '|'), ('సే', 'U'), ('వ', 'U'), ('ల్వై', 'U'), ('శ్వ', '|'), ('దే', 'U'), ('వా', 'U'), ('ది', '|'), ('స', 'U'), ('త్క్ర', '|'), ('తు', '|'), ('హో', 'U'), ('మా', 'U'), ('దు', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లా', 'U'), ('శ్రి', '|'), ('త', '|'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధు', '|'), ('లిం', 'U'), ('చు', '|'), ('కే', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మే', 'U'), ('గ', '|'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('రు', '|'), ('ద', 'U'), ('ర్కేం', 'U'), ('దు', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('య', 'U'), ('జ్వ', '|'), ('గ', '|'), ('గ', '|'), ('నాం', 'U'), ('భ', '|'), ('కుం', 'U'), ('భి', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('కే', 'U'), ('శున్', 'U'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('తా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('ర', '|'), ('ణు', 'U'), ('న్బా', 'U'), ('లేం', 'U'), ('దు', '|'), ('చూ', 'U'), ('డా', 'U'), ('మ', '|'), ('ణిన్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('భృ', 'U'), ('త్త', '|'), ('న', '|'), ('యా', 'U'), ('స్త', '|'), ('న', 'U'), ('ద్వ', '|'), ('య', '|'), ('మి', '|'), ('ళి', 'U'), ('త్క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('కా', 'U'), ('పం', 'U'), ('క', '|'), ('సం', 'U'), ('క', '|'), ('ర', '|'), ('దో', 'U'), ('రం', 'U'), ('త', '|'), ('రు', '|'), ('నిన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('మ', '|'), ('రు', '|'), ('ద', 'U'), ('ర్కేం', 'U'), ('దు', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('య', 'U'), ('జ్వ', '|'), ('గ', '|'), ('గ', '|'), ('నాం', 'U'), ('భ', '|'), ('కుం', 'U'), ('భి', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('నం', 'U'), ('బ', '|'), ('ర', '|'), ('కే', 'U'), ('శు', 'U'), ('న్శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('తా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('ర', '|'), ('ణు', 'U'), ('న్బా', 'U'), ('లేం', 'U'), ('దు', '|'), ('చూ', 'U'), ('డా', 'U'), ('మ', '|'), ('ణిన్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('భృ', 'U'), ('త్త', '|'), ('న', '|'), ('యా', 'U'), ('స్త', '|'), ('న', 'U'), ('ద్వ', '|'), ('య', '|'), ('మి', '|'), ('ళి', 'U'), ('త్క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('కా', 'U'), ('పం', 'U'), ('క', '|'), ('సం', 'U'), ('క', '|'), ('ర', '|'), ('దో', 'U'), ('రం', 'U'), ('త', '|'), ('రు', '|'), ('ని', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('భ', '|'), ('వున్', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('తు', '|'), ('నా', 'U'), ('ద్యు', '|'), ('న', 'U'), ('క్ష', '|'), ('యు', '|'), ('ని', '|'), ('న', 'U'), ('వ్య', 'U'), ('క్తుం', 'U'), ('బ', '|'), ('రే', 'U'), ('శు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('భు', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('భూ', 'U'), ('త', '|'), ('మ', '|'), ('యు', '|'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞున్', 'U'), ('గు', '|'), ('ణా', 'U'), ('తీ', 'U'), ('తు', '|'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డో', 'U'), ('ద', '|'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('రూ', 'U'), ('ప', '|'), ('భ', '|'), ('వు', '|'), ('న', 'U'), ('ద్వం', 'U'), ('ద్వుం', 'U'), ('జి', '|'), ('దా', 'U'), ('నం', 'U'), ('దు', '|'), ('నిన్', 'U'), ('ర', '|'), ('భ', '|'), ('సం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్నె్పు', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('భ', '|'), ('వు', 'U'), ('న్శా', 'U'), ('శ్వ', '|'), ('తు', '|'), ('నా', 'U'), ('ద్యు', '|'), ('న', 'U'), ('క్ష', '|'), ('యు', '|'), ('ని', '|'), ('న', 'U'), ('వ్య', 'U'), ('క్తుం', 'U'), ('బ', '|'), ('రే', 'U'), ('శు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('భు', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('భూ', 'U'), ('త', '|'), ('మ', '|'), ('యు', '|'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞు', 'U'), ('న్గు', '|'), ('ణా', 'U'), ('తీ', 'U'), ('తు', '|'), ('బ', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డో', 'U'), ('ద', '|'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('రూ', 'U'), ('ప', '|'), ('భ', '|'), ('వు', '|'), ('న', 'U'), ('ద్వం', 'U'), ('ద్వుం', 'U'), ('జి', '|'), ('దా', 'U'), ('నం', 'U'), ('దు', '|'), ('నిన్', 'U'), ('ర', '|'), ('భ', '|'), ('సం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్నె్పు', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('తి', '|'), ('వా', 'U'), ('రం', 'U'), ('బు', '|'), ('శి', '|'), ('వో', 'U'), ('హ', '|'), ('మ', 'U'), ('స్మి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('తు', '|'), ('గం', 'U'), ('గా', 'U'), ('ధ', '|'), ('ర', 'U'), ('స్తు', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('జే', 'U'), ('తు', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('క', '|'), ('థల్', 'U'), ('సొం', 'U'), ('పా', 'U'), ('ర', '|'), ('నా', 'U'), ('లిం', 'U'), ('తు', '|'), ('నా', 'U'), ('యు', '|'), ('త', '|'), ('బు', 'U'), ('ద్ధిన్', 'U'), ('జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మ', '|'), ('యం', 'U'), ('బం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('తు', '|'), ('నే', 'U'), ('గ', '|'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('నీ', 'U'), ('వు', '|'), ('న', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ప్ర', '|'), ('తి', '|'), ('వా', 'U'), ('రం', 'U'), ('బు', '|'), ('శి', '|'), ('వో', 'U'), ('హ', '|'), ('మ', 'U'), ('స్మి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('తు', '|'), ('గం', 'U'), ('గా', 'U'), ('ధ', '|'), ('ర', 'U'), ('స్తు', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('జే', 'U'), ('తు', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('క', '|'), ('థ', 'U'), ('ల్సొం', 'U'), ('పా', 'U'), ('ర', '|'), ('నా', 'U'), ('లిం', 'U'), ('తు', '|'), ('నా', 'U'), ('యు', '|'), ('త', '|'), ('బు', 'U'), ('ద్ధి', 'U'), ('న్జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మ', '|'), ('యం', 'U'), ('బం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('తు', '|'), ('నే', 'U'), ('గ', '|'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('నీ', 'U'), ('వు', '|'), ('న', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('హా', 'U'), ('ర్య', '|'), ('ము', '|'), ('వి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('ఫ', '|'), ('ణి', '|'), ('కు', '|'), ('లా', 'U'), ('ధ్య', 'U'), ('క్షుం', 'U'), ('డు', '|'), ('త', 'U'), ('న్మౌ', 'U'), ('ర్వి', '|'), ('గా', 'U'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('తూ', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('ముల్', 'U'), ('గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('ముల్', 'U'), ('గా', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వ', '|'), ('మ', '|'), ('హీ', 'U'), ('చ', '|'), ('క్ర', '|'), ('ము', '|'), ('దే', 'U'), ('రు', '|'), ('జే', 'U'), ('సి', '|'), ('వి', '|'), ('ధి', '|'), ('సా', 'U'), ('ర', 'U'), ('థ్యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('బ', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ది', '|'), ('గ', '|'), ('ప్రో', 'U'), ('ళ్ళ', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('హా', 'U'), ('ర్య', '|'), ('ము', '|'), ('వి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('ఫ', '|'), ('ణి', '|'), ('కు', '|'), ('లా', 'U'), ('ధ్య', 'U'), ('క్షుం', 'U'), ('డు', '|'), ('త', 'U'), ('న్మౌ', 'U'), ('ర్వి', '|'), ('గా', 'U'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('తూ', 'U'), ('పు', '|'), ('గా', 'U'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('ము', 'U'), ('ల్గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('ము', 'U'), ('ల్గా', 'U'), ('గ', '|'), ('స', 'U'), ('ర్వ', '|'), ('మ', '|'), ('హీ', 'U'), ('చ', '|'), ('క్ర', '|'), ('ము', '|'), ('దే', 'U'), ('రు', '|'), ('జే', 'U'), ('సి', '|'), ('వి', '|'), ('ధి', '|'), ('సా', 'U'), ('ర', 'U'), ('థ్యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('బ', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('ల', 'U'), ('న్ది', '|'), ('గ', '|'), ('ప్రో', 'U'), ('ళ్ళ', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('కో', 'U'), ('టీ', 'U'), ('రాం', 'U'), ('గ', '|'), ('ద', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ఘ', '|'), ('న', '|'), ('తు', '|'), ('లా', 'U'), ('కో', 'U'), ('టీ', 'U'), ('క', '|'), ('వా', 'U'), ('టీ', 'U'), ('న', '|'), ('ట', 'U'), ('ద్ఘో', 'U'), ('టీ', 'U'), ('హా', 'U'), ('ట', '|'), ('క', '|'), ('పే', 'U'), ('టి', '|'), ('కా', 'U'), ('భ', '|'), ('ట', '|'), ('వ', '|'), ('ధూ', 'U'), ('కో', 'U'), ('టీ', 'U'), ('న', '|'), ('టాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('చే', 'U'), ('టి', '|'), ('కాం', 'U'), ('బ', '|'), ('ర', '|'), ('త', '|'), ('తుల్', 'U'), ('వే', 'U'), ('చే', 'U'), ('కు', '|'), ('ఱు', 'U'), ('న్ని', 'U'), ('న్ని', '|'), ('రా', 'U'), ('ఘా', 'U'), ('ట', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('కో', 'U'), ('టీ', 'U'), ('రాం', 'U'), ('గ', '|'), ('ద', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('ఘ', '|'), ('న', '|'), ('తు', '|'), ('లా', 'U'), ('కో', 'U'), ('టీ', 'U'), ('క', '|'), ('వా', 'U'), ('టీ', 'U'), ('న', '|'), ('ట', 'U'), ('ద్ఘో', 'U'), ('టీ', 'U'), ('హా', 'U'), ('ట', '|'), ('క', '|'), ('పే', 'U'), ('టి', '|'), ('కా', 'U'), ('భ', '|'), ('ట', '|'), ('వ', '|'), ('ధూ', 'U'), ('కో', 'U'), ('టీ', 'U'), ('న', '|'), ('టాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('నా', 'U'), ('ట', '|'), ('క', '|'), ('చే', 'U'), ('టి', '|'), ('కాం', 'U'), ('బ', '|'), ('ర', '|'), ('త', '|'), ('తు', 'U'), ('ల్వే', 'U'), ('చే', 'U'), ('కు', '|'), ('ఱు', 'U'), ('న్ని', 'U'), ('న్ని', '|'), ('రా', 'U'), ('ఘా', 'U'), ('ట', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('డెం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('జీ', 'U'), ('రి', '|'), ('కిం', 'U'), ('గొ', '|'), ('న', '|'), ('క', '|'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థ', '|'), ('జం', 'U'), ('భ', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('ద్ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('ఖి', '|'), ('లా', 'U'), ('మ', '|'), ('ర', '|'), ('త', '|'), ('తిన్', 'U'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('యా', 'U'), ('ము', '|'), ('న', '|'), ('జ', 'U'), ('న్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', 'U'), ('న్వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రో', 'U'), ('గ్ర', '|'), ('సం', 'U'), ('హ', '|'), ('న', '|'), ('నం', 'U'), ('బూ', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రా', 'U'), ('భ', '|'), ('ళి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('డెం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('జీ', 'U'), ('రి', '|'), ('కిం', 'U'), ('గొ', '|'), ('న', '|'), ('క', '|'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థ', '|'), ('జం', 'U'), ('భ', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('ద్ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('ఖి', '|'), ('లా', 'U'), ('మ', '|'), ('ర', '|'), ('త', '|'), ('తి', 'U'), ('న్ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('యా', 'U'), ('ము', '|'), ('న', '|'), ('జ', 'U'), ('న్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', 'U'), ('న్వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రో', 'U'), ('గ్ర', '|'), ('సం', 'U'), ('హ', '|'), ('న', '|'), ('నం', 'U'), ('బూ', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రా', 'U'), ('భ', '|'), ('ళి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('కి', '|'), ('రి', '|'), ('హం', 'U'), ('సా', 'U'), ('కృ', '|'), ('తు', '|'), ('లూ', 'U'), ('ని', '|'), ('వె', 'U'), ('న్ను', '|'), ('డు', '|'), ('ను', '|'), ('బం', 'U'), ('కే', 'U'), ('జా', 'U'), ('త', '|'), ('గ', 'U'), ('ర్భుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బుల్', 'U'), ('శి', '|'), ('ర', '|'), ('ము', 'U'), ('న్గ', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్భో', 'U'), ('గి', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('పు', 'U'), ('ష్క', '|'), ('ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('ను', '|'), ('రో', 'U'), ('సి', '|'), ('కా', 'U'), ('న', '|'), ('క', '|'), ('ని', '|'), ('రా', 'U'), ('శం', 'U'), ('జెం', 'U'), ('దు', '|'), ('చో', 'U'), ('వా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('రు', '|'), ('ణం', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వె', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('యి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('కి', '|'), ('రి', '|'), ('హం', 'U'), ('సా', 'U'), ('కృ', '|'), ('తు', '|'), ('లూ', 'U'), ('ని', '|'), ('వె', 'U'), ('న్ను', '|'), ('డు', '|'), ('ను', '|'), ('బం', 'U'), ('కే', 'U'), ('జా', 'U'), ('త', '|'), ('గ', 'U'), ('ర్భుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', 'U'), ('ల్శి', '|'), ('ర', '|'), ('ము', 'U'), ('న్గ', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్భో', 'U'), ('గి', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('పు', 'U'), ('ష్క', '|'), ('ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('ను', '|'), ('రో', 'U'), ('సి', '|'), ('కా', 'U'), ('న', '|'), ('క', '|'), ('ని', '|'), ('రా', 'U'), ('శం', 'U'), ('జెం', 'U'), ('దు', '|'), ('చో', 'U'), ('వా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('రు', '|'), ('ణం', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వె', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('యి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రి', '|'), ('క', 'U'), ('న్న', 'U'), ('న్మ', '|'), ('రి', '|'), ('దై', 'U'), ('వ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', 'U'), ('న్భు', '|'), ('జం', 'U'), ('బె', 'U'), ('త్తి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('గా', 'U'), ('శి', '|'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('లో', 'U'), ('బ', 'U'), ('ల్మా', 'U'), ('ఱు', '|'), ('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('వా', 'U'), ('గ్దో', 'U'), ('ష', '|'), ('ర', '|'), ('తుం', 'U'), ('బ', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తున్', 'U'), ('స్రు', 'U'), ('క్కిం', 'U'), ('ప', '|'), ('వే', 'U'), ('భీ', 'U'), ('మ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('దోః', 'U'), ('స్థం', 'U'), ('భ', '|'), ('న', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('హ', '|'), ('రి', '|'), ('క', 'U'), ('న్న', 'U'), ('న్మ', '|'), ('రి', '|'), ('దై', 'U'), ('వ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', 'U'), ('న్భు', '|'), ('జం', 'U'), ('బె', 'U'), ('త్తి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('గా', 'U'), ('శి', '|'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('లో', 'U'), ('బ', 'U'), ('ల్మా', 'U'), ('ఱు', '|'), ('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('వా', 'U'), ('గ్దో', 'U'), ('ష', '|'), ('ర', '|'), ('తుం', 'U'), ('బ', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తు', 'U'), ('న్స్రు', 'U'), ('క్కిం', 'U'), ('ప', '|'), ('వే', 'U'), ('భీ', 'U'), ('మ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('దోః', 'U'), ('స్థం', 'U'), ('భ', '|'), ('న', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రా', 'U'), ('తి', '|'), ('మృ', '|'), ('దం', 'U'), ('గ', '|'), ('ము', 'U'), ('న్న', '|'), ('లు', '|'), ('వ', '|'), ('కై', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('గో', 'U'), ('త్రా', 'U'), ('హి', '|'), ('తుం', 'U'), ('డె', '|'), ('న', '|'), ('య', 'U'), ('న్వే', 'U'), ('ణు', '|'), ('వు', '|'), ('వా', 'U'), ('ణి', '|'), ('వీ', 'U'), ('ణ', '|'), ('యు', '|'), ('ను', '|'), ('వా', 'U'), ('యిం', 'U'), ('పన్', 'U'), ('ర', '|'), ('మా', 'U'), ('కాం', 'U'), ('త', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('గా', 'U'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('సం', 'U'), ('జ', '|'), ('త', '|'), ('ఱి', '|'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('హా', 'U'), ('ళి', '|'), ('మై', 'U'), ('ఘ', '|'), ('న', '|'), ('తన్', 'U'), ('దాం', 'U'), ('డ', '|'), ('వ', '|'), ('కే', 'U'), ('ళి', '|'), ('సే', 'U'), ('యు', '|'), ('ద', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రా', 'U'), ('తి', '|'), ('మృ', '|'), ('దం', 'U'), ('గ', '|'), ('ము', 'U'), ('న్న', '|'), ('లు', '|'), ('వ', '|'), ('కై', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('గో', 'U'), ('త్రా', 'U'), ('హి', '|'), ('తుం', 'U'), ('డె', '|'), ('న', '|'), ('య', 'U'), ('న్వే', 'U'), ('ణు', '|'), ('వు', '|'), ('వా', 'U'), ('ణి', '|'), ('వీ', 'U'), ('ణ', '|'), ('యు', '|'), ('ను', '|'), ('వా', 'U'), ('యిం', 'U'), ('ప', '|'), ('న్ర', '|'), ('మా', 'U'), ('కాం', 'U'), ('త', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('గా', 'U'), ('నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('సం', 'U'), ('జ', '|'), ('త', '|'), ('ఱి', '|'), ('వే', 'U'), ('ల్పు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('హా', 'U'), ('ళి', '|'), ('మై', 'U'), ('ఘ', '|'), ('న', '|'), ('త', 'U'), ('న్దాం', 'U'), ('డ', '|'), ('వ', '|'), ('కే', 'U'), ('ళి', '|'), ('సే', 'U'), ('యు', '|'), ('ద', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('లాం', 'U'), ('భో', 'U'), ('ధ', '|'), ('ర', '|'), ('మ', 'U'), ('ధ్య', '|'), ('సం', 'U'), ('స్థి', '|'), ('త', '|'), ('త', '|'), ('టి', 'U'), ('న్నీ', 'U'), ('కా', 'U'), ('శ', '|'), ('మై', 'U'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ల్లీ', 'U'), ('ల', 'U'), ('న్ని', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ముం', 'U'), ('టి', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('నెం', 'U'), ('తే', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మై', 'U'), ('ప', 'U'), ('చ్చ', '|'), ('నై', 'U'), ('చా', 'U'), ('ల', 'U'), ('న్భా', 'U'), ('సి', '|'), ('లు', '|'), ('తే', 'U'), ('జ', '|'), ('మీ', 'U'), ('వ', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('దె', 'U'), ('న్ను', '|'), ('దుర్', 'U'), ('వా', 'U'), ('లెం', 'U'), ('బున్', 'U'), ('ఘ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('సు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('నీ', 'U'), ('లాం', 'U'), ('భో', 'U'), ('ధ', '|'), ('ర', '|'), ('మ', 'U'), ('ధ్య', '|'), ('సం', 'U'), ('స్థి', '|'), ('త', '|'), ('త', '|'), ('టి', 'U'), ('న్నీ', 'U'), ('కా', 'U'), ('శ', '|'), ('మై', 'U'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ల్లీ', 'U'), ('ల', 'U'), ('న్ని', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ముం', 'U'), ('టి', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('నెం', 'U'), ('తే', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మై', 'U'), ('ప', 'U'), ('చ్చ', '|'), ('నై', 'U'), ('చా', 'U'), ('ల', 'U'), ('న్భా', 'U'), ('సి', '|'), ('లు', '|'), ('తే', 'U'), ('జ', '|'), ('మీ', 'U'), ('వ', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('దె', 'U'), ('న్ను', '|'), ('దుర్', 'U'), ('వా', 'U'), ('లెం', 'U'), ('బు', 'U'), ('న్ఘ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('తా', 'U'), ('ప', '|'), ('సు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('గొ', '|'), ('న', '|'), ('బా', 'U'), ('ర', 'U'), ('న్వి', '|'), ('ట', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', '|'), ('మున్', 'U'), ('గొం', 'U'), ('కే', 'U'), ('ది', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('ణ', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('స', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గి', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('స', '|'), ('తి', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('చి', '|'), ('యా', 'U'), ('లే', 'U'), ('మ', '|'), ('య', 'U'), ('క్కు', '|'), ('న', '|'), ('జ', 'U'), ('క్క', 'U'), ('న్నె', '|'), ('ల', '|'), ('నా', 'U'), ('ళ్ళ', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('గో', 'U'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', 'U'), ('న్ప', 'U'), ('ట్టి', '|'), ('తౌ', 'U'), ('గ', '|'), ('న', '|'), ('న', '|'), ('బ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('గొ', '|'), ('న', '|'), ('బా', 'U'), ('ర', 'U'), ('న్వి', '|'), ('ట', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', '|'), ('ము', 'U'), ('న్గొం', 'U'), ('కే', 'U'), ('ది', '|'), ('భ', 'U'), ('ల్లా', 'U'), ('ణ', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('స', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గి', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('స', '|'), ('తి', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('చి', '|'), ('యా', 'U'), ('లే', 'U'), ('మ', '|'), ('య', 'U'), ('క్కు', '|'), ('న', '|'), ('జ', 'U'), ('క్క', 'U'), ('న్నె', '|'), ('ల', '|'), ('నా', 'U'), ('ళ్ళ', '|'), ('బా', 'U'), ('ల', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('గో', 'U'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', 'U'), ('న్ప', 'U'), ('ట్టి', '|'), ('తౌ', 'U'), ('గ', '|'), ('న', '|'), ('న', '|'), ('బ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('య', '|'), ('మ', '|'), ('రా', 'U'), ('డ్భీ', 'U'), ('క', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('పా', 'U'), ('శ', '|'), ('మ', '|'), ('థి', '|'), ('తుం', 'U'), ('డై', 'U'), ('శ్వే', 'U'), ('త', '|'), ('కే', 'U'), ('తుం', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్ద', '|'), ('మ', '|'), ('శో', 'U'), ('కా', 'U'), ('కు', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('వృ', 'U'), ('త్తి', '|'), ('మె', '|'), ('యి', '|'), ('ని', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వై', 'U'), ('ళం', 'U'), ('బ', '|'), ('యా', 'U'), ('శ', '|'), ('మ', '|'), ('నుం', 'U'), ('గ్రొ', 'U'), ('వ్వ', '|'), ('ఱ', '|'), ('ద', 'U'), ('న్ని', '|'), ('మౌ', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('యున్', 'U'), ('శ', 'U'), ('శ్వ', 'U'), ('ద్గ', '|'), ('తి', 'U'), ('న్బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('క', '|'), ('మ', '|'), ('లే', 'U'), ('శా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('య', '|'), ('మ', '|'), ('రా', 'U'), ('డ్భీ', 'U'), ('క', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('పా', 'U'), ('శ', '|'), ('మ', '|'), ('థి', '|'), ('తుం', 'U'), ('డై', 'U'), ('శ్వే', 'U'), ('త', '|'), ('కే', 'U'), ('తుం', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్ద', '|'), ('మ', '|'), ('శో', 'U'), ('కా', 'U'), ('కు', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('వృ', 'U'), ('త్తి', '|'), ('మె', '|'), ('యి', '|'), ('ని', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వై', 'U'), ('ళం', 'U'), ('బ', '|'), ('యా', 'U'), ('శ', '|'), ('మ', '|'), ('నుం', 'U'), ('గ్రొ', 'U'), ('వ్వ', '|'), ('ఱ', '|'), ('ద', 'U'), ('న్ని', '|'), ('మౌ', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('యు', 'U'), ('న్శ', 'U'), ('శ్వ', 'U'), ('ద్గ', '|'), ('తి', 'U'), ('న్బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('క', '|'), ('మ', '|'), ('లే', 'U'), ('శా', 'U'), ('ర్చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('రు', '|'), ('తొం', 'U'), ('డం', 'U'), ('డ', '|'), ('ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('నిం', 'U'), ('టి', '|'), ('కి', '|'), ('హొ', '|'), ('యల్', 'U'), ('చె', 'U'), ('న్నా', 'U'), ('ర', '|'), ('వేం', 'U'), ('చే', 'U'), ('సి', '|'), ('త', 'U'), ('ద్వ', '|'), ('ర', '|'), ('పు', '|'), ('త్రున్', 'U'), ('దు', '|'), ('ని', '|'), ('మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('జు', '|'), ('డు', '|'), ('తు', '|'), ('నె', 'U'), ('ల్వం', 'U'), ('డిం', 'U'), ('చి', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('చో', 'U'), ('సి', '|'), ('రి', '|'), ('యొ', 'U'), ('ప్ప', 'U'), ('న్ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('జూ', 'U'), ('పి', '|'), ('య', '|'), ('త', '|'), ('నిన్', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('రి', '|'), ('దై', 'U'), ('త్యా', 'U'), ('ధ', '|'), ('మ', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('థ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('చి', '|'), ('రు', '|'), ('తొం', 'U'), ('డం', 'U'), ('డ', '|'), ('ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('నిం', 'U'), ('టి', '|'), ('కి', '|'), ('హొ', '|'), ('య', 'U'), ('ల్చె', 'U'), ('న్నా', 'U'), ('ర', '|'), ('వేం', 'U'), ('చే', 'U'), ('సి', '|'), ('త', 'U'), ('ద్వ', '|'), ('ర', '|'), ('పు', '|'), ('త్రు', 'U'), ('న్దు', '|'), ('ని', '|'), ('మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('జు', '|'), ('డు', '|'), ('తు', '|'), ('నె', 'U'), ('ల్వం', 'U'), ('డిం', 'U'), ('చి', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('చో', 'U'), ('సి', '|'), ('రి', '|'), ('యొ', 'U'), ('ప్ప', 'U'), ('న్ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('జూ', 'U'), ('పి', '|'), ('య', '|'), ('త', '|'), ('ని', 'U'), ('న్జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('రి', '|'), ('దై', 'U'), ('త్యా', 'U'), ('ధ', '|'), ('మ', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('థ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('జ', '|'), ('యుం', 'U'), ('డు', '|'), ('గ్ర', '|'), ('వి', '|'), ('ప', 'U'), ('క్ష', '|'), ('శి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('వృ', 'U'), ('త్తి', 'U'), ('న్మి', '|'), ('ముం', 'U'), ('గో', 'U'), ('రి', '|'), ('య', 'U'), ('క్క', '|'), ('జ', '|'), ('మొ', 'U'), ('ప్పన్', 'U'), ('ద', '|'), ('ప', '|'), ('మిం', 'U'), ('ద్ర', '|'), ('కీ', 'U'), ('ల', '|'), ('శి', '|'), ('ఖ', '|'), ('రిన్', 'U'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('చో', 'U'), ('బో', 'U'), ('య', '|'), ('వై', 'U'), ('వి', '|'), ('జ', '|'), ('య', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గ', '|'), ('బో', 'U'), ('రి', '|'), ('పా', 'U'), ('శు', '|'), ('ప', '|'), ('త', '|'), ('మీ', 'U'), ('వే', 'U'), ('వా', 'U'), ('ని', '|'), ('కి', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('ర', '|'), ('జ', '|'), ('త', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ధ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('స', 'U'), ('ద్భ', '|'), ('వ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('వి', '|'), ('జ', '|'), ('యుం', 'U'), ('డు', '|'), ('గ్ర', '|'), ('వి', '|'), ('ప', 'U'), ('క్ష', '|'), ('శి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('వృ', 'U'), ('త్తి', 'U'), ('న్మి', '|'), ('ముం', 'U'), ('గో', 'U'), ('రి', '|'), ('య', 'U'), ('క్క', '|'), ('జ', '|'), ('మొ', 'U'), ('ప్ప', 'U'), ('న్ద', '|'), ('ప', '|'), ('మిం', 'U'), ('ద్ర', '|'), ('కీ', 'U'), ('ల', '|'), ('శి', '|'), ('ఖ', '|'), ('రి', 'U'), ('న్గా', 'U'), ('విం', 'U'), ('చు', '|'), ('చో', 'U'), ('బో', 'U'), ('య', '|'), ('వై', 'U'), ('వి', '|'), ('జ', '|'), ('య', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గ', '|'), ('బో', 'U'), ('రి', '|'), ('పా', 'U'), ('శు', '|'), ('ప', '|'), ('త', '|'), ('మీ', 'U'), ('వే', 'U'), ('వా', 'U'), ('ని', '|'), ('కి', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('ర', '|'), ('జ', '|'), ('త', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ధ', '|'), ('రా', 'U'), ('గ్ర', '|'), ('స', 'U'), ('ద్భ', '|'), ('వ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('కున్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('కి', '|'), ('కన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', '|'), ('దై', 'U'), ('త్య', '|'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రా', 'U'), ('మ', 'U'), ('ర్త్య', '|'), ('సం', 'U'), ('స', 'U'), ('త్ప', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('మూ', 'U'), ('ర్ధం', 'U'), ('బు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('న', '|'), ('న', 'U'), ('త్యు', 'U'), ('ద్ధ', '|'), ('త', '|'), ('భై', 'U'), ('ర', '|'), ('వా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('కు', 'U'), ('న్మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('కి', '|'), ('క', 'U'), ('న్దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', '|'), ('దై', 'U'), ('త్య', '|'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రా', 'U'), ('మ', 'U'), ('ర్త్య', '|'), ('సం', 'U'), ('స', 'U'), ('త్ప', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('పం', 'U'), ('చ', '|'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('మూ', 'U'), ('ర్ధం', 'U'), ('బు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('న', '|'), ('న', 'U'), ('త్యు', 'U'), ('ద్ధ', '|'), ('త', '|'), ('భై', 'U'), ('ర', '|'), ('వా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('లో', 'U'), ('క', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కి', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('ను', '|'), ('టా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('ప', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బె', '|'), ('పో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠా', 'U'), ('ధి', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('శౌ', 'U'), ('రి', '|'), ('ది', '|'), ('న', '|'), ('రా', 'U'), ('డ్వం', 'U'), ('శం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వుం', 'U'), ('డై', 'U'), ('క', 'U'), ('న్ప', 'U'), ('ట్టి', '|'), ('జ', '|'), ('గ', 'U'), ('ద్ధి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('న', '|'), ('సం', 'U'), ('ఖ్యన్', 'U'), ('శం', 'U'), ('భు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణే', 'U'), ('చ్ఛ', '|'), ('బ్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('చే', 'U'), ('సె', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('లో', 'U'), ('క', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కి', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('ను', '|'), ('టా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('ప', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బె', '|'), ('పో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠా', 'U'), ('ధి', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('శౌ', 'U'), ('రి', '|'), ('ది', '|'), ('న', '|'), ('రా', 'U'), ('డ్వం', 'U'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('న్రా', 'U'), ('ఘ', '|'), ('వుం', 'U'), ('డై', 'U'), ('క', 'U'), ('న్ప', 'U'), ('ట్టి', '|'), ('జ', '|'), ('గ', 'U'), ('ద్ధి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('న', '|'), ('సం', 'U'), ('ఖ్య', 'U'), ('న్శం', 'U'), ('భు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణే', 'U'), ('చ్ఛ', '|'), ('బ్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('చే', 'U'), ('సె', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('శి', '|'), ('ల', '|'), ('ల', 'U'), ('న్ఱొ', 'U'), ('ప్పి', '|'), ('యు', '|'), ('జె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('డు', 'U'), ('న్జి', '|'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యున్', 'U'), ('వె', '|'), ('లి', '|'), ('వె', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యు', '|'), ('గుం', 'U'), ('టె', '|'), ('న', 'U'), ('ల్న', '|'), ('డ', '|'), ('పి', '|'), ('యు', 'U'), ('న్వే', 'U'), ('రో', 'U'), ('క', '|'), ('టం', 'U'), ('గ్రు', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్ని', '|'), ('ల', '|'), ('య', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('గా', 'U'), ('పు', '|'), ('ని', '|'), ('చి', '|'), ('యున్', 'U'), ('నీ', 'U'), ('వా', 'U'), ('ర', '|'), ('లై', 'U'), ('నా', 'U'), ('రు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('శి', '|'), ('ల', '|'), ('ల', 'U'), ('న్ఱొ', 'U'), ('ప్పి', '|'), ('యు', '|'), ('జె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('డు', 'U'), ('న్జి', '|'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యున్', 'U'), ('వె', '|'), ('లి', '|'), ('వె', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యు', '|'), ('గుం', 'U'), ('టె', '|'), ('న', 'U'), ('ల్న', '|'), ('డ', '|'), ('పి', '|'), ('యు', 'U'), ('న్వే', 'U'), ('రో', 'U'), ('క', '|'), ('టం', 'U'), ('గ్రు', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్ని', '|'), ('ల', '|'), ('య', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('గా', 'U'), ('పు', '|'), ('ని', '|'), ('చి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('వా', 'U'), ('ర', '|'), ('లై', 'U'), ('నా', 'U'), ('రు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('జి', '|'), ('నం', 'U'), ('బు', 'U'), ('న్వృ', '|'), ('ష', '|'), ('ఘో', 'U'), ('టి', '|'), ('యుం', 'U'), ('బు', '|'), ('ను', '|'), ('క', '|'), ('లు', 'U'), ('న్హా', 'U'), ('లా', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', 'U'), ('ల్శ', '|'), ('వ', '|'), ('భ', 'U'), ('స్మ', '|'), ('ము', 'U'), ('ల్గొ', '|'), ('ఱ', '|'), ('ల', '|'), ('గా', 'U'), ('భూ', 'U'), ('తా', 'U'), ('ళి', '|'), ('తో', 'U'), ('నుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('ద్రి', '|'), ('జ', '|'), ('గ', 'U'), ('న్మం', 'U'), ('గ', '|'), ('ళ', '|'), ('దా', 'U'), ('య', '|'), ('కా', 'U'), ('కృ', '|'), ('తి', '|'), ('గ', '|'), ('డున్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', '|'), ('బ్రం', 'U'), ('బ', '|'), ('హా', 'U'), ('ర', '|'), ('జ', '|'), ('నీ', 'U'), ('నా', 'U'), ('థ', '|'), ('క', '|'), ('ళా', 'U'), ('శి', '|'), ('రో', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('జి', '|'), ('నం', 'U'), ('బు', 'U'), ('న్వృ', '|'), ('ష', '|'), ('ఘో', 'U'), ('టి', '|'), ('యుం', 'U'), ('బు', '|'), ('ను', '|'), ('క', '|'), ('లు', 'U'), ('న్హా', 'U'), ('లా', 'U'), ('హ', '|'), ('లం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('భు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', 'U'), ('ల్శ', '|'), ('వ', '|'), ('భ', 'U'), ('స్మ', '|'), ('ము', 'U'), ('ల్గొ', '|'), ('ఱ', '|'), ('ల', '|'), ('గా', 'U'), ('భూ', 'U'), ('తా', 'U'), ('ళి', '|'), ('తో', 'U'), ('నుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('ద్రి', '|'), ('జ', '|'), ('గ', 'U'), ('న్మం', 'U'), ('గ', '|'), ('ళ', '|'), ('దా', 'U'), ('య', '|'), ('కా', 'U'), ('కృ', '|'), ('తి', '|'), ('గ', '|'), ('డు', 'U'), ('న్దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', '|'), ('బ్రం', 'U'), ('బ', '|'), ('హా', 'U'), ('ర', '|'), ('జ', '|'), ('నీ', 'U'), ('నా', 'U'), ('థ', '|'), ('క', '|'), ('ళా', 'U'), ('శి', '|'), ('రో', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('భం', 'U'), ('జిం', 'U'), ('చుం', 'U'), ('గ', '|'), ('ద', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('త', '|'), ('తిన్', 'U'), ('భ', 'U'), ('స్మ', '|'), ('త్రి', '|'), ('పుం', 'U'), ('డ్రం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మం', 'U'), ('జు', '|'), ('శ్రీ', 'U'), ('ల', '|'), ('లి', '|'), ('తా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('బ్రే', 'U'), ('మం', 'U'), ('బూ', 'U'), ('ని', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('కుం', 'U'), ('జే', 'U'), ('మో', 'U'), ('డ్చు', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('డె', '|'), ('పు', '|'), ('డుం', 'U'), ('కు', 'U'), ('క్షి', 'U'), ('స్థ', '|'), ('ల', '|'), ('ప్రో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('త్కం', 'U'), ('జా', 'U'), ('త', '|'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('భం', 'U'), ('జిం', 'U'), ('చుం', 'U'), ('గ', '|'), ('ద', '|'), ('ఘో', 'U'), ('ర', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('త', '|'), ('తి', 'U'), ('న్భ', 'U'), ('స్మ', '|'), ('త్రి', '|'), ('పుం', 'U'), ('డ్రం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మం', 'U'), ('జు', '|'), ('శ్రీ', 'U'), ('ల', '|'), ('లి', '|'), ('తా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('బ్రే', 'U'), ('మం', 'U'), ('బూ', 'U'), ('ని', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('కుం', 'U'), ('జే', 'U'), ('మో', 'U'), ('డ్చు', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('డె', '|'), ('పు', '|'), ('డుం', 'U'), ('కు', 'U'), ('క్షి', 'U'), ('స్థ', '|'), ('ల', '|'), ('ప్రో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('త్కం', 'U'), ('జా', 'U'), ('త', '|'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('గుం', 'U'), ('భ', '|'), ('ఘో', 'U'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('గాం', 'U'), ('చీ', 'U'), ('స్థా', 'U'), ('న', '|'), ('కే', 'U'), ('దా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('కా', 'U'), ('శీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('వ', '|'), ('తీ', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('ల', 'U'), ('క్ష్మా', 'U'), ('ధ', '|'), ('రా', 'U'), ('వం', 'U'), ('తి', '|'), ('కల్', 'U'), ('లే', 'U'), ('శం', 'U'), ('బున్', 'U'), ('ఫ', '|'), ('ల', '|'), ('మీ', 'U'), ('వు', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('హా', 'U'), ('ళిం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('చో', 'U'), ('గా', 'U'), ('శా', 'U'), ('కా', 'U'), ('శ', '|'), ('ధు', '|'), ('నీ', 'U'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('గుం', 'U'), ('భ', '|'), ('ఘో', 'U'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('గాం', 'U'), ('చీ', 'U'), ('స్థా', 'U'), ('న', '|'), ('కే', 'U'), ('దా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('కా', 'U'), ('శీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('వ', '|'), ('తీ', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('ల', 'U'), ('క్ష్మా', 'U'), ('ధ', '|'), ('రా', 'U'), ('వం', 'U'), ('తి', '|'), ('కల్', 'U'), ('లే', 'U'), ('శం', 'U'), ('బు', 'U'), ('న్ఫ', '|'), ('ల', '|'), ('మీ', 'U'), ('వు', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('హా', 'U'), ('ళిం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('చో', 'U'), ('గా', 'U'), ('శా', 'U'), ('కా', 'U'), ('శ', '|'), ('ధు', '|'), ('నీ', 'U'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('వే', 'U'), ('రీ', 'U'), ('స', '|'), ('ర', '|'), ('యూ', 'U'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('గం', 'U'), ('గా', 'U'), ('క', '|'), ('ళిం', 'U'), ('దా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('రే', 'U'), ('వా', 'U'), ('వే', 'U'), ('త్ర', '|'), ('వ', '|'), ('తీ', 'U'), ('స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తు', '|'), ('ల', '|'), ('క', 'U'), ('ర్థిం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('నీ', 'U'), ('సే', 'U'), ('వా', 'U'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్చ', '|'), ('నా', 'U'), ('దు', '|'), ('లె', '|'), ('పు', '|'), ('డున్', 'U'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చు', '|'), ('మ', 'U'), ('ర్త్యా', 'U'), ('ళి', '|'), ('కిన్', 'U'), ('గ్రై', 'U'), ('వీ', 'U'), ('భూ', 'U'), ('త', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('ప్ర', '|'), ('వ', '|'), ('ర', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('కా', 'U'), ('వే', 'U'), ('రీ', 'U'), ('స', '|'), ('ర', '|'), ('యూ', 'U'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('గం', 'U'), ('గా', 'U'), ('క', '|'), ('ళిం', 'U'), ('దా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('రే', 'U'), ('వా', 'U'), ('వే', 'U'), ('త్ర', '|'), ('వ', '|'), ('తీ', 'U'), ('స', '|'), ('ర', 'U'), ('స్వ', '|'), ('తు', '|'), ('ల', '|'), ('క', 'U'), ('ర్థిం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('నే', 'U'), ('ల', '|'), ('నీ', 'U'), ('సే', 'U'), ('వా', 'U'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్చ', '|'), ('నా', 'U'), ('దు', '|'), ('లె', '|'), ('పు', '|'), ('డు', 'U'), ('న్సి', 'U'), ('ద్ధిం', 'U'), ('చు', '|'), ('మ', 'U'), ('ర్త్యా', 'U'), ('ళి', '|'), ('కిన్', 'U'), ('గ్రై', 'U'), ('వీ', 'U'), ('భూ', 'U'), ('త', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('ప్ర', '|'), ('వ', '|'), ('ర', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('దో', 'U'), ('లి', '|'), ('స', 'U'), ('ర్వ', '|'), ('హి', '|'), ('తు', '|'), ('లై', 'U'), ('య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ', '|'), ('క్రి', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('లై', 'U'), ('గా', 'U'), ('డ్పు', '|'), ('జ', '|'), ('యిం', 'U'), ('చి', '|'), ('ము', '|'), ('ద్ర', '|'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('బ్ర', 'U'), ('హ్మం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('వి', '|'), ('రి', '|'), ('సో', 'U'), ('హ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యెం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('మ', '|'), ('హా', 'U'), ('వే', 'U'), ('దాం', 'U'), ('తు', '|'), ('లౌ', 'U'), ('యో', 'U'), ('గి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లె', 'U'), ('ల్లన్', 'U'), ('మి', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('దో', 'U'), ('లి', '|'), ('స', 'U'), ('ర్వ', '|'), ('హి', '|'), ('తు', '|'), ('లై', 'U'), ('య', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ', '|'), ('క్రి', '|'), ('యా', 'U'), ('ప', '|'), ('రు', '|'), ('లై', 'U'), ('గా', 'U'), ('డ్పు', '|'), ('జ', '|'), ('యిం', 'U'), ('చి', '|'), ('ము', '|'), ('ద్ర', '|'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్బ్ర', 'U'), ('హ్మం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('వి', '|'), ('రి', '|'), ('సో', 'U'), ('హ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యెం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('మ', '|'), ('హా', 'U'), ('వే', 'U'), ('దాం', 'U'), ('తు', '|'), ('లౌ', 'U'), ('యో', 'U'), ('గి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('న్మి', '|'), ('ము', '|'), ('గాం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ల', '|'), ('పో', 'U'), ('యన్', 'U'), ('ది', '|'), ('ల', '|'), ('జా', 'U'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('తై', 'U'), ('లం', 'U'), ('బు', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('పో', 'U'), ('ల్కి', '|'), ('నా', 'U'), ('త్మ', '|'), ('మ', '|'), ('య', '|'), ('తన్', 'U'), ('స', 'U'), ('ర్వాం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థా', 'U'), ('యి', '|'), ('వై', 'U'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', '|'), ('నిం', 'U'), ('డి', '|'), ('యుం', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('ని', 'U'), ('న్వీ', 'U'), ('క్షం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('ధ', 'U'), ('న్యుల్', 'U'), ('గ', '|'), ('ద', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('త', '|'), ('ల', '|'), ('పో', 'U'), ('య', 'U'), ('న్ది', '|'), ('ల', '|'), ('జా', 'U'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('తై', 'U'), ('లం', 'U'), ('బు', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('దా', 'U'), ('ర', '|'), ('ము', '|'), ('పో', 'U'), ('ల్కి', '|'), ('నా', 'U'), ('త్మ', '|'), ('మ', '|'), ('య', '|'), ('త', 'U'), ('న్స', 'U'), ('ర్వాం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థా', 'U'), ('యి', '|'), ('వై', 'U'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', '|'), ('నిం', 'U'), ('డి', '|'), ('యుం', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('ని', 'U'), ('న్వీ', 'U'), ('క్షం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('ధ', 'U'), ('న్యు', 'U'), ('ల్గ', '|'), ('ద', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('ఓం', 'U'), ('కా', 'U'), ('ర', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('క్ష', '|'), ('రో', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('సం', 'U'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('వే', 'U'), ('న్ము', '|'), ('ఖా', 'U'), ('లం', 'U'), ('కా', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('శ', 'U'), ('బ్ద', '|'), ('బిం', 'U'), ('దు', '|'), ('క', '|'), ('ళ', '|'), ('లున్', 'U'), ('ల', 'U'), ('క్ష్య', '|'), ('ప్ర', '|'), ('యో', 'U'), ('గ', '|'), ('క్రి', '|'), ('యల్', 'U'), ('పొం', 'U'), ('కం', 'U'), ('బౌ', 'U'), ('గు', '|'), ('రు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ముల్', 'U'), ('య', '|'), ('తి', '|'), ('గ', '|'), ('తిం', 'U'), ('బో', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('తిం', 'U'), ('బో', 'U'), ('లి', '|'), ('సా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రుం', 'U'), ('డ', '|'), ('యి', '|'), ('ప్రా', 'U'), ('కృ', '|'), ('తుం', 'U'), ('డు', '|'), ('చె', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ఓం', 'U'), ('కా', 'U'), ('ర', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖా', 'U'), ('క్ష', '|'), ('రో', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణ', '|'), ('సం', 'U'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('వే', 'U'), ('న్ము', '|'), ('ఖా', 'U'), ('లం', 'U'), ('కా', 'U'), ('రా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('శ', 'U'), ('బ్ద', '|'), ('బిం', 'U'), ('దు', '|'), ('క', '|'), ('ళ', '|'), ('లు', 'U'), ('న్ల', 'U'), ('క్ష్య', '|'), ('ప్ర', '|'), ('యో', 'U'), ('గ', '|'), ('క్రి', '|'), ('యల్', 'U'), ('పొం', 'U'), ('కం', 'U'), ('బౌ', 'U'), ('గు', '|'), ('రు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', 'U'), ('ల్య', '|'), ('తి', '|'), ('గ', '|'), ('తిం', 'U'), ('బో', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('తిం', 'U'), ('బో', 'U'), ('లి', '|'), ('సా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రుం', 'U'), ('డ', '|'), ('యి', '|'), ('ప్రా', 'U'), ('కృ', '|'), ('తుం', 'U'), ('డు', '|'), ('చె', '|'), ('డు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('కుల్', 'U'), ('మె', 'U'), ('క్క', '|'), ('దె', '|'), ('మే', 'U'), ('క', '|'), ('చె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('నొ', 'U'), ('య్యన్', 'U'), ('వ్రే', 'U'), ('ల', '|'), ('దే', 'U'), ('ప', 'U'), ('క్షి', '|'), ('పె', 'U'), ('న్గా', 'U'), ('కుల్', 'U'), ('గ్రుం', 'U'), ('క', '|'), ('వె', '|'), ('నీ', 'U'), ('ట', '|'), ('గా', 'U'), ('లి', '|'), ('గొ', '|'), ('న', '|'), ('దే', 'U'), ('నా', 'U'), ('గం', 'U'), ('బు', '|'), ('బ', 'U'), ('ల్గొం', 'U'), ('దు', '|'), ('లన్', 'U'), ('ఘూ', 'U'), ('కం', 'U'), ('బుం', 'U'), ('డ', '|'), ('దె', '|'), ('కో', 'U'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('దే', 'U'), ('క్రో', 'U'), ('డం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్గాం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గా', 'U'), ('కి', 'U'), ('న్నిం', 'U'), ('ట', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('నె', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('కు', 'U'), ('ల్మె', 'U'), ('క్క', '|'), ('దె', '|'), ('మే', 'U'), ('క', '|'), ('చె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('నొ', 'U'), ('య్య', 'U'), ('న్వ్రే', 'U'), ('ల', '|'), ('దే', 'U'), ('ప', 'U'), ('క్షి', '|'), ('పె', 'U'), ('న్గా', 'U'), ('కు', 'U'), ('ల్గ్రుం', 'U'), ('క', '|'), ('వె', '|'), ('నీ', 'U'), ('ట', '|'), ('గా', 'U'), ('లి', '|'), ('గొ', '|'), ('న', '|'), ('దే', 'U'), ('నా', 'U'), ('గం', 'U'), ('బు', '|'), ('బ', 'U'), ('ల్గొం', 'U'), ('దు', '|'), ('లన్', 'U'), ('ఘూ', 'U'), ('కం', 'U'), ('బుం', 'U'), ('డ', '|'), ('దె', '|'), ('కో', 'U'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('దే', 'U'), ('క్రో', 'U'), ('డం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్గాం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గా', 'U'), ('కి', 'U'), ('న్నిం', 'U'), ('ట', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('నె', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('మృ', 'U'), ('ద్దా', 'U'), ('రు', '|'), ('శి', '|'), ('లా', 'U'), ('మ', '|'), ('య', '|'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('లన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లం', 'U'), ('చుం', 'U'), ('బ', '|'), ('ర', 'U'), ('స్ప', '|'), ('ర', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('బో', 'U'), ('రు', '|'), ('చున్', 'U'), ('ని', '|'), ('బి', '|'), ('డ', '|'), ('సం', 'U'), ('సా', 'U'), ('రాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('కు', '|'), ('ఱ', '|'), ('కే', 'U'), ('మ', 'U'), ('గ్గ', '|'), ('ము', '|'), ('లో', 'U'), ('ని', '|'), ('కం', 'U'), ('డె', '|'), ('ల', '|'), ('గ', '|'), ('తిన్', 'U'), ('ఘో', 'U'), ('రా', 'U'), ('ర్తు', '|'), ('లై', 'U'), ('ప్రా', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('క', '|'), ('ర', '|'), ('ముం', 'U'), ('జ', 'U'), ('చ్చు', '|'), ('చు', '|'), ('బు', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('మృ', 'U'), ('ద్దా', 'U'), ('రు', '|'), ('శి', '|'), ('లా', 'U'), ('మ', '|'), ('య', '|'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('ల', 'U'), ('న్దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లం', 'U'), ('చుం', 'U'), ('బ', '|'), ('ర', 'U'), ('స్ప', '|'), ('ర', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('బో', 'U'), ('రు', '|'), ('చు', 'U'), ('న్ని', '|'), ('బి', '|'), ('డ', '|'), ('సం', 'U'), ('సా', 'U'), ('రాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('కు', '|'), ('ఱ', '|'), ('కే', 'U'), ('మ', 'U'), ('గ్గ', '|'), ('ము', '|'), ('లో', 'U'), ('ని', '|'), ('కం', 'U'), ('డె', '|'), ('ల', '|'), ('గ', '|'), ('తి', 'U'), ('న్ఘో', 'U'), ('రా', 'U'), ('ర్తు', '|'), ('లై', 'U'), ('ప్రా', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('క', '|'), ('ర', '|'), ('ముం', 'U'), ('జ', 'U'), ('చ్చు', '|'), ('చు', '|'), ('బు', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('నీ', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('న', '|'), ('ర', '|'), ('క', 'U'), ('స్థా', 'U'), ('న', 'U'), ('వ్య', '|'), ('థం', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లె', '|'), ('న', '|'), ('యన్', 'U'), ('బా', 'U'), ('ల్య', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('తా', 'U'), ('ద', '|'), ('శ', '|'), ('ల', '|'), ('గొ', 'U'), ('న్నే', 'U'), ('డుల్', 'U'), ('వ', '|'), ('ధూ', 'U'), ('మీ', 'U'), ('న', '|'), ('కే', 'U'), ('త', '|'), ('న', '|'), ('గే', 'U'), ('హ', '|'), ('భ్ర', '|'), ('మ', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|'), ('ఘ', '|'), ('న', '|'), ('వృ', 'U'), ('ద్ధ', '|'), ('ప్రా', 'U'), ('ప్తి', '|'), ('గొ', 'U'), ('న్నే', 'U'), ('ళ్ళు', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('బ్రా', 'U'), ('ణి', '|'), ('గుం', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('నీ', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('న', '|'), ('ర', '|'), ('క', 'U'), ('స్థా', 'U'), ('న', 'U'), ('వ్య', '|'), ('థం', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్లె', '|'), ('న', '|'), ('య', 'U'), ('న్బా', 'U'), ('ల్య', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('తా', 'U'), ('ద', '|'), ('శ', '|'), ('ల', '|'), ('గొ', 'U'), ('న్నే', 'U'), ('డు', 'U'), ('ల్వ', '|'), ('ధూ', 'U'), ('మీ', 'U'), ('న', '|'), ('కే', 'U'), ('త', '|'), ('న', '|'), ('గే', 'U'), ('హ', '|'), ('భ్ర', '|'), ('మ', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|'), ('ఘ', '|'), ('న', '|'), ('వృ', 'U'), ('ద్ధ', '|'), ('ప్రా', 'U'), ('ప్తి', '|'), ('గొ', 'U'), ('న్నే', 'U'), ('ళ్ళు', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('బ్రా', 'U'), ('ణి', '|'), ('గుం', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('కే', 'U'), ('దా', 'U'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('పు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('క', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('బల్', 'U'), ('పే', 'U'), ('ద', 'U'), ('ర్కం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('వి', '|'), ('ధు', '|'), ('లో', 'U'), ('లిం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('కే', 'U'), ('దే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱిన్', 'U'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ధీ', 'U'), ('శున్', 'U'), ('ని', '|'), ('నుం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('రా', 'U'), ('దో', 'U'), ('కా', 'U'), ('న', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్మ', '|'), ('తు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('కే', 'U'), ('దా', 'U'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('పు', 'U'), ('ణ్య', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('క', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('బల్', 'U'), ('పే', 'U'), ('ద', 'U'), ('ర్కం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('వి', '|'), ('ధు', '|'), ('లో', 'U'), ('లిం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('కే', 'U'), ('దే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱి', 'U'), ('న్స', '|'), ('మ', 'U'), ('స్త', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ధీ', 'U'), ('శు', 'U'), ('న్ని', '|'), ('నుం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('రా', 'U'), ('దో', 'U'), ('కా', 'U'), ('న', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్మ', '|'), ('తు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('శుం', 'U'), ('భ', '|'), ('దు', '|'), ('రో', 'U'), ('జ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('ధ', 'U'), ('మ్మి', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('గం', 'U'), ('దో', 'U'), ('యి', '|'), ('పై', 'U'), ('మో', 'U'), ('ము', '|'), ('పై', 'U'), ('ని', '|'), ('ర', '|'), ('తం', 'U'), ('బున్', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చి', 'U'), ('త్త', '|'), ('మె', '|'), ('పు', '|'), ('డున్', 'U'), ('నీ', 'U'), ('యం', 'U'), ('దొ', '|'), ('క', 'U'), ('ప్డే', 'U'), ('ని', '|'), ('జే', 'U'), ('ర్ప', '|'), ('రు', '|'), ('గా', 'U'), ('మూ', 'U'), ('ఢు', '|'), ('ల', '|'), ('దే', 'U'), ('మి', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('మొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('శుం', 'U'), ('భ', '|'), ('దు', '|'), ('రో', 'U'), ('జ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('ధ', 'U'), ('మ్మి', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('గం', 'U'), ('దో', 'U'), ('యి', '|'), ('పై', 'U'), ('మో', 'U'), ('ము', '|'), ('పై', 'U'), ('ని', '|'), ('ర', '|'), ('తం', 'U'), ('బు', 'U'), ('న్వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('చి', 'U'), ('త్త', '|'), ('మె', '|'), ('పు', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('యం', 'U'), ('దొ', '|'), ('క', 'U'), ('ప్డే', 'U'), ('ని', '|'), ('జే', 'U'), ('ర్ప', '|'), ('రు', '|'), ('గా', 'U'), ('మూ', 'U'), ('ఢు', '|'), ('ల', '|'), ('దే', 'U'), ('మి', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('మొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('యే', 'U'), ('నూ', 'U'), ('ఱు', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('స', '|'), ('ది', '|'), ('వి', '|'), ('నన్', 'U'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('ముల్', 'U'), ('గ', 'U'), ('న్న', '|'), ('నా', 'U'), ('మ్నా', 'U'), ('యం', 'U'), ('బుల్', 'U'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('స్మృ', '|'), ('తు', '|'), ('లు', '|'), ('వే', 'U'), ('మా', 'U'), ('ఱుల్', 'U'), ('వి', '|'), ('మ', 'U'), ('ర్శిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్నీ', 'U'), ('యం', 'U'), ('దా', 'U'), ('ఢ్య', '|'), ('త', '|'), ('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ది', '|'), ('వో', 'U'), ('ని', 'U'), ('క్కం', 'U'), ('బు', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('గా', 'U'), ('య', '|'), ('త్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వై', 'U'), ('త', '|'), ('న', 'U'), ('ర్చు', '|'), ('ట', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('వే', 'U'), ('యే', 'U'), ('నూ', 'U'), ('ఱు', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్స', '|'), ('ది', '|'), ('వి', '|'), ('న', 'U'), ('న్వే', 'U'), ('దాం', 'U'), ('త', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('న్న', '|'), ('నా', 'U'), ('మ్నా', 'U'), ('యం', 'U'), ('బు', 'U'), ('ల్ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్స్మృ', '|'), ('తు', '|'), ('లు', '|'), ('వే', 'U'), ('మా', 'U'), ('ఱు', 'U'), ('ల్వి', '|'), ('మ', 'U'), ('ర్శిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్నీ', 'U'), ('యం', 'U'), ('దా', 'U'), ('ఢ్య', '|'), ('త', '|'), ('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('ది', '|'), ('వో', 'U'), ('ని', 'U'), ('క్కం', 'U'), ('బు', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('గా', 'U'), ('య', '|'), ('త్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వై', 'U'), ('త', '|'), ('న', 'U'), ('ర్చు', '|'), ('ట', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('ప', '|'), ('థ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తిన్', 'U'), ('శి', '|'), ('వ', '|'), ('శి', '|'), ('వే', 'U'), ('త్యా', 'U'), ('లా', 'U'), ('ప', '|'), ('సం', 'U'), ('శీ', 'U'), ('లు', '|'), ('లై', 'U'), ('రే', 'U'), ('ఘ', '|'), ('స్రం', 'U'), ('బు', '|'), ('లు', '|'), ('ద్రో', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('ర్విన్', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('హ', 'U'), ('త్యా', 'U'), ('ద్య', '|'), ('నే', 'U'), ('కా', 'U'), ('ఘౌ', 'U'), ('ఘం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('సి', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ప', '|'), ('ద', '|'), ('ప్రా', 'U'), ('ప్తిన్', 'U'), ('వి', '|'), ('డం', 'U'), ('బిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('ద్రా', 'U'), ('ఘి', 'U'), ('ష్ఠ', '|'), ('ప్ర', '|'), ('భు', '|'), ('తా', 'U'), ('గు', '|'), ('ణో', 'U'), ('ల్లా', 'U'), ('స', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('ప', '|'), ('థ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', 'U'), ('న్శి', '|'), ('వ', '|'), ('శి', '|'), ('వే', 'U'), ('త్యా', 'U'), ('లా', 'U'), ('ప', '|'), ('సం', 'U'), ('శీ', 'U'), ('లు', '|'), ('లై', 'U'), ('రే', 'U'), ('ఘ', '|'), ('స్రం', 'U'), ('బు', '|'), ('లు', '|'), ('ద్రో', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('త', '|'), ('ము', '|'), ('లు', 'U'), ('ర్వి', 'U'), ('న్బ్ర', 'U'), ('హ్మ', '|'), ('హ', 'U'), ('త్యా', 'U'), ('ద్య', '|'), ('నే', 'U'), ('కా', 'U'), ('ఘౌ', 'U'), ('ఘం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('సి', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ప', '|'), ('ద', '|'), ('ప్రా', 'U'), ('ప్తి', 'U'), ('న్వి', '|'), ('డం', 'U'), ('బిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('ద్రా', 'U'), ('ఘి', 'U'), ('ష్ఠ', '|'), ('ప్ర', '|'), ('భు', '|'), ('తా', 'U'), ('గు', '|'), ('ణో', 'U'), ('ల్లా', 'U'), ('స', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('పృ', '|'), ('థి', '|'), ('విన్', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('డొ', '|'), ('క', 'U'), ('ప్డు', '|'), ('నీ', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('బి', 'U'), ('ల్వీ', 'U'), ('ద', '|'), ('ళం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('ట', 'U'), ('త్యా', 'U'), ('ధి', '|'), ('కా', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('ని', 'U'), ('డ్డ', '|'), ('న', '|'), ('ది', '|'), ('యా', 'U'), ('హా', 'U'), ('ఘో', 'U'), ('ట', '|'), ('కాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('ర', '|'), ('థ', '|'), ('నా', 'U'), ('గాం', 'U'), ('బ', '|'), ('ర', '|'), ('పు', '|'), ('త్ర', '|'), ('పౌ', 'U'), ('త్ర', '|'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ర', 'U'), ('త్నా', 'U'), ('దు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('బో', 'U'), ('ప్ర', '|'), ('థి', '|'), ('తా', 'U'), ('ద', '|'), ('భ్ర', '|'), ('సి', '|'), ('తా', 'U'), ('భ్ర', '|'), ('శు', '|'), ('భ్ర', '|'), ('య', '|'), ('శ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('పృ', '|'), ('థి', '|'), ('వి', 'U'), ('న్మ', 'U'), ('ర్త్యు', '|'), ('డొ', '|'), ('క', 'U'), ('ప్డు', '|'), ('నీ', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('బి', 'U'), ('ల్వీ', 'U'), ('ద', '|'), ('ళం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('ట', 'U'), ('త్యా', 'U'), ('ధి', '|'), ('కా', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('ని', 'U'), ('డ్డ', '|'), ('న', '|'), ('ది', '|'), ('యా', 'U'), ('హా', 'U'), ('ఘో', 'U'), ('ట', '|'), ('కాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('ర', '|'), ('థ', '|'), ('నా', 'U'), ('గాం', 'U'), ('బ', '|'), ('ర', '|'), ('పు', '|'), ('త్ర', '|'), ('పౌ', 'U'), ('త్ర', '|'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('ర', 'U'), ('త్నా', 'U'), ('దు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('బో', 'U'), ('ప్ర', '|'), ('థి', '|'), ('తా', 'U'), ('ద', '|'), ('భ్ర', '|'), ('సి', '|'), ('తా', 'U'), ('భ్ర', '|'), ('శు', '|'), ('భ్ర', '|'), ('య', '|'), ('శ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('మి', '|'), ('ము', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('చే', 'U'), ('త', '|'), ('గా', 'U'), ('దె', '|'), ('చి', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('సం', 'U'), ('గ', '|'), ('తుల్', 'U'), ('శౌ', 'U'), ('రి', '|'), ('కిన్', 'U'), ('న', '|'), ('ము', '|'), ('చి', 'U'), ('ద్వే', 'U'), ('షి', '|'), ('కి', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', 'U'), ('స్థి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('నా', 'U'), ('కా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('క', '|'), ('శే', 'U'), ('ష', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('మున్', 'U'), ('గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('క్ర', '|'), ('మ', '|'), ('మ', 'U'), ('జ్ఞుల్', 'U'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('మి', '|'), ('ము', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('చే', 'U'), ('త', '|'), ('గా', 'U'), ('దె', '|'), ('చి', '|'), ('ర', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('సం', 'U'), ('గ', '|'), ('తు', 'U'), ('ల్శౌ', 'U'), ('రి', '|'), ('కిన్', 'U'), ('న', '|'), ('ము', '|'), ('చి', 'U'), ('ద్వే', 'U'), ('షి', '|'), ('కి', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', 'U'), ('స్థి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('నా', 'U'), ('కా', 'U'), ('ధి', '|'), ('ప', 'U'), ('త్యం', 'U'), ('బు', '|'), ('వా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('క', '|'), ('శే', 'U'), ('ష', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('ము', 'U'), ('న్గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('క్ర', '|'), ('మ', '|'), ('మ', 'U'), ('జ్ఞు', 'U'), ('ల్గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('వా', 'U'), ('ణీ', 'U'), ('శాం', 'U'), ('బు', '|'), ('జ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('ర్చి', '|'), ('తాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యున్', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('భా', 'U'), ('గ', '|'), ('శ', '|'), ('తాం', 'U'), ('గు', '|'), ('నిన్', 'U'), ('గ', '|'), ('జ', '|'), ('హ', '|'), ('రున్', 'U'), ('శ్రు', 'U'), ('త్యం', 'U'), ('త', '|'), ('వే', 'U'), ('ద్యున్', 'U'), ('ని', '|'), ('నున్', 'U'), ('బా', 'U'), ('ణా', 'U'), ('ది', '|'), ('ప్ర', '|'), ('మ', '|'), ('థో', 'U'), ('త్త', '|'), ('ముల్', 'U'), ('గొ', '|'), ('లి', '|'), ('చి', '|'), ('మే', 'U'), ('ల్ప', 'U'), ('ట్టూ', 'U'), ('ని', '|'), ('రౌ', 'U'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ప్రా', 'U'), ('ణి', 'U'), ('వ్యూ', 'U'), ('హ', '|'), ('మ', '|'), ('నోం', 'U'), ('బు', '|'), ('రు', 'U'), ('డ్భ', '|'), ('వ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('వా', 'U'), ('ణీ', 'U'), ('శాం', 'U'), ('బు', '|'), ('జ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('ర్చి', '|'), ('తాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యున్', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('భా', 'U'), ('గ', '|'), ('శ', '|'), ('తాం', 'U'), ('గు', '|'), ('ని', 'U'), ('న్గ', '|'), ('జ', '|'), ('హ', '|'), ('రు', 'U'), ('న్శ్రు', 'U'), ('త్యం', 'U'), ('త', '|'), ('వే', 'U'), ('ద్యు', 'U'), ('న్ని', '|'), ('నున్', 'U'), ('బా', 'U'), ('ణా', 'U'), ('ది', '|'), ('ప్ర', '|'), ('మ', '|'), ('థో', 'U'), ('త్త', '|'), ('ము', 'U'), ('ల్గొ', '|'), ('లి', '|'), ('చి', '|'), ('మే', 'U'), ('ల్ప', 'U'), ('ట్టూ', 'U'), ('ని', '|'), ('రౌ', 'U'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ప్రా', 'U'), ('ణి', 'U'), ('వ్యూ', 'U'), ('హ', '|'), ('మ', '|'), ('నోం', 'U'), ('బు', '|'), ('రు', 'U'), ('డ్భ', '|'), ('వ', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('రి', 'U'), ('ద్ర్యం', 'U'), ('బు', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వె', '|'), ('డ', '|'), ('లున్', 'U'), ('ద', 'U'), ('వ్వౌ', 'U'), ('న', '|'), ('ఘ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', 'U'), ('ల్ఘో', 'U'), ('ర', 'U'), ('వ్యా', 'U'), ('ధు', '|'), ('లు', '|'), ('గం', 'U'), ('డ', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ల', '|'), ('డం', 'U'), ('గున్', 'U'), ('జా', 'U'), ('ర', '|'), ('చో', 'U'), ('ర', 'U'), ('వ్య', '|'), ('థల్', 'U'), ('దూ', 'U'), ('రం', 'U'), ('బౌ', 'U'), ('న', '|'), ('హి', '|'), ('తా', 'U'), ('న', '|'), ('ల', '|'), ('గ్ర', '|'), ('హ', '|'), ('గ', '|'), ('ణా', 'U'), ('ర్తుల్', 'U'), ('వీ', 'U'), ('డు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్యం', 'U'), ('బొ', '|'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', '|'), ('డ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('దా', 'U'), ('రి', 'U'), ('ద్ర్యం', 'U'), ('బు', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వె', '|'), ('డ', '|'), ('లు', 'U'), ('న్ద', 'U'), ('వ్వౌ', 'U'), ('న', '|'), ('ఘ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', 'U'), ('ల్ఘో', 'U'), ('ర', 'U'), ('వ్యా', 'U'), ('ధు', '|'), ('లు', '|'), ('గం', 'U'), ('డ', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ల', '|'), ('డం', 'U'), ('గు', 'U'), ('న్జా', 'U'), ('ర', '|'), ('చో', 'U'), ('ర', 'U'), ('వ్య', '|'), ('థల్', 'U'), ('దూ', 'U'), ('రం', 'U'), ('బౌ', 'U'), ('న', '|'), ('హి', '|'), ('తా', 'U'), ('న', '|'), ('ల', '|'), ('గ్ర', '|'), ('హ', '|'), ('గ', '|'), ('ణా', 'U'), ('ర్తు', 'U'), ('ల్వీ', 'U'), ('డు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్యం', 'U'), ('బొ', '|'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నె', '|'), ('డ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('త', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('క', '|'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('గృ', '|'), ('హ', '|'), ('వ', '|'), ('న', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('సు', '|'), ('రో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('స', 'U'), ('త్కృ', '|'), ('తి', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చ', '|'), ('న', '|'), ('లు', '|'), ('వౌ', 'U'), ('నీ', 'U'), ('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('ముల్', 'U'), ('హి', '|'), ('త', '|'), ('వా', 'U'), ('రం', 'U'), ('గ', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', '|'), ('న', '|'), ('యున్', 'U'), ('హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్మ', 'U'), ('ర్త్యు', '|'), ('డొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱిన్', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('సు', '|'), ('త', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('క', '|'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('గృ', '|'), ('హ', '|'), ('వ', '|'), ('న', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('సు', '|'), ('రో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('స', 'U'), ('త్కృ', '|'), ('తి', '|'), ('ని', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చ', '|'), ('న', '|'), ('లు', '|'), ('వౌ', 'U'), ('నీ', 'U'), ('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('ముల్', 'U'), ('హి', '|'), ('త', '|'), ('వా', 'U'), ('రం', 'U'), ('గ', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', '|'), ('న', '|'), ('యు', 'U'), ('న్హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్మ', 'U'), ('ర్త్యు', '|'), ('డొ', 'U'), ('క్క', '|'), ('త', '|'), ('ఱి', 'U'), ('న్మి', 'U'), ('మ్ము', '|'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('ద్వ', 'U'), ('త్ప', '|'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('త', '|'), ('యు', '|'), ('గ', '|'), ('ళ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('క్రి', '|'), ('యా', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('సం', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('లన్', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('డెం', 'U'), ('ద', '|'), ('మొ', '|'), ('రు', '|'), ('లన్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('ని', 'U'), ('ర్ఝ', '|'), ('రి', '|'), ('ణీ', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('క', '|'), ('మ', '|'), ('ల', 'U'), ('స్తో', 'U'), ('మా', 'U'), ('స', '|'), ('వా', 'U'), ('లం', 'U'), ('ప', '|'), ('ట', '|'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బే', 'U'), ('గు', '|'), ('నే', 'U'), ('తు', 'U'), ('మ్మ', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రం', 'U'), ('ద్వ', 'U'), ('త్ప', '|'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('త', '|'), ('యు', '|'), ('గ', '|'), ('ళ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('క్రి', '|'), ('యా', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('సం', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('ల', 'U'), ('న్వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('డెం', 'U'), ('ద', '|'), ('మొ', '|'), ('రు', '|'), ('ల', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('ని', 'U'), ('ర్ఝ', '|'), ('రి', '|'), ('ణీ', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('క', '|'), ('మ', '|'), ('ల', 'U'), ('స్తో', 'U'), ('మా', 'U'), ('స', '|'), ('వా', 'U'), ('లం', 'U'), ('ప', '|'), ('ట', '|'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బే', 'U'), ('గు', '|'), ('నే', 'U'), ('తు', 'U'), ('మ్మ', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('శి', '|'), ('వు', '|'), ('జూ', 'U'), ('డం', 'U'), ('ద', '|'), ('గ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ధ', '|'), ('ముల్', 'U'), ('చి', '|'), ('త్రం', 'U'), ('బు', '|'), ('తా', 'U'), ('రె', 'U'), ('న్న', '|'), ('డు', '|'), ('న్ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్రా', 'U'), ('గ్ని', '|'), ('గృ', '|'), ('హి', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ప', '|'), ('వ', '|'), ('న', '|'), ('నీ', 'U'), ('ర', 'U'), ('వ్యో', 'U'), ('మ', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('వి', '|'), ('న', '|'), ('రో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('మ్మూ', 'U'), ('ర్ఖ', '|'), ('పుం', 'U'), ('గ', '|'), ('వు', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('ద', '|'), ('ద', '|'), ('ధీ', 'U'), ('న', '|'), ('తన్', 'U'), ('మ', '|'), ('న', '|'), ('రొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('శి', '|'), ('వు', '|'), ('జూ', 'U'), ('డం', 'U'), ('ద', '|'), ('గ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('గొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ధ', '|'), ('ము', 'U'), ('ల్చి', '|'), ('త్రం', 'U'), ('బు', '|'), ('తా', 'U'), ('రె', 'U'), ('న్న', '|'), ('డు', '|'), ('న్ర', '|'), ('వి', '|'), ('చం', 'U'), ('ద్రా', 'U'), ('గ్ని', '|'), ('గృ', '|'), ('హి', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ప', '|'), ('వ', '|'), ('న', '|'), ('నీ', 'U'), ('ర', 'U'), ('వ్యో', 'U'), ('మ', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('వి', '|'), ('న', '|'), ('రో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('మ్మూ', 'U'), ('ర్ఖ', '|'), ('పుం', 'U'), ('గ', '|'), ('వు', '|'), ('లె', 'U'), ('ల్లం', 'U'), ('ద', '|'), ('ద', '|'), ('ధీ', 'U'), ('న', '|'), ('త', 'U'), ('న్మ', '|'), ('న', '|'), ('రొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('నా', 'U'), ('నా', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('ధ', '|'), ('రా', 'U'), ('ధు', '|'), ('రా', 'U'), ('వ', '|'), ('హ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', 'U'), ('స్ఫా', 'U'), ('ర', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('నూ', 'U'), ('న', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('స', '|'), ('మే', 'U'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('శ', '|'), ('శి', '|'), ('బిం', 'U'), ('దు', 'U'), ('క్ష్మా', 'U'), ('త', '|'), ('లే', 'U'), ('శా', 'U'), ('ది', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', 'U'), ('ల్చ', '|'), ('ని', '|'), ('పో', 'U'), ('వు', '|'), ('ట', 'U'), ('ల్దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('లా', 'U'), ('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్కా', 'U'), ('నం', 'U'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్నృ', '|'), ('పు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('నా', 'U'), ('నా', 'U'), ('ద్వీ', 'U'), ('ప', '|'), ('ధ', '|'), ('రా', 'U'), ('ధు', '|'), ('రా', 'U'), ('వ', '|'), ('హ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', 'U'), ('స్ఫా', 'U'), ('ర', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('నూ', 'U'), ('న', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('స', '|'), ('మే', 'U'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('శ', '|'), ('శి', '|'), ('బిం', 'U'), ('దు', 'U'), ('క్ష్మా', 'U'), ('త', '|'), ('లే', 'U'), ('శా', 'U'), ('ది', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', 'U'), ('ల్చ', '|'), ('ని', '|'), ('పో', 'U'), ('వు', '|'), ('ట', 'U'), ('ల్దె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('లా', 'U'), ('దే', 'U'), ('హ', '|'), ('ముల్', 'U'), ('కా', 'U'), ('నం', 'U'), ('జా', 'U'), ('ల', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్నృ', '|'), ('పు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('వి', '|'), ('లెల్', 'U'), ('కా', 'U'), ('సు', '|'), ('లు', '|'), ('వీ', 'U'), ('స', '|'), ('ముల్', 'U'), ('గొ', '|'), ('ని', '|'), ('య', '|'), ('థే', 'U'), ('చ్చా', 'U'), ('లీ', 'U'), ('ల', '|'), ('లం', 'U'), ('బ్రే', 'U'), ('లు', '|'), ('దు', 'U'), ('ష్క', '|'), ('వు', '|'), ('ల', 'U'), ('న్మె', 'U'), ('చ్చు', '|'), ('చు', '|'), ('భ', 'U'), ('వ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('శా', 'U'), ('లుల్', 'U'), ('ప్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('చు', '|'), ('చో', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('క', 'U'), ('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('య', '|'), ('కా', 'U'), ('ధ', '|'), ('మ', '|'), ('వ', '|'), ('రుల్', 'U'), ('హా', 'U'), ('స్యో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('బొ', 'U'), ('ల్తు', '|'), ('రౌ', 'U'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('చ', '|'), ('వి', '|'), ('లె', 'U'), ('ల్కా', 'U'), ('సు', '|'), ('లు', '|'), ('వీ', 'U'), ('స', '|'), ('ము', 'U'), ('ల్గొ', '|'), ('ని', '|'), ('య', '|'), ('థే', 'U'), ('చ్చా', 'U'), ('లీ', 'U'), ('ల', '|'), ('లం', 'U'), ('బ్రే', 'U'), ('లు', '|'), ('దు', 'U'), ('ష్క', '|'), ('వు', '|'), ('ల', 'U'), ('న్మె', 'U'), ('చ్చు', '|'), ('చు', '|'), ('భ', 'U'), ('వ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('శా', 'U'), ('లు', 'U'), ('ల్ప్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('చు', '|'), ('చో', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('క', 'U'), ('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('య', '|'), ('కా', 'U'), ('ధ', '|'), ('మ', '|'), ('వ', '|'), ('రు', 'U'), ('ల్హా', 'U'), ('స్యో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('బొ', 'U'), ('ల్తు', '|'), ('రౌ', 'U'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('సా', 'U'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లు', '|'), ('ల', 'U'), ('న్బం', 'U'), ('ధు', '|'), ('ల', '|'), ('వి', '|'), ('ప్రు', '|'), ('లన్', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('దా', 'U'), ('సీ', 'U'), ('భృ', 'U'), ('త్య', '|'), ('మి', '|'), ('త్రా', 'U'), ('దు', '|'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లు', '|'), ('వృ', 'U'), ('త్తు', '|'), ('లుం', 'U'), ('గొ', '|'), ('ని', '|'), ('క', '|'), ('డున్', 'U'), ('గా', 'U'), ('రిం', 'U'), ('తు', '|'), ('ర', 'U'), ('ధ్య', 'U'), ('క్ష', '|'), ('తం', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('దే', 'U'), ('మొ', '|'), ('మీ', 'U'), ('ద', '|'), ('టి', '|'), ('క', '|'), ('థల్', 'U'), ('ద', 'U'), ('ర్పాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('నై', 'U'), ('నన్', 'U'), ('మ', '|'), ('హి', '|'), ('భృ', 'U'), ('ద్దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('చె', '|'), ('లు', '|'), ('ల', 'U'), ('న్బం', 'U'), ('ధు', '|'), ('ల', '|'), ('వి', '|'), ('ప్రు', '|'), ('ల', 'U'), ('న్బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('దా', 'U'), ('సీ', 'U'), ('భృ', 'U'), ('త్య', '|'), ('మి', '|'), ('త్రా', 'U'), ('దు', '|'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లు', '|'), ('వృ', 'U'), ('త్తు', '|'), ('లుం', 'U'), ('గొ', '|'), ('ని', '|'), ('క', '|'), ('డు', 'U'), ('న్గా', 'U'), ('రిం', 'U'), ('తు', '|'), ('ర', 'U'), ('ధ్య', 'U'), ('క్ష', '|'), ('తం', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('దే', 'U'), ('మొ', '|'), ('మీ', 'U'), ('ద', '|'), ('టి', '|'), ('క', '|'), ('థ', 'U'), ('ల్ద', 'U'), ('ర్పాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('రాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('నై', 'U'), ('న', 'U'), ('న్మ', '|'), ('హి', '|'), ('భృ', 'U'), ('ద్దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('జిన్', 'U'), ('వై', 'U'), ('రి', '|'), ('వ', '|'), ('రూ', 'U'), ('ధి', '|'), ('నీ', 'U'), ('మ', '|'), ('థ', '|'), ('న', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('గ్రా', 'U'), ('లన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('భో', 'U'), ('జుం', 'U'), ('బో', 'U'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('యా', 'U'), ('చ', '|'), ('క', '|'), ('త', '|'), ('తిం', 'U'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('తే', 'U'), ('జం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', 'U'), ('ర్వి', '|'), ('లో', 'U'), ('బ్ర', '|'), ('జ', '|'), ('కు', '|'), ('జెం', 'U'), ('దిం', 'U'), ('పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('రా', 'U'), ('జా', 'U'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('క', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('జి', 'U'), ('న్వై', 'U'), ('రి', '|'), ('వ', '|'), ('రూ', 'U'), ('ధి', '|'), ('నీ', 'U'), ('మ', '|'), ('థ', '|'), ('న', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('గ్రా', 'U'), ('ల', 'U'), ('న్వ', '|'), ('లెన్', 'U'), ('భో', 'U'), ('జుం', 'U'), ('బో', 'U'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('యా', 'U'), ('చ', '|'), ('క', '|'), ('త', '|'), ('తిం', 'U'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డ', 'U'), ('న్వ', '|'), ('లెన్', 'U'), ('తే', 'U'), ('జం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', 'U'), ('ర్వి', '|'), ('లో', 'U'), ('బ్ర', '|'), ('జ', '|'), ('కు', '|'), ('జెం', 'U'), ('దిం', 'U'), ('ప', 'U'), ('న్వ', '|'), ('లె', 'U'), ('న్గా', 'U'), ('ని', '|'), ('చో', 'U'), ('రా', 'U'), ('జా', 'U'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('క', '|'), ('భు', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('తే', 'U'), ('జం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బు', '|'), ('రా', 'U'), ('కృ', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('ద్ధ్యే', 'U'), ('య', 'U'), ('త్వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('పూ', 'U'), ('జా', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('రి', '|'), ('టుల్', 'U'), ('భూ', 'U'), ('ప', 'U'), ('త్వ', '|'), ('ముం', 'U'), ('గం', 'U'), ('ట', '|'), ('కున్', 'U'), ('వ్యా', 'U'), ('జం', 'U'), ('బూ', 'U'), ('ని', '|'), ('క', '|'), ('డుం', 'U'), ('జె', '|'), ('డం', 'U'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('యా', 'U'), ('లిం', 'U'), ('ప', '|'), ('రా', 'U'), ('యీ', 'U'), ('నృ', '|'), ('పుల్', 'U'), ('రా', 'U'), ('జాం', 'U'), ('తే', 'U'), ('న', '|'), ('ర', '|'), ('కం', 'U'), ('వ్ర', '|'), ('జే', 'U'), ('త్త', '|'), ('ను', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('తే', 'U'), ('జం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బు', '|'), ('రా', 'U'), ('కృ', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('ద్ధ్యే', 'U'), ('య', 'U'), ('త్వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('పూ', 'U'), ('జా', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('ద', '|'), ('మ', '|'), ('రి', '|'), ('టు', 'U'), ('ల్భూ', 'U'), ('ప', 'U'), ('త్వ', '|'), ('ముం', 'U'), ('గం', 'U'), ('ట', '|'), ('కున్', 'U'), ('వ్యా', 'U'), ('జం', 'U'), ('బూ', 'U'), ('ని', '|'), ('క', '|'), ('డుం', 'U'), ('జె', '|'), ('డం', 'U'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('నా', 'U'), ('యా', 'U'), ('లిం', 'U'), ('ప', '|'), ('రా', 'U'), ('యీ', 'U'), ('నృ', '|'), ('పుల్', 'U'), ('రా', 'U'), ('జాం', 'U'), ('తే', 'U'), ('న', '|'), ('ర', '|'), ('కం', 'U'), ('వ్ర', '|'), ('జే', 'U'), ('త్త', '|'), ('ను', '|'), ('ట', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('వి', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('సు', '|'), ('ధా', 'U'), ('శ', '|'), ('న', '|'), ('వ', '|'), ('రుల్', 'U'), ('కా', 'U'), ('ర్యా', 'U'), ('ర్థు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('డా', 'U'), ('సి', '|'), ('వ', '|'), ('డిం', 'U'), ('జే', 'U'), ('తు', '|'), ('లు', '|'), ('దో', 'U'), ('యి', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('య', '|'), ('నె', 'U'), ('క్కు', '|'), ('వ', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('ట్టి', 'U'), ('ట్టుం', 'U'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('కే', 'U'), ('కొ', 'U'), ('ర్మ్రిం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('డ్రు', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ళిం', 'U'), ('దు', 'U'), ('ర్నృ', '|'), ('పు', '|'), ('లే', 'U'), ('మి', '|'), ('యీ', 'U'), ('గ', '|'), ('ల', '|'), ('రొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('క', '|'), ('వి', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('సు', '|'), ('ధా', 'U'), ('శ', '|'), ('న', '|'), ('వ', '|'), ('రు', 'U'), ('ల్కా', 'U'), ('ర్యా', 'U'), ('ర్థు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('డా', 'U'), ('సి', '|'), ('వ', '|'), ('డిం', 'U'), ('జే', 'U'), ('తు', '|'), ('లు', '|'), ('దో', 'U'), ('యి', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('య', '|'), ('నె', 'U'), ('క్కు', '|'), ('వ', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('ట్టి', 'U'), ('ట్టుం', 'U'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('కే', 'U'), ('కొ', 'U'), ('ర్మ్రిం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('డ్రు', '|'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ళిం', 'U'), ('దు', 'U'), ('ర్నృ', '|'), ('పు', '|'), ('లే', 'U'), ('మి', '|'), ('యీ', 'U'), ('గ', '|'), ('ల', '|'), ('రొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('కో', 'U'), ('పం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('వ', '|'), ('తా', 'U'), ('ల్మి', '|'), ('యి', 'U'), ('ల్ల', '|'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('క్తుల్', 'U'), ('పె', 'U'), ('ల్లు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('తీ', 'U'), ('ల్కా', 'U'), ('ప', 'U'), ('ట్యం', 'U'), ('బు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('హృ', 'U'), ('చ్చా', 'U'), ('ప', 'U'), ('ల్యం', 'U'), ('బ', '|'), ('ధి', '|'), ('కం', 'U'), ('బు', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మ', '|'), ('తి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('రం', 'U'), ('బు', '|'), ('ఛీ', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ప్ర', '|'), ('భు', '|'), ('లే', 'U'), ('రి', '|'), ('బ్రో', 'U'), ('తు', '|'), ('రి', '|'), ('క', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('కో', 'U'), ('పం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('వ', '|'), ('తా', 'U'), ('ల్మి', '|'), ('యి', 'U'), ('ల్ల', '|'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('క్తు', 'U'), ('ల్పె', 'U'), ('ల్లు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('తీల్', 'U'), ('కా', 'U'), ('ప', 'U'), ('ట్యం', 'U'), ('బు', '|'), ('ఘ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('హృ', 'U'), ('చ్చా', 'U'), ('ప', 'U'), ('ల్యం', 'U'), ('బ', '|'), ('ధి', '|'), ('కం', 'U'), ('బు', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మ', '|'), ('తి', '|'), ('వి', 'U'), ('స్తా', 'U'), ('రం', 'U'), ('బు', '|'), ('ఛీ', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ర్వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ప్ర', '|'), ('భు', '|'), ('లే', 'U'), ('రి', '|'), ('బ్రో', 'U'), ('తు', '|'), ('రి', '|'), ('క', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('హృ', 'U'), ('ద్వీ', 'U'), ('థిం', 'U'), ('గ', '|'), ('న', '|'), ('రుం', 'U'), ('ది', '|'), ('ర', 'U'), ('స్కృ', '|'), ('తి', '|'), ('యు', '|'), ('బి', 'U'), ('ట్టే', 'U'), ('పా', 'U'), ('ర', '|'), ('నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('స', 'U'), ('ద్వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('ను', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బి', '|'), ('డ', '|'), ('ని', '|'), ('రా', 'U'), ('జ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కా', 'U'), ('శిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('వి', 'U'), ('ద్వ', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('మ', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బ', '|'), ('ను', 'U'), ('స్మృ', '|'), ('తుల్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', 'U'), ('ర్నృ', '|'), ('పా', 'U'), ('గ్ర', 'U'), ('ద్వా', 'U'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('వ్రే', 'U'), ('లు', '|'), ('పం', 'U'), ('డి', '|'), ('తు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('హృ', 'U'), ('ద్వీ', 'U'), ('థిం', 'U'), ('గ', '|'), ('న', '|'), ('రుం', 'U'), ('ది', '|'), ('ర', 'U'), ('స్కృ', '|'), ('తి', '|'), ('యు', '|'), ('బి', 'U'), ('ట్టే', 'U'), ('పా', 'U'), ('ర', '|'), ('నొ', 'U'), ('క్క', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('స', 'U'), ('ద్వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('ను', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బి', '|'), ('డ', '|'), ('ని', '|'), ('రా', 'U'), ('జ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కా', 'U'), ('శిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('వి', 'U'), ('ద్వ', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('మ', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బ', '|'), ('ను', 'U'), ('స్మృ', '|'), ('తు', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', 'U'), ('ర్నృ', '|'), ('పా', 'U'), ('గ్ర', 'U'), ('ద్వా', 'U'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('వ్రే', 'U'), ('లు', '|'), ('పం', 'U'), ('డి', '|'), ('తు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('క', '|'), ('టా', 'U'), ('జు', 'U'), ('త్తె', '|'), ('డు', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('కై', 'U'), ('కృ', '|'), ('ప', '|'), ('ణ', '|'), ('మ', 'U'), ('ర్త్యా', 'U'), ('ధీ', 'U'), ('శ', '|'), ('గే', 'U'), ('హాం', 'U'), ('గ', '|'), ('ణా', 'U'), ('వ', '|'), ('క', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ర', '|'), ('జ', 'U'), ('శ్ఛ', '|'), ('టా', 'U'), ('వి', '|'), ('ర', '|'), ('త', '|'), ('సం', 'U'), ('వ్యా', 'U'), ('ప్తాం', 'U'), ('గు', '|'), ('లై', 'U'), ('క్రుం', 'U'), ('గి', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('క', '|'), ('ముల్', 'U'), ('వె', 'U'), ('ల్వె', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('వ్రే', 'U'), ('లు', '|'), ('దు', '|'), ('ర', '|'), ('దే', 'U'), ('మో', 'U'), ('యెం', 'U'), ('దు', '|'), ('లం', 'U'), ('బో', 'U'), ('వ', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('ధీ', 'U'), ('మ', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లెం', 'U'), ('త', '|'), ('బే', 'U'), ('ల', '|'), ('లొ', '|'), ('కొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('క', '|'), ('టా', 'U'), ('జు', 'U'), ('త్తె', '|'), ('డు', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('కై', 'U'), ('కృ', '|'), ('ప', '|'), ('ణ', '|'), ('మ', 'U'), ('ర్త్యా', 'U'), ('ధీ', 'U'), ('శ', '|'), ('గే', 'U'), ('హాం', 'U'), ('గ', '|'), ('ణా', 'U'), ('వ', '|'), ('క', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('ర', '|'), ('జ', 'U'), ('శ్ఛ', '|'), ('టా', 'U'), ('వి', '|'), ('ర', '|'), ('త', '|'), ('సం', 'U'), ('వ్యా', 'U'), ('ప్తాం', 'U'), ('గు', '|'), ('లై', 'U'), ('క్రుం', 'U'), ('గి', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('క', '|'), ('ము', 'U'), ('ల్వె', 'U'), ('ల్వె', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('వ్రే', 'U'), ('లు', '|'), ('దు', '|'), ('ర', '|'), ('దే', 'U'), ('మో', 'U'), ('యెం', 'U'), ('దు', '|'), ('లం', 'U'), ('బో', 'U'), ('వ', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('ధీ', 'U'), ('మ', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లెం', 'U'), ('త', '|'), ('బే', 'U'), ('ల', '|'), ('లొ', '|'), ('కొ', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తి', '|'), ('లో', 'U'), ('భిన్', 'U'), ('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('ను', '|'), ('డం', 'U'), ('చు', '|'), ('గ', '|'), ('ప', '|'), ('ట', 'U'), ('స్వాం', 'U'), ('తున్', 'U'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్ర', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('యం', 'U'), ('చున్', 'U'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('గు', '|'), ('రూ', 'U'), ('పి', '|'), ('ని', '|'), ('న', '|'), ('వ', '|'), ('ప్ర', 'U'), ('ద్యు', 'U'), ('మ్ను', '|'), ('డం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప', '|'), ('తి', '|'), ('తున్', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('సా', 'U'), ('ధ్వ', '|'), ('స', '|'), ('మ', '|'), ('తిం', 'U'), ('బా', 'U'), ('ర్థు', '|'), ('డ', '|'), ('టం', 'U'), ('చు', 'U'), ('న్బు', '|'), ('ధుల్', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వే', 'U'), ('ళన్', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ర', 'U'), ('క్క', '|'), ('ఱ', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('తి', '|'), ('లో', 'U'), ('భి', '|'), ('న్ర', '|'), ('వి', '|'), ('సూ', 'U'), ('ను', '|'), ('డం', 'U'), ('చు', '|'), ('గ', '|'), ('ప', '|'), ('ట', 'U'), ('స్వాం', 'U'), ('తు', 'U'), ('న్హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్ర', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('యం', 'U'), ('చు', 'U'), ('న్మి', '|'), ('గు', '|'), ('లం', 'U'), ('గు', '|'), ('రూ', 'U'), ('పి', '|'), ('ని', '|'), ('న', '|'), ('వ', '|'), ('ప్ర', 'U'), ('ద్యు', 'U'), ('మ్ను', '|'), ('డం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ప', '|'), ('తి', '|'), ('తు', 'U'), ('న్ధ', 'U'), ('ర్మ', '|'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('సా', 'U'), ('ధ్వ', '|'), ('స', '|'), ('మ', '|'), ('తిం', 'U'), ('బా', 'U'), ('ర్థు', '|'), ('డ', '|'), ('టం', 'U'), ('చు', 'U'), ('న్బు', '|'), ('ధుల్', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వే', 'U'), ('ళ', 'U'), ('న్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ర', 'U'), ('క్క', '|'), ('ఱ', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('సం', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', 'U'), ('త్య', 'U'), ('ల్పు', '|'), ('ల', '|'), ('దీ', 'U'), ('న', '|'), ('తం', 'U'), ('బొ', '|'), ('గ', '|'), ('డు', '|'), ('దుర్', 'U'), ('జా', 'U'), ('త్యం', 'U'), ('ధ', '|'), ('తం', 'U'), ('జెం', 'U'), ('ది', '|'), ('కా', 'U'), ('క', '|'), ('ను', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('మ', '|'), ('రె', 'U'), ('న్న', '|'), ('డున్', 'U'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('య', 'U'), ('ద్య', 'U'), ('స్తి', '|'), ('రా', 'U'), ('జ్యే', 'U'), ('న', '|'), ('కి', 'U'), ('మ్మ', '|'), ('ను', '|'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('సం', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ల్గు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', 'U'), ('త్య', 'U'), ('ల్పు', '|'), ('ల', '|'), ('దీ', 'U'), ('న', '|'), ('తం', 'U'), ('బొ', '|'), ('గ', '|'), ('డు', '|'), ('దు', 'U'), ('ర్జా', 'U'), ('త్యం', 'U'), ('ధ', '|'), ('తం', 'U'), ('జెం', 'U'), ('ది', '|'), ('కా', 'U'), ('క', '|'), ('ను', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('మ', '|'), ('రె', 'U'), ('న్న', '|'), ('డు', 'U'), ('న్సు', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('య', 'U'), ('ద్య', 'U'), ('స్తి', '|'), ('రా', 'U'), ('జ్యే', 'U'), ('న', '|'), ('కి', 'U'), ('మ్మ', '|'), ('ను', '|'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('వి', '|'), ('నం', 'U'), ('గ', '|'), ('లే', 'U'), ('దొ', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('టు', '|'), ('లో', 'U'), ('భా', 'U'), ('త్ము', '|'), ('న', '|'), ('కె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('కం', 'U'), ('బ', 'U'), ('ద్యా', 'U'), ('దు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గు', '|'), ('టి', '|'), ('లుం', 'U'), ('డై', 'U'), ('య', '|'), ('వి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కొ', '|'), ('న', '|'), ('గా', 'U'), ('గో', 'U'), ('రం', 'U'), ('డు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బ', '|'), ('హా', 'U'), ('ది', '|'), ('ట', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కో', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('ధా', 'U'), ('త్రిన్', 'U'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పై', 'U'), ('న', '|'), ('మ', 'U'), ('ర్క', '|'), ('ట', '|'), ('పో', 'U'), ('తం', 'U'), ('బు', '|'), ('రు', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ప', '|'), ('టు', '|'), ('లో', 'U'), ('భా', 'U'), ('త్ము', '|'), ('న', '|'), ('కె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('కం', 'U'), ('బ', 'U'), ('ద్యా', 'U'), ('దు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గు', '|'), ('టి', '|'), ('లుం', 'U'), ('డై', 'U'), ('య', '|'), ('వి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కొ', '|'), ('న', '|'), ('గా', 'U'), ('గో', 'U'), ('రం', 'U'), ('డు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బ', '|'), ('హా', 'U'), ('ది', '|'), ('ట', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గ', '|'), ('ని', 'U'), ('ల్పు', '|'), ('కో', 'U'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('ధా', 'U'), ('త్రి', 'U'), ('న్గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పై', 'U'), ('న', '|'), ('మ', 'U'), ('ర్క', '|'), ('ట', '|'), ('పో', 'U'), ('తం', 'U'), ('బు', '|'), ('రు', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('మే', 'U'), ('ద', '|'), ('ర', '|'), ('సె', 'U'), ('ట్టి', '|'), ('చి', 'U'), ('వ్వ', '|'), ('త', '|'), ('డ', '|'), ('కల్', 'U'), ('పొం', 'U'), ('కం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('ల్లి', '|'), ('పె', '|'), ('న్ర', '|'), ('వ', '|'), ('ళిన్', 'U'), ('సం', 'U'), ('త', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('క్రి', '|'), ('య', '|'), ('దై', 'U'), ('న్యం', 'U'), ('బె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('దు', 'U'), ('ష్క', '|'), ('వుల్', 'U'), ('తి', '|'), ('వు', '|'), ('టొ', 'U'), ('ప్పం', 'U'), ('జె', '|'), ('డు', '|'), ('క', 'U'), ('బ్బ', '|'), ('పుం', 'U'), ('ద', '|'), ('డ', '|'), ('క', '|'), ('లో', 'U'), ('లిం', 'U'), ('ద్రి', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('న', 'U'), ('ద్ది', '|'), ('రా', 'U'), ('క', '|'), ('వి', '|'), ('తల్', 'U'), ('కా', 'U'), ('సు', '|'), ('కు', '|'), ('గం', 'U'), ('పె', '|'), ('డ', 'U'), ('య్యె', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('మే', 'U'), ('ద', '|'), ('ర', '|'), ('సె', 'U'), ('ట్టి', '|'), ('చి', 'U'), ('వ్వ', '|'), ('త', '|'), ('డ', '|'), ('క', 'U'), ('ల్పొం', 'U'), ('కం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('ల్లి', '|'), ('పె', '|'), ('న్ర', '|'), ('వ', '|'), ('ళి', 'U'), ('న్సం', 'U'), ('త', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('క్రి', '|'), ('య', '|'), ('దై', 'U'), ('న్యం', 'U'), ('బె', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('దు', 'U'), ('ష్క', '|'), ('వుల్', 'U'), ('తి', '|'), ('వు', '|'), ('టొ', 'U'), ('ప్పం', 'U'), ('జె', '|'), ('డు', '|'), ('క', 'U'), ('బ్బ', '|'), ('పుం', 'U'), ('ద', '|'), ('డ', '|'), ('క', '|'), ('లో', 'U'), ('లిం', 'U'), ('ద్రి', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('న', 'U'), ('ద్ది', '|'), ('రా', 'U'), ('క', '|'), ('వి', '|'), ('త', 'U'), ('ల్కా', 'U'), ('సు', '|'), ('కు', '|'), ('గం', 'U'), ('పె', '|'), ('డ', 'U'), ('య్యె', '|'), ('గ', '|'), ('ద', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('ని', 'U'), ('క్క', '|'), ('లి', '|'), ('దో', 'U'), ('ష', '|'), ('హే', 'U'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('బొ', 'U'), ('ల్పా', 'U'), ('రి', '|'), ('గో', 'U'), ('సం', 'U'), ('గు', '|'), ('లున్', 'U'), ('బ', '|'), ('వి', '|'), ('నా', 'U'), ('లు', 'U'), ('న్బ', '|'), ('లు', '|'), ('మో', 'U'), ('ట', '|'), ('కా', 'U'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('లుం', 'U'), ('బా', 'U'), ('షం', 'U'), ('డు', '|'), ('లు', 'U'), ('న్దా', 'U'), ('స', '|'), ('రుల్', 'U'), ('సి', '|'), ('వ', '|'), ('స', 'U'), ('త్తుల్', 'U'), ('నె', '|'), ('ఱ', '|'), ('బో', 'U'), ('య', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('ను', '|'), ('దా', 'U'), ('సే', 'U'), ('య', '|'), ('ప్ర', '|'), ('భుల్', 'U'), ('దు', 'U'), ('ష్ట', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', 'U'), ('న్మీ', 'U'), ('ఱి', '|'), ('రి', '|'), ('కే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('ని', 'U'), ('క్క', '|'), ('లి', '|'), ('దో', 'U'), ('ష', '|'), ('హే', 'U'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('బొ', 'U'), ('ల్పా', 'U'), ('రి', '|'), ('గో', 'U'), ('సం', 'U'), ('గు', '|'), ('లున్', 'U'), ('బ', '|'), ('వి', '|'), ('నా', 'U'), ('లు', 'U'), ('న్బ', '|'), ('లు', '|'), ('మో', 'U'), ('ట', '|'), ('కా', 'U'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('లుం', 'U'), ('బా', 'U'), ('షం', 'U'), ('డు', '|'), ('లు', 'U'), ('న్దా', 'U'), ('స', '|'), ('రుల్', 'U'), ('సి', '|'), ('వ', '|'), ('స', 'U'), ('త్తు', 'U'), ('ల్నె', '|'), ('ఱ', '|'), ('బో', 'U'), ('య', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('ను', '|'), ('దా', 'U'), ('సే', 'U'), ('య', '|'), ('ప్ర', '|'), ('భు', 'U'), ('ల్దు', 'U'), ('ష్ట', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', 'U'), ('న్మీ', 'U'), ('ఱి', '|'), ('రి', '|'), ('కే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', '|'), ('గు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('న', '|'), ('టు', 'U'), ('ల్గూ', 'U'), ('ర్చు', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('మ్రు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('సీ', 'U'), ('వా', 'U'), ('ర', '|'), ('యో', 'U'), ('షా', 'U'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', 'U'), ('క్షి', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('క', '|'), ('ప్ర', '|'), ('త', '|'), ('తి', '|'), ('కిన్', 'U'), ('సం', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('జే', 'U'), ('కూ', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('వ', 'U'), ('ద్య', '|'), ('ప్ర', '|'), ('తి', '|'), ('భా', 'U'), ('వి', '|'), ('భా', 'U'), ('సి', '|'), ('త', '|'), ('బు', '|'), ('ధేం', 'U'), ('ద్రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ముం', 'U'), ('జే', 'U'), ('రు', '|'), ('నే', 'U'), ('క', '|'), ('న', '|'), ('దు', 'U'), ('ద్దా', 'U'), ('మ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('చె', '|'), ('న', '|'), ('టు', 'U'), ('ల్గూ', 'U'), ('ర్చు', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('మ్రు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('సీ', 'U'), ('వా', 'U'), ('ర', '|'), ('యో', 'U'), ('షా', 'U'), ('హు', '|'), ('తా', 'U'), ('శ', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', 'U'), ('క్షి', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('క', '|'), ('ప్ర', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్సం', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('జే', 'U'), ('కూ', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('వ', 'U'), ('ద్య', '|'), ('ప్ర', '|'), ('తి', '|'), ('భా', 'U'), ('వి', '|'), ('భా', 'U'), ('సి', '|'), ('త', '|'), ('బు', '|'), ('ధేం', 'U'), ('ద్రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ముం', 'U'), ('జే', 'U'), ('రు', '|'), ('నే', 'U'), ('క', '|'), ('న', '|'), ('దు', 'U'), ('ద్దా', 'U'), ('మ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('ణిన్', 'U'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('చెం', 'U'), ('త', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ఖ', '|'), ('లుల్', 'U'), ('దా', 'U'), ('ర్కొ', 'U'), ('న్న', '|'), ('న', 'U'), ('చ్చో', 'U'), ('టి', '|'), ('కే', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థి', 'U'), ('న్బు', '|'), ('ధు', '|'), ('లే', 'U'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బా', 'U'), ('ర', '|'), ('యన్', 'U'), ('గం', 'U'), ('ట', '|'), ('కా', 'U'), ('వ', '|'), ('ర', '|'), ('ణో', 'U'), ('జ్జృం', 'U'), ('భి', '|'), ('త', '|'), ('కే', 'U'), ('త', '|'), ('కీ', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('ళుల్', 'U'), ('వా', 'U'), ('లెం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('ర', '|'), ('వే', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ద', '|'), ('భ్ర', '|'), ('ప', '|'), ('యః', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('ణి', 'U'), ('న్స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('చెం', 'U'), ('త', '|'), ('నెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('ఖ', '|'), ('లు', 'U'), ('ల్దా', 'U'), ('ర్కొ', 'U'), ('న్న', '|'), ('న', 'U'), ('చ్చో', 'U'), ('టి', '|'), ('కే', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థి', 'U'), ('న్బు', '|'), ('ధు', '|'), ('లే', 'U'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', 'U'), ('న్గం', 'U'), ('ట', '|'), ('కా', 'U'), ('వ', '|'), ('ర', '|'), ('ణో', 'U'), ('జ్జృం', 'U'), ('భి', '|'), ('త', '|'), ('కే', 'U'), ('త', '|'), ('కీ', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('ళు', 'U'), ('ల్వా', 'U'), ('లెం', 'U'), ('బు', '|'), ('గా', 'U'), ('జే', 'U'), ('ర', '|'), ('వే', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ద', '|'), ('భ్ర', '|'), ('ప', '|'), ('యః', 'U'), ('ప', '|'), ('యో', 'U'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('లో', 'U'), ('కా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణు', '|'), ('లు', '|'), ('క', 'U'), ('ల్ముల్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', 'U'), ('ప్డు', '|'), ('ప', 'U'), ('ల్గా', 'U'), ('కుల్', 'U'), ('దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('మె', 'U'), ('ల్ల', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('దు', '|'), ('రా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('గే', 'U'), ('రు', '|'), ('చుం', 'U'), ('గై', 'U'), ('కొం', 'U'), ('డ్రె', 'U'), ('ల్ల', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', 'U'), ('ల్ని', '|'), ('జ', '|'), ('మ', '|'), ('హో', 'U'), ('కా', 'U'), ('ర్కూ', 'U'), ('త', '|'), ('లం', 'U'), ('గ్రో', 'U'), ('ల్చు', '|'), ('చు', 'U'), ('న్గా', 'U'), ('కు', 'U'), ('ల్వే', 'U'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('లో', 'U'), ('కా', 'U'), ('నీ', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణు', '|'), ('లు', '|'), ('క', 'U'), ('ల్ము', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', 'U'), ('ప్డు', '|'), ('ప', 'U'), ('ల్గా', 'U'), ('కు', 'U'), ('ల్దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('మె', 'U'), ('ల్ల', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('దు', '|'), ('రా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('గే', 'U'), ('రు', '|'), ('చుం', 'U'), ('గై', 'U'), ('కొం', 'U'), ('డ్రె', 'U'), ('ల్ల', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', 'U'), ('ల్ని', '|'), ('జ', '|'), ('మ', '|'), ('హో', 'U'), ('కా', 'U'), ('ర్కూ', 'U'), ('త', '|'), ('లం', 'U'), ('గ్రో', 'U'), ('ల్చు', '|'), ('చు', 'U'), ('న్గా', 'U'), ('కు', 'U'), ('ల్వే', 'U'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్వే', 'U'), ('ద', '|'), ('పు', '|'), ('రాం', 'U'), ('డ', '|'), ('ము', 'U'), ('ల్గ', '|'), ('యి', '|'), ('త', '|'), ('లు', 'U'), ('న్స', 'U'), ('బ్బం', 'U'), ('డు', '|'), ('వి', 'U'), ('ద్దెల్', 'U'), ('గ', '|'), ('తల్', 'U'), ('మొ', '|'), ('ద', '|'), ('లె', 'U'), ('న్నే', 'U'), ('ని', '|'), ('గ', '|'), ('వి', 'U'), ('ద్దు', '|'), ('మాం', 'U'), ('సు', '|'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('మో', 'U'), ('తె', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('విం', 'U'), ('టి', '|'), ('గా', 'U'), ('న', '|'), ('ది', '|'), ('గో', 'U'), ('చౌ', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('శ', '|'), ('టా', 'U'), ('లై', 'U'), ('గా', 'U'), ('రి', 'U'), ('జ్ఞా', 'U'), ('న', 'U'), ('మ్మ', '|'), ('లెన్', 'U'), ('గ', '|'), ('ది', '|'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('వ', '|'), ('టం', 'U'), ('డ్రు', '|'), ('ము', 'U'), ('ష్క', '|'), ('రు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్వే', 'U'), ('ద', '|'), ('పు', '|'), ('రాం', 'U'), ('డ', '|'), ('ము', 'U'), ('ల్గ', '|'), ('యి', '|'), ('త', '|'), ('లు', 'U'), ('న్స', 'U'), ('బ్బం', 'U'), ('డు', '|'), ('వి', 'U'), ('ద్దె', 'U'), ('ల్గ', '|'), ('తల్', 'U'), ('మొ', '|'), ('ద', '|'), ('లె', 'U'), ('న్నే', 'U'), ('ని', '|'), ('గ', '|'), ('వి', 'U'), ('ద్దు', '|'), ('మాం', 'U'), ('సు', '|'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('మో', 'U'), ('తె', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('విం', 'U'), ('టి', '|'), ('గా', 'U'), ('న', '|'), ('ది', '|'), ('గో', 'U'), ('చౌ', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('శ', '|'), ('టా', 'U'), ('లై', 'U'), ('గా', 'U'), ('రి', 'U'), ('జ్ఞా', 'U'), ('న', 'U'), ('మ్మ', '|'), ('లెన్', 'U'), ('గ', '|'), ('ది', '|'), ('యం', 'U'), ('జా', 'U'), ('ల', '|'), ('వ', '|'), ('టం', 'U'), ('డ్రు', '|'), ('ము', 'U'), ('ష్క', '|'), ('రు', '|'), ('లు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ది', '|'), ('గో', 'U'), ('బా', 'U'), ('ప', '|'), ('న', '|'), ('య', 'U'), ('ల్లు', '|'), ('భొ', 'U'), ('ట్ల', '|'), ('య', '|'), ('కు', '|'), ('ముం', 'U'), ('ద', 'U'), ('ప్ప', 'U'), ('య్య', '|'), ('తీ', 'U'), ('ర్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('నం', 'U'), ('గి', 'U'), ('ద్దె', '|'), ('డు', '|'), ('కొ', 'U'), ('ఱ్ఱ', '|'), ('నూ', 'U'), ('క', '|'), ('లి', '|'), ('డి', '|'), ('తిన్', 'U'), ('అ', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('తి', 'U'), ('ర్నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('స', '|'), ('దు', '|'), ('వం', 'U'), ('జా', 'U'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('ర', '|'), ('య', '|'), ('లన్', 'U'), ('సం', 'U'), ('తో', 'U'), ('స', '|'), ('నాల్', 'U'), ('సే', 'U'), ('సి', '|'), ('తిం', 'U'), ('గ', '|'), ('ద', '|'), ('యం', 'U'), ('చుం', 'U'), ('బ', '|'), ('లు', '|'), ('మో', 'U'), ('టు', '|'), ('లా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('అ', '|'), ('ది', '|'), ('గో', 'U'), ('బా', 'U'), ('ప', '|'), ('న', '|'), ('య', 'U'), ('ల్లు', '|'), ('భొ', 'U'), ('ట్ల', '|'), ('య', '|'), ('కు', '|'), ('ముం', 'U'), ('ద', 'U'), ('ప్ప', 'U'), ('య్య', '|'), ('తీ', 'U'), ('ర్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('నం', 'U'), ('గి', 'U'), ('ద్దె', '|'), ('డు', '|'), ('కొ', 'U'), ('ఱ్ఱ', '|'), ('నూ', 'U'), ('క', '|'), ('లి', '|'), ('డి', '|'), ('తి', 'U'), ('న్అ', 'U'), ('బ్బ', 'U'), ('బ్బ', '|'), ('తి', 'U'), ('ర్నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('స', '|'), ('దు', '|'), ('వం', 'U'), ('జా', 'U'), ('గి', '|'), ('న', '|'), ('మా', 'U'), ('ల', '|'), ('దా', 'U'), ('స', '|'), ('ర', '|'), ('య', '|'), ('ల', 'U'), ('న్సం', 'U'), ('తో', 'U'), ('స', '|'), ('నా', 'U'), ('ల్సే', 'U'), ('సి', '|'), ('తిం', 'U'), ('గ', '|'), ('ద', '|'), ('యం', 'U'), ('చుం', 'U'), ('బ', '|'), ('లు', '|'), ('మో', 'U'), ('టు', '|'), ('లా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('లన్', 'U'), ('దై', 'U'), ('ల', '|'), ('ము', '|'), ('తీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భు', '|'), ('జ', '|'), ('గ', '|'), ('వ్రా', 'U'), ('త', 'U'), ('మ్ము', '|'), ('ల', 'U'), ('న్బే', 'U'), ('ర్ల', '|'), ('గా', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్బూ', 'U'), ('న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('బు', '|'), ('ని', '|'), ('ధి', '|'), ('హా', 'U'), ('ళిం', 'U'), ('దా', 'U'), ('ట', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('డా', 'U'), ('కే', 'U'), ('ల', 'U'), ('న్బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వి', '|'), ('పి', '|'), ('నా', 'U'), ('గ్ని', 'U'), ('న్ని', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('మూ', 'U'), ('ర్ఖా', 'U'), ('ళిం', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('ద', '|'), ('రం', 'U'), ('బె', '|'), ('యే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('రా', 'U'), ('ల', 'U'), ('న్దై', 'U'), ('ల', '|'), ('ము', '|'), ('తీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భు', '|'), ('జ', '|'), ('గ', '|'), ('వ్రా', 'U'), ('త', 'U'), ('మ్ము', '|'), ('ల', 'U'), ('న్బే', 'U'), ('ర్ల', '|'), ('గా', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్బూ', 'U'), ('న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('బు', '|'), ('ని', '|'), ('ధి', '|'), ('హా', 'U'), ('ళిం', 'U'), ('దా', 'U'), ('ట', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('డా', 'U'), ('కే', 'U'), ('ల', 'U'), ('న్బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వి', '|'), ('పి', '|'), ('నా', 'U'), ('గ్ని', 'U'), ('న్ని', 'U'), ('ల్ప', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('మూ', 'U'), ('ర్ఖా', 'U'), ('ళిం', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('ద', '|'), ('రం', 'U'), ('బె', '|'), ('యే', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('కొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వం', 'U'), ('ట', '|'), ('కం', 'U'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('బి', 'U'), ('య్యం', 'U'), ('బై', 'U'), ('న', '|'), ('జా', 'U'), ('వై', 'U'), ('న', '|'), ('గూ', 'U'), ('రా', 'U'), ('కై', 'U'), ('న', 'U'), ('న్ఫ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ర', '|'), ('మ', '|'), ('యి', '|'), ('నన్', 'U'), ('హా', 'U'), ('ళిం', 'U'), ('గ', '|'), ('ల', 'U'), ('ట్లి', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('జే', 'U'), ('కో', 'U'), ('నౌ', 'U'), ('బ', '|'), ('ర', '|'), ('దే', 'U'), ('శు', '|'), ('లం', 'U'), ('గృ', '|'), ('హు', '|'), ('ల', '|'), ('కు', 'U'), ('న్సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('ఛీ', 'U'), ('కా', 'U'), ('కు', 'U'), ('న్న', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('యే', 'U'), ('టి', '|'), ('కొం', 'U'), ('ప', '|'), ('ల', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('కొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వం', 'U'), ('ట', '|'), ('కం', 'U'), ('బ', '|'), ('యి', '|'), ('న', '|'), ('బి', 'U'), ('య్యం', 'U'), ('బై', 'U'), ('న', '|'), ('జా', 'U'), ('వై', 'U'), ('న', '|'), ('గూ', 'U'), ('రా', 'U'), ('కై', 'U'), ('న', 'U'), ('న్ఫ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ర', '|'), ('మ', '|'), ('యి', '|'), ('న', 'U'), ('న్హా', 'U'), ('ళిం', 'U'), ('గ', '|'), ('ల', 'U'), ('ట్లి', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('జే', 'U'), ('కో', 'U'), ('నౌ', 'U'), ('బ', '|'), ('ర', '|'), ('దే', 'U'), ('శు', '|'), ('లం', 'U'), ('గృ', '|'), ('హు', '|'), ('ల', '|'), ('కు', 'U'), ('న్సి', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('ఛీ', 'U'), ('కా', 'U'), ('కు', 'U'), ('న్న', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('యే', 'U'), ('టి', '|'), ('కొం', 'U'), ('ప', '|'), ('ల', '|'), ('వి', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('కి', 'U'), ('న్శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వి', '|'), ('గా', 'U'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('చి', 'U'), ('ల్క', 'U'), ('న్వే', 'U'), ('గ', '|'), ('పో', 'U'), ('కా', 'U'), ('ర్చి', '|'), ('సు', 'U'), ('శ్లో', 'U'), ('కుం', 'U'), ('గొం', 'U'), ('చె', '|'), ('పు', '|'), ('టేం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('గె', '|'), ('డ', '|'), ('పి', '|'), ('దు', 'U'), ('ష్టుం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('నా', 'U'), ('ళ్లుం', 'U'), ('చి', '|'), ('య', 'U'), ('స్తో', 'U'), ('క', 'U'), ('త్యా', 'U'), ('గి', '|'), ('ద', '|'), ('రి', '|'), ('ద్రు', '|'), ('జే', 'U'), ('సి', '|'), ('క', '|'), ('ఠి', '|'), ('నా', 'U'), ('త్మున్', 'U'), ('శ్రీ', 'U'), ('యు', '|'), ('తుం', 'U'), ('జే', 'U'), ('యు', '|'), ('నా', 'U'), ('హా', 'U'), ('కొం', 'U'), ('కే', 'U'), ('ది', '|'), ('క', '|'), ('న', 'U'), ('ల్వ', '|'), ('చె', 'U'), ('య్వు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
+          <t>[('కా', 'U'), ('కి', 'U'), ('న్శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('జీ', 'U'), ('వి', '|'), ('గా', 'U'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('చి', 'U'), ('ల్క', 'U'), ('న్వే', 'U'), ('గ', '|'), ('పో', 'U'), ('కా', 'U'), ('ర్చి', '|'), ('సు', 'U'), ('శ్లో', 'U'), ('కుం', 'U'), ('గొం', 'U'), ('చె', '|'), ('పు', '|'), ('టేం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('గె', '|'), ('డ', '|'), ('పి', '|'), ('దు', 'U'), ('ష్టుం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('నా', 'U'), ('ళ్లుం', 'U'), ('చి', '|'), ('య', 'U'), ('స్తో', 'U'), ('క', 'U'), ('త్యా', 'U'), ('గి', '|'), ('ద', '|'), ('రి', '|'), ('ద్రు', '|'), ('జే', 'U'), ('సి', '|'), ('క', '|'), ('ఠి', '|'), ('నా', 'U'), ('త్ము', 'U'), ('న్శ్రీ', 'U'), ('యు', '|'), ('తుం', 'U'), ('జే', 'U'), ('యు', '|'), ('నా', 'U'), ('హా', 'U'), ('కొం', 'U'), ('కే', 'U'), ('ది', '|'), ('క', '|'), ('న', 'U'), ('ల్వ', '|'), ('చె', 'U'), ('య్వు', '|'), ('ల', '|'), ('కు', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('భా', 'U')]</t>
         </is>
       </c>
     </row>
